--- a/KBQA/QTemplates-sparqlQ.xlsx
+++ b/KBQA/QTemplates-sparqlQ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\SimpleQA\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhejianglab.com\入职后\work\workspace\RoboCloudBrain\KBQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4996BE9E-1FBC-4E24-957D-717A877E6BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1500" windowWidth="28240" windowHeight="17440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,19 +260,6 @@
   </si>
   <si>
     <t>开始时间</t>
-  </si>
-  <si>
-    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
-PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
-PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
-SELECT ?changeeventimestr WHERE {
-    ?project foaf:name "_project" ;
-              a foaf:Project ;
-             org:changedBy ?ChangeEvent .
-    ?ChangeEvent a org:Kickoff ;
-                 prov:atTime ?ChangeEventime .
-    BIND(STR(?ChangeEventime) AS ?changeeventimestr) .
-}</t>
   </si>
   <si>
     <t>项目负责人是谁</t>
@@ -1134,23 +1122,6 @@
     <t>organizationname-kickoffdate</t>
   </si>
   <si>
-    <t>PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
-PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
-PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-SELECT ?kickofftimestr WHERE { 
-?s foaf:name "_organization";
-    a ?type;
-        org:changedBy ?changeevent .
-    ?changeevent a org:Kickoff;
-    prov:atTime ?kickofftime .
-    FILTER NOT EXISTS { ?sub rdfs:subClassOf ?type FILTER(?sub != ?type &amp;&amp; ?sub != owl:Nothing ) } .
-    FILTER NOT EXISTS { ?type a foaf:Project } .  
-    BIND(STR(?kickofftime) AS ?kickofftimestr) .
-}</t>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
@@ -1271,6 +1242,1064 @@
     <t>projectname-changeeventnames</t>
   </si>
   <si>
+    <t>组织机构中担任某职位的人是谁</t>
+  </si>
+  <si>
+    <t>organizationname&amp;postname-personname</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+SELECT DISTINCT ?personname WHERE {
+?org foaf:name "_organization" ;
+a ?type ;
+org:hasMember ?person ;
+org:hasPost ?post .
+?person foaf:name ?personname ;
+org:holds ?post .
+?post foaf:name "_post" .
+FILTER NOT EXISTS {?sub rdfs:subClassOf ?type FILTER(?sub != ?type &amp;&amp; ?sub != owl:Nothing ) } .
+FILTER NOT EXISTS { ?type rdf:type foaf:Project } .
+}</t>
+  </si>
+  <si>
+    <t>organization, post</t>
+  </si>
+  <si>
+    <t>组织机构中有哪些子机构</t>
+  </si>
+  <si>
+    <t>organizationname-subsuborganizationnames</t>
+  </si>
+  <si>
+    <t>PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+SELECT ?unitname WHERE { 
+?organization foaf:name '_organization' ;
+org:hasUnit ?unit .
+?unit foaf:name ?unitname .
+}</t>
+  </si>
+  <si>
+    <t>项目有多少成员</t>
+  </si>
+  <si>
+    <t>projectname-personcount</t>
+  </si>
+  <si>
+    <t>有成员</t>
+  </si>
+  <si>
+    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
+SELECT ?pcountstr WHERE {
+BIND(STR(?pcount) as ?pcountstr ) .
+{
+SELECT (COUNT(?person) as ?pcount) WHERE {
+?project foaf:name "_project" ;
+a foaf:Project;
+org:hasMember ?person .
+}
+}
+}</t>
+  </si>
+  <si>
+    <t>位</t>
+  </si>
+  <si>
+    <t>项目中的人年纪有多大</t>
+  </si>
+  <si>
+    <t>参与项目的人年龄是多少</t>
+  </si>
+  <si>
+    <t>哪些年龄的人参与了项目</t>
+  </si>
+  <si>
+    <t>参与项目的人都多大</t>
+  </si>
+  <si>
+    <t>项目中的人员年龄有多大</t>
+  </si>
+  <si>
+    <t>项目完成的日期是什么</t>
+  </si>
+  <si>
+    <t>完成项目是在什么日期</t>
+  </si>
+  <si>
+    <t>在哪个日期完成的项目</t>
+  </si>
+  <si>
+    <t>项目在什么日期结束的</t>
+  </si>
+  <si>
+    <t>项目结束的日期是什么</t>
+  </si>
+  <si>
+    <t>结束项目是在什么日期</t>
+  </si>
+  <si>
+    <t>在哪个日期结束的项目</t>
+  </si>
+  <si>
+    <t>项目中的人都是研究哪些方向</t>
+  </si>
+  <si>
+    <t>参与项目的人都来自哪些研究方向</t>
+  </si>
+  <si>
+    <t>哪些研究方向的人参与了项目</t>
+  </si>
+  <si>
+    <t>项目参与者在研究什么</t>
+  </si>
+  <si>
+    <t>项目参与者在研究哪些内容</t>
+  </si>
+  <si>
+    <t>项目中的博士研究生有谁</t>
+  </si>
+  <si>
+    <t>参与项目的人哪些是博士研究生</t>
+  </si>
+  <si>
+    <t>哪些博士研究生参与了项目</t>
+  </si>
+  <si>
+    <t>项目参与者中为博士的都有谁</t>
+  </si>
+  <si>
+    <t>参与项目的人有哪些是博士</t>
+  </si>
+  <si>
+    <t>参与项目的博士都有谁</t>
+  </si>
+  <si>
+    <t>项目中的女性都有谁</t>
+  </si>
+  <si>
+    <t>参与项目的人有哪些是女的</t>
+  </si>
+  <si>
+    <t>哪些女性参与了项目</t>
+  </si>
+  <si>
+    <t>项目的女性参与者是谁</t>
+  </si>
+  <si>
+    <t>项目中的女性是谁</t>
+  </si>
+  <si>
+    <t>项目中的人地址都是什么</t>
+  </si>
+  <si>
+    <t>参与项目的人地址在哪里</t>
+  </si>
+  <si>
+    <t>地址是哪里的人参与了项目</t>
+  </si>
+  <si>
+    <t>项目参与者都在哪里办公</t>
+  </si>
+  <si>
+    <t>项目被资助了多少资金</t>
+  </si>
+  <si>
+    <t>多少资金被资助给了项目</t>
+  </si>
+  <si>
+    <t>多大的资金量被资助给了项目</t>
+  </si>
+  <si>
+    <t>项目经费是多少</t>
+  </si>
+  <si>
+    <t>项目资金是多少</t>
+  </si>
+  <si>
+    <t>项目由哪个单位资助的</t>
+  </si>
+  <si>
+    <t>哪个机构资助了项目</t>
+  </si>
+  <si>
+    <t>哪个组织是这个项目的出资方</t>
+  </si>
+  <si>
+    <t>该项目的资金来源是哪里</t>
+  </si>
+  <si>
+    <t>哪个单位资助了项目</t>
+  </si>
+  <si>
+    <t>项目中的男性女性各有几个</t>
+  </si>
+  <si>
+    <t>参与项目的人中有几个男几个女</t>
+  </si>
+  <si>
+    <t>几男几女参与了项目</t>
+  </si>
+  <si>
+    <t>项目中的男女比例是多少</t>
+  </si>
+  <si>
+    <t>有多少男性和女性参与了该项目</t>
+  </si>
+  <si>
+    <t>这个项目有多少男男女女</t>
+  </si>
+  <si>
+    <t>项目中的人学历学位有哪些</t>
+  </si>
+  <si>
+    <t>参与项目的人都是哪些学历学位</t>
+  </si>
+  <si>
+    <t>哪些学历学位的人参与了项目</t>
+  </si>
+  <si>
+    <t>项目参与者的学历是什么</t>
+  </si>
+  <si>
+    <t>项目项目参与者有哪些学历学位</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>项目开始的日期是什么</t>
+  </si>
+  <si>
+    <t>开始项目是在什么日期</t>
+  </si>
+  <si>
+    <t>在什么日期开始的项目</t>
+  </si>
+  <si>
+    <t>项目在什么日期启动的</t>
+  </si>
+  <si>
+    <t>项目启动的日期是什么</t>
+  </si>
+  <si>
+    <t>项目项目在什么日期开始的</t>
+  </si>
+  <si>
+    <t>在什么日期启动的项目</t>
+  </si>
+  <si>
+    <t>项目中的负责人是哪一位</t>
+  </si>
+  <si>
+    <t>负责项目的人是哪个人</t>
+  </si>
+  <si>
+    <t>哪位是项目的负责人</t>
+  </si>
+  <si>
+    <t>项目是由谁负责的</t>
+  </si>
+  <si>
+    <t>谁是项目负责人</t>
+  </si>
+  <si>
+    <t>项目项目负责人是谁</t>
+  </si>
+  <si>
+    <t>项目中的男性都有谁</t>
+  </si>
+  <si>
+    <t>参与项目的人有哪些是男的</t>
+  </si>
+  <si>
+    <t>哪些男性参与了项目</t>
+  </si>
+  <si>
+    <t>项目中男性参与者都有谁</t>
+  </si>
+  <si>
+    <t>项目项目男性参与者有哪些人</t>
+  </si>
+  <si>
+    <t>项目中的硕士研究生有谁</t>
+  </si>
+  <si>
+    <t>参与项目的人哪些是硕士研究生</t>
+  </si>
+  <si>
+    <t>哪些硕士研究生参与了项目</t>
+  </si>
+  <si>
+    <t>项目参与者有哪些是硕士</t>
+  </si>
+  <si>
+    <t>项目项目参与的硕士研究生有哪些人</t>
+  </si>
+  <si>
+    <t>项目有哪些单位参与</t>
+  </si>
+  <si>
+    <t>参与项目的组织有哪几个</t>
+  </si>
+  <si>
+    <t>哪些机构参与了项目</t>
+  </si>
+  <si>
+    <t>项目的参与组织是什么</t>
+  </si>
+  <si>
+    <t>哪些单位参与了该项目</t>
+  </si>
+  <si>
+    <t>项目项目参与机构有哪些</t>
+  </si>
+  <si>
+    <t>项目有几个单位参与</t>
+  </si>
+  <si>
+    <t>参与项目的组织有多少个</t>
+  </si>
+  <si>
+    <t>有几个机构参与了项目</t>
+  </si>
+  <si>
+    <t>有多少组织参与了项目</t>
+  </si>
+  <si>
+    <t>该项目涉及几个单位</t>
+  </si>
+  <si>
+    <t>项目项目参与机构有几个</t>
+  </si>
+  <si>
+    <t>项目有哪些人参与</t>
+  </si>
+  <si>
+    <t>参与项目的人有哪几个</t>
+  </si>
+  <si>
+    <t>哪些人参与了项目</t>
+  </si>
+  <si>
+    <t>谁参与了项目</t>
+  </si>
+  <si>
+    <t>项目是由谁完成的</t>
+  </si>
+  <si>
+    <t>项目项目参与人有哪些</t>
+  </si>
+  <si>
+    <t>项目中的人担任的什么职位</t>
+  </si>
+  <si>
+    <t>参与项目的人有哪些任职</t>
+  </si>
+  <si>
+    <t>什么职位的人参与了项目</t>
+  </si>
+  <si>
+    <t>项目中的人员担任什么职位</t>
+  </si>
+  <si>
+    <t>项目项目参与人都是什么职位</t>
+  </si>
+  <si>
+    <t>项目中的人有什么样的成果</t>
+  </si>
+  <si>
+    <t>参与项目的人的成果有哪些</t>
+  </si>
+  <si>
+    <t>有什么样成果的人参与了项目</t>
+  </si>
+  <si>
+    <t>项目项目参与者的成果有哪些</t>
+  </si>
+  <si>
+    <t>在项目中发表著作的人有谁</t>
+  </si>
+  <si>
+    <t>参与项目的人谁在项目中发表了著作</t>
+  </si>
+  <si>
+    <t>哪些人在参与项目中发表了著作</t>
+  </si>
+  <si>
+    <t>项目成果是谁发表的</t>
+  </si>
+  <si>
+    <t>谁在该项目中发表了论文或者专利</t>
+  </si>
+  <si>
+    <t>项目项目发表项目著作的有哪些人</t>
+  </si>
+  <si>
+    <t>项目有哪些成果</t>
+  </si>
+  <si>
+    <t>哪些成果出自项目</t>
+  </si>
+  <si>
+    <t>有什么成果由项目产出</t>
+  </si>
+  <si>
+    <t>项目成果是什么</t>
+  </si>
+  <si>
+    <t>项目项目成果有哪些</t>
+  </si>
+  <si>
+    <t>项目制作的机器人能续航多久</t>
+  </si>
+  <si>
+    <t>产自项目的机器人的续航时间多长</t>
+  </si>
+  <si>
+    <t>项目设计建造的机器人的持续工作时间</t>
+  </si>
+  <si>
+    <t>该项目生产的机器人能持续工作多久</t>
+  </si>
+  <si>
+    <t>项目制作的项目的续航时间</t>
+  </si>
+  <si>
+    <t>项目项目制作的深海机器人的续航时间</t>
+  </si>
+  <si>
+    <t>项目项目制作的项目的续航时间</t>
+  </si>
+  <si>
+    <t>项目制作的机器人有多大</t>
+  </si>
+  <si>
+    <t>产自项目的机器人的尺寸是多少</t>
+  </si>
+  <si>
+    <t>项目设计建造的机器人的长宽</t>
+  </si>
+  <si>
+    <t>项目生产的深海机器人有多大</t>
+  </si>
+  <si>
+    <t>项目生产的机器人有多大</t>
+  </si>
+  <si>
+    <t>项目制作的项目的尺寸是多少</t>
+  </si>
+  <si>
+    <t>项目项目制作的深海机器人的尺寸是多少</t>
+  </si>
+  <si>
+    <t>项目项目制作的项目的尺寸是多少</t>
+  </si>
+  <si>
+    <t>项目制作的机器人由什么材料构成</t>
+  </si>
+  <si>
+    <t>产自项目的机器人的组成材料是什么</t>
+  </si>
+  <si>
+    <t>建造项目设计的机器人所用的材料</t>
+  </si>
+  <si>
+    <t>项目的机器人是用什么材料制成的</t>
+  </si>
+  <si>
+    <t>项目制作的项目的材料是什么</t>
+  </si>
+  <si>
+    <t>项目项目制作的深海机器人的材料是什么</t>
+  </si>
+  <si>
+    <t>项目项目制作的项目的材料是什么</t>
+  </si>
+  <si>
+    <t>项目制作的机器人能移动多快</t>
+  </si>
+  <si>
+    <t>产自项目的机器人的运动速度是多少</t>
+  </si>
+  <si>
+    <t>项目设计建造的机器人的运动速度</t>
+  </si>
+  <si>
+    <t>项目制造的机器人移动速度有多快</t>
+  </si>
+  <si>
+    <t>项目制作的项目的移动速度是多少</t>
+  </si>
+  <si>
+    <t>项目项目制作的深海机器人的移动速度是多少</t>
+  </si>
+  <si>
+    <t>项目项目制作的项目的移动速度是多少</t>
+  </si>
+  <si>
+    <t>项目制作的机器人叫什么</t>
+  </si>
+  <si>
+    <t>产自项目的机器人的名字是什么</t>
+  </si>
+  <si>
+    <t>项目设计建造的机器人的名称</t>
+  </si>
+  <si>
+    <t>项目制作的项目叫什么</t>
+  </si>
+  <si>
+    <t>项目项目制作的深海机器人叫什么</t>
+  </si>
+  <si>
+    <t>项目项目制作的项目叫什么</t>
+  </si>
+  <si>
+    <t>项目制作的机器人能下潜多深</t>
+  </si>
+  <si>
+    <t>产自项目的机器人的下潜深度是多少</t>
+  </si>
+  <si>
+    <t>项目设计建造的机器人的潜深</t>
+  </si>
+  <si>
+    <t>项目制造的机器人能潜多深</t>
+  </si>
+  <si>
+    <t>项目制作的项目的下潜深度是多少</t>
+  </si>
+  <si>
+    <t>项目项目制作的深海机器人的下潜深度是多少</t>
+  </si>
+  <si>
+    <t>项目项目制作的项目的下潜深度是多少</t>
+  </si>
+  <si>
+    <t>项目制作的机器人能做什么</t>
+  </si>
+  <si>
+    <t>产自项目的机器人的功能有什么</t>
+  </si>
+  <si>
+    <t>项目设计建造的机器人的应用</t>
+  </si>
+  <si>
+    <t>项目生产的机器人能做什么</t>
+  </si>
+  <si>
+    <t>项目制作的项目有哪些用途</t>
+  </si>
+  <si>
+    <t>项目项目制作的深海机器人有哪些用途</t>
+  </si>
+  <si>
+    <t>项目项目制作的项目有哪些用途</t>
+  </si>
+  <si>
+    <t>项目中的人来自某机构的有哪些</t>
+  </si>
+  <si>
+    <t>参与项目的人哪些来自某机构</t>
+  </si>
+  <si>
+    <t>哪些来自某机构的人参与了项目</t>
+  </si>
+  <si>
+    <t>参与项目的人当中都有谁来自某机构</t>
+  </si>
+  <si>
+    <t>项目中的人来自机构的有哪些</t>
+  </si>
+  <si>
+    <t>参与项目的人哪些来自机构</t>
+  </si>
+  <si>
+    <t>哪些来自机构的人参与了项目</t>
+  </si>
+  <si>
+    <t>项目项目中某机构有哪些成员参与</t>
+  </si>
+  <si>
+    <t>项目中的某人研究方向有哪些</t>
+  </si>
+  <si>
+    <t>参与项目的某人有哪些研究方向</t>
+  </si>
+  <si>
+    <t>什么是参与项目的某人的研究方向</t>
+  </si>
+  <si>
+    <t>项目项目中某参与人的研究方向是什么</t>
+  </si>
+  <si>
+    <t>项目中的某人地址是哪里</t>
+  </si>
+  <si>
+    <t>参与项目的某人的地址在何处</t>
+  </si>
+  <si>
+    <t>何处是参与项目的某人的地址</t>
+  </si>
+  <si>
+    <t>项目项目中某参与人的地址是什么</t>
+  </si>
+  <si>
+    <t>项目中的某人学历学位是什么</t>
+  </si>
+  <si>
+    <t>参与项目的某人的有什么学历学位</t>
+  </si>
+  <si>
+    <t>什么是参与项目的某人的学历学位</t>
+  </si>
+  <si>
+    <t>项目参与者某人的学历是什么</t>
+  </si>
+  <si>
+    <t>项目项目中某参与人的学历学位是什么</t>
+  </si>
+  <si>
+    <t>项目中某参与人的单位名称是什么</t>
+  </si>
+  <si>
+    <t>项目中的某人的单位名称是什么</t>
+  </si>
+  <si>
+    <t>参与项目的某人所在机构叫什么</t>
+  </si>
+  <si>
+    <t>什么组织的某人参与了项目</t>
+  </si>
+  <si>
+    <t>项目项目中某参与人的单位名称是什么</t>
+  </si>
+  <si>
+    <t>项目中某参与人任职的职位名称是什么</t>
+  </si>
+  <si>
+    <t>项目中的某人担任的什么职位</t>
+  </si>
+  <si>
+    <t>参与项目的某人有哪些任职</t>
+  </si>
+  <si>
+    <t>什么职位的某人参与了项目</t>
+  </si>
+  <si>
+    <t>项目项目中某参与人任职的职位名称是什么</t>
+  </si>
+  <si>
+    <t>项目中的某人有什么样的成果</t>
+  </si>
+  <si>
+    <t>参与项目的某人的成果有哪些</t>
+  </si>
+  <si>
+    <t>有什么样成果的某人参与了项目</t>
+  </si>
+  <si>
+    <t>项目项目中某参与人的成果有哪些</t>
+  </si>
+  <si>
+    <t>担任某职位的项目参与者姓名是什么</t>
+  </si>
+  <si>
+    <t>参与项目的人中担任某职位的名字有哪些</t>
+  </si>
+  <si>
+    <t>谁是项目参与者中担任某职位的人</t>
+  </si>
+  <si>
+    <t>项目项目参与者中担任某职位的人叫什么名字</t>
+  </si>
+  <si>
+    <t>项目中担任职位的人是谁</t>
+  </si>
+  <si>
+    <t>某出版物有哪些作者</t>
+  </si>
+  <si>
+    <t>哪些人是某出版物的作者</t>
+  </si>
+  <si>
+    <t>谁发表了某出版物</t>
+  </si>
+  <si>
+    <t>论文的作者是谁</t>
+  </si>
+  <si>
+    <t>谁是名为某文章的作者</t>
+  </si>
+  <si>
+    <t>项目有哪些论文成果</t>
+  </si>
+  <si>
+    <t>哪些论文是自项目的成果</t>
+  </si>
+  <si>
+    <t>有什么论文是项目的成果</t>
+  </si>
+  <si>
+    <t>项目发表了哪些论文</t>
+  </si>
+  <si>
+    <t>项目项目成果有哪些论文</t>
+  </si>
+  <si>
+    <t>项目有哪些专利成果</t>
+  </si>
+  <si>
+    <t>哪些专利是自项目的成果</t>
+  </si>
+  <si>
+    <t>有什么专利是项目的成果</t>
+  </si>
+  <si>
+    <t>项目发表了哪些专利</t>
+  </si>
+  <si>
+    <t>项目项目成果有哪些专利</t>
+  </si>
+  <si>
+    <t>项目中某成果的类型是什么</t>
+  </si>
+  <si>
+    <t>项目中某成果属于何种类型</t>
+  </si>
+  <si>
+    <t>项目中某成果是哪个类别</t>
+  </si>
+  <si>
+    <t>项目的某成果是论文吗</t>
+  </si>
+  <si>
+    <t>项目的某成果是专利吗</t>
+  </si>
+  <si>
+    <t>项目的某成果是论文还是专利</t>
+  </si>
+  <si>
+    <t>项目项目某成果是什么类型</t>
+  </si>
+  <si>
+    <t>项目成果有哪些类型</t>
+  </si>
+  <si>
+    <t>哪些类型的成果出自项目</t>
+  </si>
+  <si>
+    <t>有什么类型的成果出自项目</t>
+  </si>
+  <si>
+    <t>项目项目有哪些类型的成果</t>
+  </si>
+  <si>
+    <t>项目成果论文在哪些期刊上发表了</t>
+  </si>
+  <si>
+    <t>哪些期刊上发表了项目成果论文</t>
+  </si>
+  <si>
+    <t>发表项目论文的有哪些期刊</t>
+  </si>
+  <si>
+    <t>项目项目成果论文发表在哪些期刊</t>
+  </si>
+  <si>
+    <t>项目成果中有几篇论文</t>
+  </si>
+  <si>
+    <t>项目有几篇论文成果</t>
+  </si>
+  <si>
+    <t>有几篇论文成果出自项目</t>
+  </si>
+  <si>
+    <t>项目发表了几篇论文</t>
+  </si>
+  <si>
+    <t>项目发表了多少论文</t>
+  </si>
+  <si>
+    <t>项目项目成果中论文有几篇</t>
+  </si>
+  <si>
+    <t>项目成果中有几个专利</t>
+  </si>
+  <si>
+    <t>项目有几个专利成果</t>
+  </si>
+  <si>
+    <t>有几个专利成果出自项目</t>
+  </si>
+  <si>
+    <t>项目发表了几篇专利</t>
+  </si>
+  <si>
+    <t>项目发表了多少专利</t>
+  </si>
+  <si>
+    <t>项目项目成果中专利有几个</t>
+  </si>
+  <si>
+    <t>项目成果中哪篇论文发表在了某期刊</t>
+  </si>
+  <si>
+    <t>某期刊发表了项目成果中的哪篇论文</t>
+  </si>
+  <si>
+    <t>哪篇项目成果中的论文被项目期刊发表了</t>
+  </si>
+  <si>
+    <t>项目中的哪篇论文是发表在某期刊上的</t>
+  </si>
+  <si>
+    <t>项目发表在某期刊的论文是哪篇</t>
+  </si>
+  <si>
+    <t>项目发表在某期刊的论文是什么</t>
+  </si>
+  <si>
+    <t>项目发表在某杂志的成果是什么</t>
+  </si>
+  <si>
+    <t>什么是项目发表在某期刊上的论文</t>
+  </si>
+  <si>
+    <t>什么论文是项目发表在某期刊上的</t>
+  </si>
+  <si>
+    <t>项目在某期刊上发表了什么论文</t>
+  </si>
+  <si>
+    <t>项目项目成果中发表在某期刊的论文是哪篇</t>
+  </si>
+  <si>
+    <t>项目成果各包括有多少论文和专利</t>
+  </si>
+  <si>
+    <t>项目成果中论文和专利各发表了多少</t>
+  </si>
+  <si>
+    <t>论文和专利各有多少是项目成果</t>
+  </si>
+  <si>
+    <t>项目发表的论文和专利数量</t>
+  </si>
+  <si>
+    <t>项目发表了多少论文和专利</t>
+  </si>
+  <si>
+    <t>项目项目成果中的论文和专利各有多少</t>
+  </si>
+  <si>
+    <t>组织机构中的子机构有哪些子机构</t>
+  </si>
+  <si>
+    <t>机构中的子机构有哪些部门</t>
+  </si>
+  <si>
+    <t>组织中的部门有哪些分部</t>
+  </si>
+  <si>
+    <t>哪些部门构成了机构中的子机构</t>
+  </si>
+  <si>
+    <t>组织机构中的子机构有哪些机构</t>
+  </si>
+  <si>
+    <t>组织机构中的机构有哪些子机构</t>
+  </si>
+  <si>
+    <t>机构中的机构有哪些部门</t>
+  </si>
+  <si>
+    <t>组织中的机构有哪些分部</t>
+  </si>
+  <si>
+    <t>哪些部门构成了机构中的组织</t>
+  </si>
+  <si>
+    <t>制作某东西的负责人是谁</t>
+  </si>
+  <si>
+    <t>制作某物的负责人是哪一位</t>
+  </si>
+  <si>
+    <t>负责制作某东西的人是谁</t>
+  </si>
+  <si>
+    <t>谁是负责制作某物的人</t>
+  </si>
+  <si>
+    <t>组织机构中某人任职什么职位</t>
+  </si>
+  <si>
+    <t>某人在单位中担任什么职位</t>
+  </si>
+  <si>
+    <t>单位中的哪个职位由某人担任</t>
+  </si>
+  <si>
+    <t>单位中某人的职位是什么</t>
+  </si>
+  <si>
+    <t>组织成立的日期是什么</t>
+  </si>
+  <si>
+    <t>成立机构是在什么日期</t>
+  </si>
+  <si>
+    <t>在什么日期成立的单位</t>
+  </si>
+  <si>
+    <t>该组织是什么时候成立的</t>
+  </si>
+  <si>
+    <t>组织发生的大事有哪些</t>
+  </si>
+  <si>
+    <t>发生了机构的哪些大事</t>
+  </si>
+  <si>
+    <t>单位的哪些大事发生了</t>
+  </si>
+  <si>
+    <t>组织机构的发展历程是怎样的</t>
+  </si>
+  <si>
+    <t>组织经历了哪些发展历程</t>
+  </si>
+  <si>
+    <t>历经了哪些历程有了现在的单位</t>
+  </si>
+  <si>
+    <t>机构的发展历程有哪些</t>
+  </si>
+  <si>
+    <t>组织参与了哪些项目</t>
+  </si>
+  <si>
+    <t>有哪些项目机构参与了</t>
+  </si>
+  <si>
+    <t>单位做了哪些项目</t>
+  </si>
+  <si>
+    <t>单位的项目有哪些</t>
+  </si>
+  <si>
+    <t>组织参与了多少个项目</t>
+  </si>
+  <si>
+    <t>有多少个项目机构参与了</t>
+  </si>
+  <si>
+    <t>单位做的项目数量是多少</t>
+  </si>
+  <si>
+    <t>单位的项目有多少</t>
+  </si>
+  <si>
+    <t>项目发生的大事有哪些</t>
+  </si>
+  <si>
+    <t>发生了项目的哪些大事</t>
+  </si>
+  <si>
+    <t>项目的哪些大事发生了</t>
+  </si>
+  <si>
+    <t>项目的历程是怎么样的</t>
+  </si>
+  <si>
+    <t>项目经历了哪些历程</t>
+  </si>
+  <si>
+    <t>完成项目历经了哪些过程</t>
+  </si>
+  <si>
+    <t>项目的经过有哪些</t>
+  </si>
+  <si>
+    <t>组织机构中某职位由谁任职</t>
+  </si>
+  <si>
+    <t>谁在单位中担任某职位</t>
+  </si>
+  <si>
+    <t>单位中的某职位由谁担任</t>
+  </si>
+  <si>
+    <t>单位中某职位谁在担任</t>
+  </si>
+  <si>
+    <t>机构由哪些部门构成</t>
+  </si>
+  <si>
+    <t>组织中的部门有哪些</t>
+  </si>
+  <si>
+    <t>哪些下属单位构成了机构</t>
+  </si>
+  <si>
+    <t>组织机构中有哪些机构</t>
+  </si>
+  <si>
+    <t>机构有哪些机构</t>
+  </si>
+  <si>
+    <t>组织有哪些组织</t>
+  </si>
+  <si>
+    <t>单位有哪些单位</t>
+  </si>
+  <si>
+    <t>论文是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
+PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
+SELECT ?changeeventimestr WHERE {
+    ?project foaf:name "_project" ;
+              a foaf:Project ;
+             org:changedBy ?ChangeEvent .
+    ?ChangeEvent a org-lab:Kickoff ;
+                 prov:atTime ?ChangeEventime .
+    BIND(STR(?ChangeEventime) AS ?changeeventimestr) .
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+SELECT ?kickofftimestr WHERE { 
+?s foaf:name "_organization";
+    a ?type;
+        org:changedBy ?changeevent .
+    ?changeevent a org-lab:Kickoff;
+    prov:atTime ?kickofftime .
+    FILTER NOT EXISTS { ?sub rdfs:subClassOf ?type FILTER(?sub != ?type &amp;&amp; ?sub != owl:Nothing ) } .
+    FILTER NOT EXISTS { ?type a foaf:Project } .  
+    BIND(STR(?kickofftime) AS ?kickofftimestr) .
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
 PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
 PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
@@ -1289,1039 +2318,14 @@
     BIND(xsd:integer(?month) AS ?monthnum) .
 BIND(CONCAT(STR(?kickofftime), ?changeeventstr) AS ?discevent) .
 } ORDER BY ASC(?yearnum) ASC(?monthnum)</t>
-  </si>
-  <si>
-    <t>组织机构中担任某职位的人是谁</t>
-  </si>
-  <si>
-    <t>organizationname&amp;postname-personname</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
-PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
-PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-SELECT DISTINCT ?personname WHERE {
-?org foaf:name "_organization" ;
-a ?type ;
-org:hasMember ?person ;
-org:hasPost ?post .
-?person foaf:name ?personname ;
-org:holds ?post .
-?post foaf:name "_post" .
-FILTER NOT EXISTS {?sub rdfs:subClassOf ?type FILTER(?sub != ?type &amp;&amp; ?sub != owl:Nothing ) } .
-FILTER NOT EXISTS { ?type rdf:type foaf:Project } .
-}</t>
-  </si>
-  <si>
-    <t>organization, post</t>
-  </si>
-  <si>
-    <t>组织机构中有哪些子机构</t>
-  </si>
-  <si>
-    <t>organizationname-subsuborganizationnames</t>
-  </si>
-  <si>
-    <t>PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
-PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
-SELECT ?unitname WHERE { 
-?organization foaf:name '_organization' ;
-org:hasUnit ?unit .
-?unit foaf:name ?unitname .
-}</t>
-  </si>
-  <si>
-    <t>项目有多少成员</t>
-  </si>
-  <si>
-    <t>projectname-personcount</t>
-  </si>
-  <si>
-    <t>有成员</t>
-  </si>
-  <si>
-    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
-PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
-SELECT ?pcountstr WHERE {
-BIND(STR(?pcount) as ?pcountstr ) .
-{
-SELECT (COUNT(?person) as ?pcount) WHERE {
-?project foaf:name "_project" ;
-a foaf:Project;
-org:hasMember ?person .
-}
-}
-}</t>
-  </si>
-  <si>
-    <t>位</t>
-  </si>
-  <si>
-    <t>项目中的人年纪有多大</t>
-  </si>
-  <si>
-    <t>参与项目的人年龄是多少</t>
-  </si>
-  <si>
-    <t>哪些年龄的人参与了项目</t>
-  </si>
-  <si>
-    <t>参与项目的人都多大</t>
-  </si>
-  <si>
-    <t>项目中的人员年龄有多大</t>
-  </si>
-  <si>
-    <t>项目完成的日期是什么</t>
-  </si>
-  <si>
-    <t>完成项目是在什么日期</t>
-  </si>
-  <si>
-    <t>在哪个日期完成的项目</t>
-  </si>
-  <si>
-    <t>项目在什么日期结束的</t>
-  </si>
-  <si>
-    <t>项目结束的日期是什么</t>
-  </si>
-  <si>
-    <t>结束项目是在什么日期</t>
-  </si>
-  <si>
-    <t>在哪个日期结束的项目</t>
-  </si>
-  <si>
-    <t>项目中的人都是研究哪些方向</t>
-  </si>
-  <si>
-    <t>参与项目的人都来自哪些研究方向</t>
-  </si>
-  <si>
-    <t>哪些研究方向的人参与了项目</t>
-  </si>
-  <si>
-    <t>项目参与者在研究什么</t>
-  </si>
-  <si>
-    <t>项目参与者在研究哪些内容</t>
-  </si>
-  <si>
-    <t>项目中的博士研究生有谁</t>
-  </si>
-  <si>
-    <t>参与项目的人哪些是博士研究生</t>
-  </si>
-  <si>
-    <t>哪些博士研究生参与了项目</t>
-  </si>
-  <si>
-    <t>项目参与者中为博士的都有谁</t>
-  </si>
-  <si>
-    <t>参与项目的人有哪些是博士</t>
-  </si>
-  <si>
-    <t>参与项目的博士都有谁</t>
-  </si>
-  <si>
-    <t>项目中的女性都有谁</t>
-  </si>
-  <si>
-    <t>参与项目的人有哪些是女的</t>
-  </si>
-  <si>
-    <t>哪些女性参与了项目</t>
-  </si>
-  <si>
-    <t>项目的女性参与者是谁</t>
-  </si>
-  <si>
-    <t>项目中的女性是谁</t>
-  </si>
-  <si>
-    <t>项目中的人地址都是什么</t>
-  </si>
-  <si>
-    <t>参与项目的人地址在哪里</t>
-  </si>
-  <si>
-    <t>地址是哪里的人参与了项目</t>
-  </si>
-  <si>
-    <t>项目参与者都在哪里办公</t>
-  </si>
-  <si>
-    <t>项目被资助了多少资金</t>
-  </si>
-  <si>
-    <t>多少资金被资助给了项目</t>
-  </si>
-  <si>
-    <t>多大的资金量被资助给了项目</t>
-  </si>
-  <si>
-    <t>项目经费是多少</t>
-  </si>
-  <si>
-    <t>项目资金是多少</t>
-  </si>
-  <si>
-    <t>项目由哪个单位资助的</t>
-  </si>
-  <si>
-    <t>哪个机构资助了项目</t>
-  </si>
-  <si>
-    <t>哪个组织是这个项目的出资方</t>
-  </si>
-  <si>
-    <t>该项目的资金来源是哪里</t>
-  </si>
-  <si>
-    <t>哪个单位资助了项目</t>
-  </si>
-  <si>
-    <t>项目中的男性女性各有几个</t>
-  </si>
-  <si>
-    <t>参与项目的人中有几个男几个女</t>
-  </si>
-  <si>
-    <t>几男几女参与了项目</t>
-  </si>
-  <si>
-    <t>项目中的男女比例是多少</t>
-  </si>
-  <si>
-    <t>有多少男性和女性参与了该项目</t>
-  </si>
-  <si>
-    <t>这个项目有多少男男女女</t>
-  </si>
-  <si>
-    <t>项目中的人学历学位有哪些</t>
-  </si>
-  <si>
-    <t>参与项目的人都是哪些学历学位</t>
-  </si>
-  <si>
-    <t>哪些学历学位的人参与了项目</t>
-  </si>
-  <si>
-    <t>项目参与者的学历是什么</t>
-  </si>
-  <si>
-    <t>项目项目参与者有哪些学历学位</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>项目开始的日期是什么</t>
-  </si>
-  <si>
-    <t>开始项目是在什么日期</t>
-  </si>
-  <si>
-    <t>在什么日期开始的项目</t>
-  </si>
-  <si>
-    <t>项目在什么日期启动的</t>
-  </si>
-  <si>
-    <t>项目启动的日期是什么</t>
-  </si>
-  <si>
-    <t>项目项目在什么日期开始的</t>
-  </si>
-  <si>
-    <t>在什么日期启动的项目</t>
-  </si>
-  <si>
-    <t>项目中的负责人是哪一位</t>
-  </si>
-  <si>
-    <t>负责项目的人是哪个人</t>
-  </si>
-  <si>
-    <t>哪位是项目的负责人</t>
-  </si>
-  <si>
-    <t>项目是由谁负责的</t>
-  </si>
-  <si>
-    <t>谁是项目负责人</t>
-  </si>
-  <si>
-    <t>项目项目负责人是谁</t>
-  </si>
-  <si>
-    <t>项目中的男性都有谁</t>
-  </si>
-  <si>
-    <t>参与项目的人有哪些是男的</t>
-  </si>
-  <si>
-    <t>哪些男性参与了项目</t>
-  </si>
-  <si>
-    <t>项目中男性参与者都有谁</t>
-  </si>
-  <si>
-    <t>项目项目男性参与者有哪些人</t>
-  </si>
-  <si>
-    <t>项目中的硕士研究生有谁</t>
-  </si>
-  <si>
-    <t>参与项目的人哪些是硕士研究生</t>
-  </si>
-  <si>
-    <t>哪些硕士研究生参与了项目</t>
-  </si>
-  <si>
-    <t>项目参与者有哪些是硕士</t>
-  </si>
-  <si>
-    <t>项目项目参与的硕士研究生有哪些人</t>
-  </si>
-  <si>
-    <t>项目有哪些单位参与</t>
-  </si>
-  <si>
-    <t>参与项目的组织有哪几个</t>
-  </si>
-  <si>
-    <t>哪些机构参与了项目</t>
-  </si>
-  <si>
-    <t>项目的参与组织是什么</t>
-  </si>
-  <si>
-    <t>哪些单位参与了该项目</t>
-  </si>
-  <si>
-    <t>项目项目参与机构有哪些</t>
-  </si>
-  <si>
-    <t>项目有几个单位参与</t>
-  </si>
-  <si>
-    <t>参与项目的组织有多少个</t>
-  </si>
-  <si>
-    <t>有几个机构参与了项目</t>
-  </si>
-  <si>
-    <t>有多少组织参与了项目</t>
-  </si>
-  <si>
-    <t>该项目涉及几个单位</t>
-  </si>
-  <si>
-    <t>项目项目参与机构有几个</t>
-  </si>
-  <si>
-    <t>项目有哪些人参与</t>
-  </si>
-  <si>
-    <t>参与项目的人有哪几个</t>
-  </si>
-  <si>
-    <t>哪些人参与了项目</t>
-  </si>
-  <si>
-    <t>谁参与了项目</t>
-  </si>
-  <si>
-    <t>项目是由谁完成的</t>
-  </si>
-  <si>
-    <t>项目项目参与人有哪些</t>
-  </si>
-  <si>
-    <t>项目中的人担任的什么职位</t>
-  </si>
-  <si>
-    <t>参与项目的人有哪些任职</t>
-  </si>
-  <si>
-    <t>什么职位的人参与了项目</t>
-  </si>
-  <si>
-    <t>项目中的人员担任什么职位</t>
-  </si>
-  <si>
-    <t>项目项目参与人都是什么职位</t>
-  </si>
-  <si>
-    <t>项目中的人有什么样的成果</t>
-  </si>
-  <si>
-    <t>参与项目的人的成果有哪些</t>
-  </si>
-  <si>
-    <t>有什么样成果的人参与了项目</t>
-  </si>
-  <si>
-    <t>项目项目参与者的成果有哪些</t>
-  </si>
-  <si>
-    <t>在项目中发表著作的人有谁</t>
-  </si>
-  <si>
-    <t>参与项目的人谁在项目中发表了著作</t>
-  </si>
-  <si>
-    <t>哪些人在参与项目中发表了著作</t>
-  </si>
-  <si>
-    <t>项目成果是谁发表的</t>
-  </si>
-  <si>
-    <t>谁在该项目中发表了论文或者专利</t>
-  </si>
-  <si>
-    <t>项目项目发表项目著作的有哪些人</t>
-  </si>
-  <si>
-    <t>项目有哪些成果</t>
-  </si>
-  <si>
-    <t>哪些成果出自项目</t>
-  </si>
-  <si>
-    <t>有什么成果由项目产出</t>
-  </si>
-  <si>
-    <t>项目成果是什么</t>
-  </si>
-  <si>
-    <t>项目项目成果有哪些</t>
-  </si>
-  <si>
-    <t>项目制作的机器人能续航多久</t>
-  </si>
-  <si>
-    <t>产自项目的机器人的续航时间多长</t>
-  </si>
-  <si>
-    <t>项目设计建造的机器人的持续工作时间</t>
-  </si>
-  <si>
-    <t>该项目生产的机器人能持续工作多久</t>
-  </si>
-  <si>
-    <t>项目制作的项目的续航时间</t>
-  </si>
-  <si>
-    <t>项目项目制作的深海机器人的续航时间</t>
-  </si>
-  <si>
-    <t>项目项目制作的项目的续航时间</t>
-  </si>
-  <si>
-    <t>项目制作的机器人有多大</t>
-  </si>
-  <si>
-    <t>产自项目的机器人的尺寸是多少</t>
-  </si>
-  <si>
-    <t>项目设计建造的机器人的长宽</t>
-  </si>
-  <si>
-    <t>项目生产的深海机器人有多大</t>
-  </si>
-  <si>
-    <t>项目生产的机器人有多大</t>
-  </si>
-  <si>
-    <t>项目制作的项目的尺寸是多少</t>
-  </si>
-  <si>
-    <t>项目项目制作的深海机器人的尺寸是多少</t>
-  </si>
-  <si>
-    <t>项目项目制作的项目的尺寸是多少</t>
-  </si>
-  <si>
-    <t>项目制作的机器人由什么材料构成</t>
-  </si>
-  <si>
-    <t>产自项目的机器人的组成材料是什么</t>
-  </si>
-  <si>
-    <t>建造项目设计的机器人所用的材料</t>
-  </si>
-  <si>
-    <t>项目的机器人是用什么材料制成的</t>
-  </si>
-  <si>
-    <t>项目制作的项目的材料是什么</t>
-  </si>
-  <si>
-    <t>项目项目制作的深海机器人的材料是什么</t>
-  </si>
-  <si>
-    <t>项目项目制作的项目的材料是什么</t>
-  </si>
-  <si>
-    <t>项目制作的机器人能移动多快</t>
-  </si>
-  <si>
-    <t>产自项目的机器人的运动速度是多少</t>
-  </si>
-  <si>
-    <t>项目设计建造的机器人的运动速度</t>
-  </si>
-  <si>
-    <t>项目制造的机器人移动速度有多快</t>
-  </si>
-  <si>
-    <t>项目制作的项目的移动速度是多少</t>
-  </si>
-  <si>
-    <t>项目项目制作的深海机器人的移动速度是多少</t>
-  </si>
-  <si>
-    <t>项目项目制作的项目的移动速度是多少</t>
-  </si>
-  <si>
-    <t>项目制作的机器人叫什么</t>
-  </si>
-  <si>
-    <t>产自项目的机器人的名字是什么</t>
-  </si>
-  <si>
-    <t>项目设计建造的机器人的名称</t>
-  </si>
-  <si>
-    <t>项目制作的项目叫什么</t>
-  </si>
-  <si>
-    <t>项目项目制作的深海机器人叫什么</t>
-  </si>
-  <si>
-    <t>项目项目制作的项目叫什么</t>
-  </si>
-  <si>
-    <t>项目制作的机器人能下潜多深</t>
-  </si>
-  <si>
-    <t>产自项目的机器人的下潜深度是多少</t>
-  </si>
-  <si>
-    <t>项目设计建造的机器人的潜深</t>
-  </si>
-  <si>
-    <t>项目制造的机器人能潜多深</t>
-  </si>
-  <si>
-    <t>项目制作的项目的下潜深度是多少</t>
-  </si>
-  <si>
-    <t>项目项目制作的深海机器人的下潜深度是多少</t>
-  </si>
-  <si>
-    <t>项目项目制作的项目的下潜深度是多少</t>
-  </si>
-  <si>
-    <t>项目制作的机器人能做什么</t>
-  </si>
-  <si>
-    <t>产自项目的机器人的功能有什么</t>
-  </si>
-  <si>
-    <t>项目设计建造的机器人的应用</t>
-  </si>
-  <si>
-    <t>项目生产的机器人能做什么</t>
-  </si>
-  <si>
-    <t>项目制作的项目有哪些用途</t>
-  </si>
-  <si>
-    <t>项目项目制作的深海机器人有哪些用途</t>
-  </si>
-  <si>
-    <t>项目项目制作的项目有哪些用途</t>
-  </si>
-  <si>
-    <t>项目中的人来自某机构的有哪些</t>
-  </si>
-  <si>
-    <t>参与项目的人哪些来自某机构</t>
-  </si>
-  <si>
-    <t>哪些来自某机构的人参与了项目</t>
-  </si>
-  <si>
-    <t>参与项目的人当中都有谁来自某机构</t>
-  </si>
-  <si>
-    <t>项目中的人来自机构的有哪些</t>
-  </si>
-  <si>
-    <t>参与项目的人哪些来自机构</t>
-  </si>
-  <si>
-    <t>哪些来自机构的人参与了项目</t>
-  </si>
-  <si>
-    <t>项目项目中某机构有哪些成员参与</t>
-  </si>
-  <si>
-    <t>项目中的某人研究方向有哪些</t>
-  </si>
-  <si>
-    <t>参与项目的某人有哪些研究方向</t>
-  </si>
-  <si>
-    <t>什么是参与项目的某人的研究方向</t>
-  </si>
-  <si>
-    <t>项目项目中某参与人的研究方向是什么</t>
-  </si>
-  <si>
-    <t>项目中的某人地址是哪里</t>
-  </si>
-  <si>
-    <t>参与项目的某人的地址在何处</t>
-  </si>
-  <si>
-    <t>何处是参与项目的某人的地址</t>
-  </si>
-  <si>
-    <t>项目项目中某参与人的地址是什么</t>
-  </si>
-  <si>
-    <t>项目中的某人学历学位是什么</t>
-  </si>
-  <si>
-    <t>参与项目的某人的有什么学历学位</t>
-  </si>
-  <si>
-    <t>什么是参与项目的某人的学历学位</t>
-  </si>
-  <si>
-    <t>项目参与者某人的学历是什么</t>
-  </si>
-  <si>
-    <t>项目项目中某参与人的学历学位是什么</t>
-  </si>
-  <si>
-    <t>项目中某参与人的单位名称是什么</t>
-  </si>
-  <si>
-    <t>项目中的某人的单位名称是什么</t>
-  </si>
-  <si>
-    <t>参与项目的某人所在机构叫什么</t>
-  </si>
-  <si>
-    <t>什么组织的某人参与了项目</t>
-  </si>
-  <si>
-    <t>项目项目中某参与人的单位名称是什么</t>
-  </si>
-  <si>
-    <t>项目中某参与人任职的职位名称是什么</t>
-  </si>
-  <si>
-    <t>项目中的某人担任的什么职位</t>
-  </si>
-  <si>
-    <t>参与项目的某人有哪些任职</t>
-  </si>
-  <si>
-    <t>什么职位的某人参与了项目</t>
-  </si>
-  <si>
-    <t>项目项目中某参与人任职的职位名称是什么</t>
-  </si>
-  <si>
-    <t>项目中的某人有什么样的成果</t>
-  </si>
-  <si>
-    <t>参与项目的某人的成果有哪些</t>
-  </si>
-  <si>
-    <t>有什么样成果的某人参与了项目</t>
-  </si>
-  <si>
-    <t>项目项目中某参与人的成果有哪些</t>
-  </si>
-  <si>
-    <t>担任某职位的项目参与者姓名是什么</t>
-  </si>
-  <si>
-    <t>参与项目的人中担任某职位的名字有哪些</t>
-  </si>
-  <si>
-    <t>谁是项目参与者中担任某职位的人</t>
-  </si>
-  <si>
-    <t>项目项目参与者中担任某职位的人叫什么名字</t>
-  </si>
-  <si>
-    <t>项目中担任职位的人是谁</t>
-  </si>
-  <si>
-    <t>某出版物有哪些作者</t>
-  </si>
-  <si>
-    <t>哪些人是某出版物的作者</t>
-  </si>
-  <si>
-    <t>谁发表了某出版物</t>
-  </si>
-  <si>
-    <t>论文的作者是谁</t>
-  </si>
-  <si>
-    <t>谁是名为某文章的作者</t>
-  </si>
-  <si>
-    <t>项目有哪些论文成果</t>
-  </si>
-  <si>
-    <t>哪些论文是自项目的成果</t>
-  </si>
-  <si>
-    <t>有什么论文是项目的成果</t>
-  </si>
-  <si>
-    <t>项目发表了哪些论文</t>
-  </si>
-  <si>
-    <t>项目项目成果有哪些论文</t>
-  </si>
-  <si>
-    <t>项目有哪些专利成果</t>
-  </si>
-  <si>
-    <t>哪些专利是自项目的成果</t>
-  </si>
-  <si>
-    <t>有什么专利是项目的成果</t>
-  </si>
-  <si>
-    <t>项目发表了哪些专利</t>
-  </si>
-  <si>
-    <t>项目项目成果有哪些专利</t>
-  </si>
-  <si>
-    <t>项目中某成果的类型是什么</t>
-  </si>
-  <si>
-    <t>项目中某成果属于何种类型</t>
-  </si>
-  <si>
-    <t>项目中某成果是哪个类别</t>
-  </si>
-  <si>
-    <t>项目的某成果是论文吗</t>
-  </si>
-  <si>
-    <t>项目的某成果是专利吗</t>
-  </si>
-  <si>
-    <t>项目的某成果是论文还是专利</t>
-  </si>
-  <si>
-    <t>项目项目某成果是什么类型</t>
-  </si>
-  <si>
-    <t>项目成果有哪些类型</t>
-  </si>
-  <si>
-    <t>哪些类型的成果出自项目</t>
-  </si>
-  <si>
-    <t>有什么类型的成果出自项目</t>
-  </si>
-  <si>
-    <t>项目项目有哪些类型的成果</t>
-  </si>
-  <si>
-    <t>项目成果论文在哪些期刊上发表了</t>
-  </si>
-  <si>
-    <t>哪些期刊上发表了项目成果论文</t>
-  </si>
-  <si>
-    <t>发表项目论文的有哪些期刊</t>
-  </si>
-  <si>
-    <t>项目项目成果论文发表在哪些期刊</t>
-  </si>
-  <si>
-    <t>项目成果中有几篇论文</t>
-  </si>
-  <si>
-    <t>项目有几篇论文成果</t>
-  </si>
-  <si>
-    <t>有几篇论文成果出自项目</t>
-  </si>
-  <si>
-    <t>项目发表了几篇论文</t>
-  </si>
-  <si>
-    <t>项目发表了多少论文</t>
-  </si>
-  <si>
-    <t>项目项目成果中论文有几篇</t>
-  </si>
-  <si>
-    <t>项目成果中有几个专利</t>
-  </si>
-  <si>
-    <t>项目有几个专利成果</t>
-  </si>
-  <si>
-    <t>有几个专利成果出自项目</t>
-  </si>
-  <si>
-    <t>项目发表了几篇专利</t>
-  </si>
-  <si>
-    <t>项目发表了多少专利</t>
-  </si>
-  <si>
-    <t>项目项目成果中专利有几个</t>
-  </si>
-  <si>
-    <t>项目成果中哪篇论文发表在了某期刊</t>
-  </si>
-  <si>
-    <t>某期刊发表了项目成果中的哪篇论文</t>
-  </si>
-  <si>
-    <t>哪篇项目成果中的论文被项目期刊发表了</t>
-  </si>
-  <si>
-    <t>项目中的哪篇论文是发表在某期刊上的</t>
-  </si>
-  <si>
-    <t>项目发表在某期刊的论文是哪篇</t>
-  </si>
-  <si>
-    <t>项目发表在某期刊的论文是什么</t>
-  </si>
-  <si>
-    <t>项目发表在某杂志的成果是什么</t>
-  </si>
-  <si>
-    <t>什么是项目发表在某期刊上的论文</t>
-  </si>
-  <si>
-    <t>什么论文是项目发表在某期刊上的</t>
-  </si>
-  <si>
-    <t>项目在某期刊上发表了什么论文</t>
-  </si>
-  <si>
-    <t>项目项目成果中发表在某期刊的论文是哪篇</t>
-  </si>
-  <si>
-    <t>项目成果各包括有多少论文和专利</t>
-  </si>
-  <si>
-    <t>项目成果中论文和专利各发表了多少</t>
-  </si>
-  <si>
-    <t>论文和专利各有多少是项目成果</t>
-  </si>
-  <si>
-    <t>项目发表的论文和专利数量</t>
-  </si>
-  <si>
-    <t>项目发表了多少论文和专利</t>
-  </si>
-  <si>
-    <t>项目项目成果中的论文和专利各有多少</t>
-  </si>
-  <si>
-    <t>组织机构中的子机构有哪些子机构</t>
-  </si>
-  <si>
-    <t>机构中的子机构有哪些部门</t>
-  </si>
-  <si>
-    <t>组织中的部门有哪些分部</t>
-  </si>
-  <si>
-    <t>哪些部门构成了机构中的子机构</t>
-  </si>
-  <si>
-    <t>组织机构中的子机构有哪些机构</t>
-  </si>
-  <si>
-    <t>组织机构中的机构有哪些子机构</t>
-  </si>
-  <si>
-    <t>机构中的机构有哪些部门</t>
-  </si>
-  <si>
-    <t>组织中的机构有哪些分部</t>
-  </si>
-  <si>
-    <t>哪些部门构成了机构中的组织</t>
-  </si>
-  <si>
-    <t>制作某东西的负责人是谁</t>
-  </si>
-  <si>
-    <t>制作某物的负责人是哪一位</t>
-  </si>
-  <si>
-    <t>负责制作某东西的人是谁</t>
-  </si>
-  <si>
-    <t>谁是负责制作某物的人</t>
-  </si>
-  <si>
-    <t>组织机构中某人任职什么职位</t>
-  </si>
-  <si>
-    <t>某人在单位中担任什么职位</t>
-  </si>
-  <si>
-    <t>单位中的哪个职位由某人担任</t>
-  </si>
-  <si>
-    <t>单位中某人的职位是什么</t>
-  </si>
-  <si>
-    <t>组织成立的日期是什么</t>
-  </si>
-  <si>
-    <t>成立机构是在什么日期</t>
-  </si>
-  <si>
-    <t>在什么日期成立的单位</t>
-  </si>
-  <si>
-    <t>该组织是什么时候成立的</t>
-  </si>
-  <si>
-    <t>组织发生的大事有哪些</t>
-  </si>
-  <si>
-    <t>发生了机构的哪些大事</t>
-  </si>
-  <si>
-    <t>单位的哪些大事发生了</t>
-  </si>
-  <si>
-    <t>组织机构的发展历程是怎样的</t>
-  </si>
-  <si>
-    <t>组织经历了哪些发展历程</t>
-  </si>
-  <si>
-    <t>历经了哪些历程有了现在的单位</t>
-  </si>
-  <si>
-    <t>机构的发展历程有哪些</t>
-  </si>
-  <si>
-    <t>组织参与了哪些项目</t>
-  </si>
-  <si>
-    <t>有哪些项目机构参与了</t>
-  </si>
-  <si>
-    <t>单位做了哪些项目</t>
-  </si>
-  <si>
-    <t>单位的项目有哪些</t>
-  </si>
-  <si>
-    <t>组织参与了多少个项目</t>
-  </si>
-  <si>
-    <t>有多少个项目机构参与了</t>
-  </si>
-  <si>
-    <t>单位做的项目数量是多少</t>
-  </si>
-  <si>
-    <t>单位的项目有多少</t>
-  </si>
-  <si>
-    <t>项目发生的大事有哪些</t>
-  </si>
-  <si>
-    <t>发生了项目的哪些大事</t>
-  </si>
-  <si>
-    <t>项目的哪些大事发生了</t>
-  </si>
-  <si>
-    <t>项目的历程是怎么样的</t>
-  </si>
-  <si>
-    <t>项目经历了哪些历程</t>
-  </si>
-  <si>
-    <t>完成项目历经了哪些过程</t>
-  </si>
-  <si>
-    <t>项目的经过有哪些</t>
-  </si>
-  <si>
-    <t>组织机构中某职位由谁任职</t>
-  </si>
-  <si>
-    <t>谁在单位中担任某职位</t>
-  </si>
-  <si>
-    <t>单位中的某职位由谁担任</t>
-  </si>
-  <si>
-    <t>单位中某职位谁在担任</t>
-  </si>
-  <si>
-    <t>机构由哪些部门构成</t>
-  </si>
-  <si>
-    <t>组织中的部门有哪些</t>
-  </si>
-  <si>
-    <t>哪些下属单位构成了机构</t>
-  </si>
-  <si>
-    <t>组织机构中有哪些机构</t>
-  </si>
-  <si>
-    <t>机构有哪些机构</t>
-  </si>
-  <si>
-    <t>组织有哪些组织</t>
-  </si>
-  <si>
-    <t>单位有哪些单位</t>
-  </si>
-  <si>
-    <t>论文是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="68" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2340,390 +2344,434 @@
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF067D17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B14D"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2756,7 +2804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2955,17 +3003,11 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3280,26 +3322,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="6" customWidth="1"/>
-    <col min="2" max="2" width="35.4609375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.69140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="87.69140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.84375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="87.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="217.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3317,7 +3359,7 @@
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="203" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3335,7 +3377,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="211" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="210.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -3353,7 +3395,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="266" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="266.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3371,7 +3413,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -3389,7 +3431,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -3407,7 +3449,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="182" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="182.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -3425,7 +3467,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -3443,7 +3485,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -3463,7 +3505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -3481,7 +3523,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -3491,98 +3533,98 @@
       <c r="C11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>45</v>
+      <c r="D11" s="67" t="s">
+        <v>534</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="224" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="266" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="266.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>4</v>
@@ -3591,506 +3633,506 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>68</v>
+      <c r="D17" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="224" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>76</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="28" t="s">
         <v>79</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>80</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>83</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="30" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>87</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="224" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="31" t="s">
         <v>90</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>91</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="32" t="s">
         <v>94</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>95</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="224" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="33" t="s">
         <v>98</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>99</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="34" t="s">
         <v>102</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>103</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="35" t="s">
         <v>106</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>107</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="36" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>111</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" ht="224" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="E30" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="224" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="E31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="224" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="E34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="44" t="s">
+      <c r="E35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="224" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="45" t="s">
+      <c r="E36" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="46" t="s">
+      <c r="E37" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="46" t="s">
         <v>147</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>148</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="47" t="s">
         <v>150</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>151</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" ht="294" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="294" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="49" t="s">
+      <c r="E40" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>158</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="50" t="s">
         <v>161</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>162</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="51" t="s">
         <v>165</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>166</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="52" t="s">
         <v>170</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>171</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>4</v>
@@ -4099,217 +4141,217 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="308" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="308.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="66" t="s">
+        <v>533</v>
+      </c>
+      <c r="D45" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="69" t="s">
-        <v>536</v>
-      </c>
-      <c r="D45" s="54" t="s">
+      <c r="E45" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="350.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" ht="350" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="54" t="s">
         <v>177</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>178</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="E47" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="308.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" ht="308" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="57" t="s">
+      <c r="E48" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="67" t="s">
+        <v>535</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="D50" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="E50" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" s="6" customFormat="1" ht="405.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="B51" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" ht="406" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="D51" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="E51" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="60" t="s">
+      <c r="B52" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+      <c r="C52" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="E52" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="6" customFormat="1" ht="350.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" s="61" t="s">
+      <c r="B53" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" ht="350" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>204</v>
-      </c>
       <c r="C53" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="62" t="s">
-        <v>205</v>
+        <v>192</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>536</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" s="6" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="6" t="s">
+    </row>
+    <row r="55" spans="1:6" s="6" customFormat="1" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="63" t="s">
+      <c r="B55" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="C55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="61" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" ht="154" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+      <c r="E55" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="64" t="s">
+      <c r="C56" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="224" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
+      <c r="D56" s="62" t="s">
         <v>214</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D56" s="65" t="s">
-        <v>217</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4320,7 +4362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4328,1334 +4370,1334 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.84375" style="6" customWidth="1"/>
+    <col min="1" max="2" width="35.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="34" style="6" customWidth="1"/>
     <col min="4" max="4" width="30" style="6" customWidth="1"/>
     <col min="5" max="5" width="28" style="6" customWidth="1"/>
     <col min="6" max="6" width="30" style="6" customWidth="1"/>
     <col min="7" max="7" width="29" style="6" customWidth="1"/>
-    <col min="8" max="8" width="32.3046875" customWidth="1"/>
-    <col min="9" max="9" width="26.4609375" customWidth="1"/>
-    <col min="10" max="10" width="18.61328125" customWidth="1"/>
-    <col min="11" max="11" width="20.07421875" customWidth="1"/>
-    <col min="12" max="12" width="22.4609375" customWidth="1"/>
-    <col min="13" max="13" width="33.84375" customWidth="1"/>
+    <col min="8" max="8" width="32.25" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="22.5" customWidth="1"/>
+    <col min="13" max="13" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>223</v>
-      </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="K10" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="K11" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="G12" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="H12" s="6"/>
       <c r="K12" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="G15" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="G16" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="G17" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="G20" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="F21" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>333</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="G22" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="H22" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="H23" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="I23" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="G23" s="7" t="s">
+    </row>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="G24" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="I24" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="F24" s="7" t="s">
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="G25" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="I25" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="F25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="F26" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="G26" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>368</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="G27" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="I27" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F27" s="7" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="G28" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="I28" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="F28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="G29" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>394</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>398</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="F32" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>403</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="E33" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>408</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="E34" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>413</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>414</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>417</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="F36" s="9" t="s">
         <v>419</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>422</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="F37" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="F38" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>432</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="F39" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>437</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="F40" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="G40" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="H40" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="F40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="D41" s="6" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="E41" s="9" t="s">
         <v>445</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>448</v>
       </c>
       <c r="F41" s="4"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="F42" s="4"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="F43" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="G43" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="C44" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="E44" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="F44" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="G44" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="D45" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="E45" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="F45" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="H45" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F45" s="67" t="s">
+      <c r="I45" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="K45" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="L45" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="J45" s="7" t="s">
+      <c r="M45" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="K45" s="7" t="s">
+    </row>
+    <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="D46" s="6" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="E46" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="F46" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="G46" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="F47" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="G47" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="H47" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="G47" s="7" t="s">
+    </row>
+    <row r="48" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="E48" s="4"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="D50" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="D51" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="F51" s="6" t="s">
+    </row>
+    <row r="52" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
+      <c r="E54" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="F54" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="C55" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="D55" s="4" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="F56" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="G56" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="H56" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -5665,7 +5707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5673,452 +5715,452 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>501</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>527</v>
-      </c>
       <c r="C48" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>

--- a/KBQA/QTemplates-sparqlQ.xlsx
+++ b/KBQA/QTemplates-sparqlQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhejianglab.com\入职后\work\workspace\RoboCloudBrain\KBQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4996BE9E-1FBC-4E24-957D-717A877E6BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB9D41-43EE-4C6D-856D-D53CBFF6263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2268,38 +2268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
-PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
-PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
-SELECT ?changeeventimestr WHERE {
-    ?project foaf:name "_project" ;
-              a foaf:Project ;
-             org:changedBy ?ChangeEvent .
-    ?ChangeEvent a org-lab:Kickoff ;
-                 prov:atTime ?ChangeEventime .
-    BIND(STR(?ChangeEventime) AS ?changeeventimestr) .
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
-PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
-PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-SELECT ?kickofftimestr WHERE { 
-?s foaf:name "_organization";
-    a ?type;
-        org:changedBy ?changeevent .
-    ?changeevent a org-lab:Kickoff;
-    prov:atTime ?kickofftime .
-    FILTER NOT EXISTS { ?sub rdfs:subClassOf ?type FILTER(?sub != ?type &amp;&amp; ?sub != owl:Nothing ) } .
-    FILTER NOT EXISTS { ?type a foaf:Project } .  
-    BIND(STR(?kickofftime) AS ?kickofftimestr) .
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
 PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
 PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
@@ -2318,6 +2286,40 @@
     BIND(xsd:integer(?month) AS ?monthnum) .
 BIND(CONCAT(STR(?kickofftime), ?changeeventstr) AS ?discevent) .
 } ORDER BY ASC(?yearnum) ASC(?monthnum)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
+PREFIX org-lab: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/org-lab#&gt;
+PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt; 
+SELECT ?changeeventimestr WHERE {
+    ?project foaf:name "_project" ;
+              a foaf:Project ;
+             org:changedBy ?ChangeEvent .
+    ?ChangeEvent a org-lab:Kickoff ;
+                 prov:atTime ?ChangeEventime .
+    BIND(STR(?ChangeEventime) AS ?changeeventimestr) .
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX org-lab: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/org-lab#&gt;
+SELECT ?kickofftimestr WHERE { 
+?s foaf:name "_organization";
+    a ?type;
+        org:changedBy ?changeevent .
+    ?changeevent a org-lab:Kickoff;
+    prov:atTime ?kickofftime .
+    FILTER NOT EXISTS { ?sub rdfs:subClassOf ?type FILTER(?sub != ?type &amp;&amp; ?sub != owl:Nothing ) } .
+    FILTER NOT EXISTS { ?type a foaf:Project } .  
+    BIND(STR(?kickofftime) AS ?kickofftimestr) .
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3534,7 +3536,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>4</v>
@@ -4224,7 +4226,7 @@
         <v>44</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>189</v>
@@ -4294,7 +4296,7 @@
         <v>192</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>4</v>

--- a/KBQA/QTemplates-sparqlQ.xlsx
+++ b/KBQA/QTemplates-sparqlQ.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhejianglab.com\入职后\work\workspace\RoboCloudBrain\KBQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB9D41-43EE-4C6D-856D-D53CBFF6263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E01B187-1DEF-412D-A8A7-0B445FDE01D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-14570" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="861">
   <si>
     <t>项目参与者年龄是多少</t>
   </si>
@@ -2322,12 +2323,984 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t>_project参与者年龄是多少</t>
+  </si>
+  <si>
+    <t>_project中的人年纪有多大</t>
+  </si>
+  <si>
+    <t>参与_project的人年龄是多少</t>
+  </si>
+  <si>
+    <t>哪些年龄的人参与了_project</t>
+  </si>
+  <si>
+    <t>参与_project的人都多大</t>
+  </si>
+  <si>
+    <t>_project中的人员年龄有多大</t>
+  </si>
+  <si>
+    <t>_project在什么日期完成的</t>
+  </si>
+  <si>
+    <t>_project完成的日期是什么</t>
+  </si>
+  <si>
+    <t>完成_project是在什么日期</t>
+  </si>
+  <si>
+    <t>在哪个日期完成的_project</t>
+  </si>
+  <si>
+    <t>_project在什么日期结束的</t>
+  </si>
+  <si>
+    <t>_project结束的日期是什么</t>
+  </si>
+  <si>
+    <t>结束_project是在什么日期</t>
+  </si>
+  <si>
+    <t>在哪个日期结束的_project</t>
+  </si>
+  <si>
+    <t>_project参与者研究方向都是什么</t>
+  </si>
+  <si>
+    <t>_project中的人都是研究哪些方向</t>
+  </si>
+  <si>
+    <t>参与_project的人都来自哪些研究方向</t>
+  </si>
+  <si>
+    <t>哪些研究方向的人参与了_project</t>
+  </si>
+  <si>
+    <t>_project参与者在研究什么</t>
+  </si>
+  <si>
+    <t>_project参与者在研究哪些内容</t>
+  </si>
+  <si>
+    <t>_project参与的博士研究生有哪些人</t>
+  </si>
+  <si>
+    <t>_project中的博士研究生有谁</t>
+  </si>
+  <si>
+    <t>参与_project的人哪些是博士研究生</t>
+  </si>
+  <si>
+    <t>哪些博士研究生参与了_project</t>
+  </si>
+  <si>
+    <t>_project参与者中为博士的都有谁</t>
+  </si>
+  <si>
+    <t>参与_project的人有哪些是博士</t>
+  </si>
+  <si>
+    <t>参与_project的博士都有谁</t>
+  </si>
+  <si>
+    <t>_project女性参与者有哪些人</t>
+  </si>
+  <si>
+    <t>_project中的女性都有谁</t>
+  </si>
+  <si>
+    <t>参与_project的人有哪些是女的</t>
+  </si>
+  <si>
+    <t>哪些女性参与了_project</t>
+  </si>
+  <si>
+    <t>_project的女性参与者是谁</t>
+  </si>
+  <si>
+    <t>_project中的女性是谁</t>
+  </si>
+  <si>
+    <t>_project参与者的地址都在哪里</t>
+  </si>
+  <si>
+    <t>_project中的人地址都是什么</t>
+  </si>
+  <si>
+    <t>参与_project的人地址在哪里</t>
+  </si>
+  <si>
+    <t>地址是哪里的人参与了_project</t>
+  </si>
+  <si>
+    <t>_project参与者都在哪里办公</t>
+  </si>
+  <si>
+    <t>_project资助金额是多少</t>
+  </si>
+  <si>
+    <t>_project被资助了多少资金</t>
+  </si>
+  <si>
+    <t>多少资金被资助给了_project</t>
+  </si>
+  <si>
+    <t>多大的资金量被资助给了_project</t>
+  </si>
+  <si>
+    <t>_project经费是多少</t>
+  </si>
+  <si>
+    <t>_project资金是多少</t>
+  </si>
+  <si>
+    <t>_project资金由哪里提供的</t>
+  </si>
+  <si>
+    <t>_project由哪个单位资助的</t>
+  </si>
+  <si>
+    <t>哪个机构资助了_project</t>
+  </si>
+  <si>
+    <t>哪个组织是这个_project的出资方</t>
+  </si>
+  <si>
+    <t>该_project的资金来源是哪里</t>
+  </si>
+  <si>
+    <t>哪个单位资助了_project</t>
+  </si>
+  <si>
+    <t>_project参与者中男女各有几个</t>
+  </si>
+  <si>
+    <t>_project中的男性女性各有几个</t>
+  </si>
+  <si>
+    <t>参与_project的人中有几个男几个女</t>
+  </si>
+  <si>
+    <t>几男几女参与了_project</t>
+  </si>
+  <si>
+    <t>_project中的男女比例是多少</t>
+  </si>
+  <si>
+    <t>有多少男性和女性参与了该_project</t>
+  </si>
+  <si>
+    <t>这个_project有多少男男女女</t>
+  </si>
+  <si>
+    <t>_project参与者有哪些学历学位</t>
+  </si>
+  <si>
+    <t>_project中的人学历学位有哪些</t>
+  </si>
+  <si>
+    <t>参与_project的人都是哪些学历学位</t>
+  </si>
+  <si>
+    <t>哪些学历学位的人参与了_project</t>
+  </si>
+  <si>
+    <t>_project参与者的学历是什么</t>
+  </si>
+  <si>
+    <t>_project在什么日期开始的</t>
+  </si>
+  <si>
+    <t>_project开始的日期是什么</t>
+  </si>
+  <si>
+    <t>开始_project是在什么日期</t>
+  </si>
+  <si>
+    <t>在什么日期开始的_project</t>
+  </si>
+  <si>
+    <t>_project在什么日期启动的</t>
+  </si>
+  <si>
+    <t>_project启动的日期是什么</t>
+  </si>
+  <si>
+    <t>在什么日期启动的_project</t>
+  </si>
+  <si>
+    <t>_project负责人是谁</t>
+  </si>
+  <si>
+    <t>_project中的负责人是哪一位</t>
+  </si>
+  <si>
+    <t>负责_project的人是哪个人</t>
+  </si>
+  <si>
+    <t>哪位是_project的负责人</t>
+  </si>
+  <si>
+    <t>_project是由谁负责的</t>
+  </si>
+  <si>
+    <t>谁是_project负责人</t>
+  </si>
+  <si>
+    <t>_project男性参与者有哪些人</t>
+  </si>
+  <si>
+    <t>_project中的男性都有谁</t>
+  </si>
+  <si>
+    <t>参与_project的人有哪些是男的</t>
+  </si>
+  <si>
+    <t>哪些男性参与了_project</t>
+  </si>
+  <si>
+    <t>_project中男性参与者都有谁</t>
+  </si>
+  <si>
+    <t>_project参与的硕士研究生有哪些人</t>
+  </si>
+  <si>
+    <t>_project中的硕士研究生有谁</t>
+  </si>
+  <si>
+    <t>参与_project的人哪些是硕士研究生</t>
+  </si>
+  <si>
+    <t>哪些硕士研究生参与了_project</t>
+  </si>
+  <si>
+    <t>_project参与者有哪些是硕士</t>
+  </si>
+  <si>
+    <t>_project参与机构有哪些</t>
+  </si>
+  <si>
+    <t>_project有哪些单位参与</t>
+  </si>
+  <si>
+    <t>参与_project的组织有哪几个</t>
+  </si>
+  <si>
+    <t>哪些机构参与了_project</t>
+  </si>
+  <si>
+    <t>_project的参与组织是什么</t>
+  </si>
+  <si>
+    <t>哪些单位参与了该_project</t>
+  </si>
+  <si>
+    <t>_project参与机构有几个</t>
+  </si>
+  <si>
+    <t>_project有几个单位参与</t>
+  </si>
+  <si>
+    <t>参与_project的组织有多少个</t>
+  </si>
+  <si>
+    <t>有几个机构参与了_project</t>
+  </si>
+  <si>
+    <t>有多少组织参与了_project</t>
+  </si>
+  <si>
+    <t>该_project涉及几个单位</t>
+  </si>
+  <si>
+    <t>_project参与人有哪些</t>
+  </si>
+  <si>
+    <t>_project有哪些人参与</t>
+  </si>
+  <si>
+    <t>参与_project的人有哪几个</t>
+  </si>
+  <si>
+    <t>哪些人参与了_project</t>
+  </si>
+  <si>
+    <t>谁参与了_project</t>
+  </si>
+  <si>
+    <t>_project是由谁完成的</t>
+  </si>
+  <si>
+    <t>_project参与人都是什么职位</t>
+  </si>
+  <si>
+    <t>_project中的人担任的什么职位</t>
+  </si>
+  <si>
+    <t>参与_project的人有哪些任职</t>
+  </si>
+  <si>
+    <t>什么职位的人参与了_project</t>
+  </si>
+  <si>
+    <t>_project中的人员担任什么职位</t>
+  </si>
+  <si>
+    <t>_project参与者的成果有哪些</t>
+  </si>
+  <si>
+    <t>_project中的人有什么样的成果</t>
+  </si>
+  <si>
+    <t>参与_project的人的成果有哪些</t>
+  </si>
+  <si>
+    <t>有什么样成果的人参与了_project</t>
+  </si>
+  <si>
+    <t>发表_project著作的有哪些人</t>
+  </si>
+  <si>
+    <t>在_project中发表著作的人有谁</t>
+  </si>
+  <si>
+    <t>参与_project的人谁在项目中发表了著作</t>
+  </si>
+  <si>
+    <t>哪些人在参与_project中发表了著作</t>
+  </si>
+  <si>
+    <t>_project成果是谁发表的</t>
+  </si>
+  <si>
+    <t>谁在该_project中发表了论文或者专利</t>
+  </si>
+  <si>
+    <t>_project发表著作的有哪些人</t>
+  </si>
+  <si>
+    <t>_project成果有哪些</t>
+  </si>
+  <si>
+    <t>_project有哪些成果</t>
+  </si>
+  <si>
+    <t>哪些成果出自_project</t>
+  </si>
+  <si>
+    <t>有什么成果由_project产出</t>
+  </si>
+  <si>
+    <t>_project成果是什么</t>
+  </si>
+  <si>
+    <t>_project制作的深海机器人的续航时间</t>
+  </si>
+  <si>
+    <t>_project制作的机器人能续航多久</t>
+  </si>
+  <si>
+    <t>产自_project的机器人的续航时间多长</t>
+  </si>
+  <si>
+    <t>_project设计建造的机器人的持续工作时间</t>
+  </si>
+  <si>
+    <t>该_project生产的机器人能持续工作多久</t>
+  </si>
+  <si>
+    <t>_project制作的机器人的续航时间</t>
+  </si>
+  <si>
+    <t>_project制作的深海机器人的尺寸是多少</t>
+  </si>
+  <si>
+    <t>_project制作的机器人有多大</t>
+  </si>
+  <si>
+    <t>产自_project的机器人的尺寸是多少</t>
+  </si>
+  <si>
+    <t>_project设计建造的机器人的长宽</t>
+  </si>
+  <si>
+    <t>_project生产的深海机器人有多大</t>
+  </si>
+  <si>
+    <t>_project生产的机器人有多大</t>
+  </si>
+  <si>
+    <t>_project制作的机器人的尺寸是多少</t>
+  </si>
+  <si>
+    <t>_project制作的深海机器人的材料是什么</t>
+  </si>
+  <si>
+    <t>_project制作的机器人由什么材料构成</t>
+  </si>
+  <si>
+    <t>产自_project的机器人的组成材料是什么</t>
+  </si>
+  <si>
+    <t>建造_project设计的机器人所用的材料</t>
+  </si>
+  <si>
+    <t>_project的机器人是用什么材料制成的</t>
+  </si>
+  <si>
+    <t>_project制作的机器人的材料是什么</t>
+  </si>
+  <si>
+    <t>_project制作的深海机器人的移动速度是多少</t>
+  </si>
+  <si>
+    <t>_project制作的机器人能移动多快</t>
+  </si>
+  <si>
+    <t>产自_project的机器人的运动速度是多少</t>
+  </si>
+  <si>
+    <t>_project设计建造的机器人的运动速度</t>
+  </si>
+  <si>
+    <t>_project制造的机器人移动速度有多快</t>
+  </si>
+  <si>
+    <t>_project制作的机器人的移动速度是多少</t>
+  </si>
+  <si>
+    <t>_project制作的深海机器人叫什么</t>
+  </si>
+  <si>
+    <t>_project制作的机器人叫什么</t>
+  </si>
+  <si>
+    <t>产自_project的机器人的名字是什么</t>
+  </si>
+  <si>
+    <t>_project设计建造的机器人的名称</t>
+  </si>
+  <si>
+    <t>_project制作的深海机器人的下潜深度是多少</t>
+  </si>
+  <si>
+    <t>_project制作的机器人能下潜多深</t>
+  </si>
+  <si>
+    <t>产自_project的机器人的下潜深度是多少</t>
+  </si>
+  <si>
+    <t>_project设计建造的机器人的潜深</t>
+  </si>
+  <si>
+    <t>_project制造的机器人能潜多深</t>
+  </si>
+  <si>
+    <t>_project制作的机器人的下潜深度是多少</t>
+  </si>
+  <si>
+    <t>_project制作的深海机器人有哪些用途</t>
+  </si>
+  <si>
+    <t>_project制作的机器人能做什么</t>
+  </si>
+  <si>
+    <t>产自_project的机器人的功能有什么</t>
+  </si>
+  <si>
+    <t>_project设计建造的机器人的应用</t>
+  </si>
+  <si>
+    <t>_project生产的机器人能做什么</t>
+  </si>
+  <si>
+    <t>_project制作的机器人有哪些用途</t>
+  </si>
+  <si>
+    <t>_project中_organization有哪些成员参与</t>
+  </si>
+  <si>
+    <t>_project中的人来自_organization的有哪些</t>
+  </si>
+  <si>
+    <t>参与_project的人哪些来自_organization</t>
+  </si>
+  <si>
+    <t>哪些来自_organization的人参与了_project</t>
+  </si>
+  <si>
+    <t>参与_project的人当中都有谁来自_organization</t>
+  </si>
+  <si>
+    <t>_project中_person的研究方向是什么</t>
+  </si>
+  <si>
+    <t>_project中的_person研究方向有哪些</t>
+  </si>
+  <si>
+    <t>参与_project的_person有哪些研究方向</t>
+  </si>
+  <si>
+    <t>什么是参与_project的_person的研究方向</t>
+  </si>
+  <si>
+    <t>_project中_person的地址是什么</t>
+  </si>
+  <si>
+    <t>_project中的_person地址是哪里</t>
+  </si>
+  <si>
+    <t>参与_project的_person的地址在何处</t>
+  </si>
+  <si>
+    <t>何处是参与_project的_person的地址</t>
+  </si>
+  <si>
+    <t>_project中_person的学历学位是什么</t>
+  </si>
+  <si>
+    <t>_project中的_person学历学位是什么</t>
+  </si>
+  <si>
+    <t>参与_project的_person的有什么学历学位</t>
+  </si>
+  <si>
+    <t>什么是参与_project的_person的学历学位</t>
+  </si>
+  <si>
+    <t>_project参与者_person的学历是什么</t>
+  </si>
+  <si>
+    <t>_project中_person的单位名字是什么</t>
+  </si>
+  <si>
+    <t>_project中_person的单位名称是什么</t>
+  </si>
+  <si>
+    <t>_project中的_person的单位名称是什么</t>
+  </si>
+  <si>
+    <t>参与_project的_person所在机构叫什么</t>
+  </si>
+  <si>
+    <t>什么组织的_person参与了_project</t>
+  </si>
+  <si>
+    <t>_project中_person任职的职位名字是什么</t>
+  </si>
+  <si>
+    <t>_project中_person任职的职位名称是什么</t>
+  </si>
+  <si>
+    <t>_project中的_person担任的什么职位</t>
+  </si>
+  <si>
+    <t>参与_project的_person有哪些任职</t>
+  </si>
+  <si>
+    <t>什么职位的_person参与了_project</t>
+  </si>
+  <si>
+    <t>_project中_person的成果有哪些</t>
+  </si>
+  <si>
+    <t>_project中的_person有什么样的成果</t>
+  </si>
+  <si>
+    <t>参与_project的_person的成果有哪些</t>
+  </si>
+  <si>
+    <t>有什么样成果的_person参与了_project</t>
+  </si>
+  <si>
+    <t>_project参与者中担任_post的人叫什么名字</t>
+  </si>
+  <si>
+    <t>担任_post的_project参与者姓名是什么</t>
+  </si>
+  <si>
+    <t>参与_project的人中担任_post的名字有哪些</t>
+  </si>
+  <si>
+    <t>谁是_project参与者中担任_post的人</t>
+  </si>
+  <si>
+    <t>_project中担任_post的人是谁</t>
+  </si>
+  <si>
+    <t>_academicpublication作者都有谁</t>
+  </si>
+  <si>
+    <t>_academicpublication有哪些作者</t>
+  </si>
+  <si>
+    <t>哪些人是_academicpublication的作者</t>
+  </si>
+  <si>
+    <t>谁发表了_academicpublication</t>
+  </si>
+  <si>
+    <t>_academicpublication的作者是谁</t>
+  </si>
+  <si>
+    <t>谁是名为_academicpublication的作者</t>
+  </si>
+  <si>
+    <t>_project成果有哪些论文</t>
+  </si>
+  <si>
+    <t>_project有哪些论文成果</t>
+  </si>
+  <si>
+    <t>哪些论文是自_project的成果</t>
+  </si>
+  <si>
+    <t>有什么论文是_project的成果</t>
+  </si>
+  <si>
+    <t>_project发表了哪些论文</t>
+  </si>
+  <si>
+    <t>_project成果有哪些专利</t>
+  </si>
+  <si>
+    <t>_project有哪些专利成果</t>
+  </si>
+  <si>
+    <t>哪些专利是自_project的成果</t>
+  </si>
+  <si>
+    <t>有什么专利是_project的成果</t>
+  </si>
+  <si>
+    <t>_project发表了哪些专利</t>
+  </si>
+  <si>
+    <t>_project_result是什么类型</t>
+  </si>
+  <si>
+    <t>_project中_result的类型是什么</t>
+  </si>
+  <si>
+    <t>_project中_result属于何种类型</t>
+  </si>
+  <si>
+    <t>_project中_result是哪个类别</t>
+  </si>
+  <si>
+    <t>_project的_result是论文吗</t>
+  </si>
+  <si>
+    <t>_project的_result是专利吗</t>
+  </si>
+  <si>
+    <t>_project的_result是论文还是专利</t>
+  </si>
+  <si>
+    <t>_project有哪些类型的成果</t>
+  </si>
+  <si>
+    <t>_project成果有哪些类型</t>
+  </si>
+  <si>
+    <t>哪些类型的成果出自_project</t>
+  </si>
+  <si>
+    <t>有什么类型的成果出自_project</t>
+  </si>
+  <si>
+    <t>_project成果论文发表在哪些期刊</t>
+  </si>
+  <si>
+    <t>_project成果论文在哪些期刊上发表了</t>
+  </si>
+  <si>
+    <t>哪些期刊上发表了_project成果论文</t>
+  </si>
+  <si>
+    <t>发表_project论文的有哪些期刊</t>
+  </si>
+  <si>
+    <t>_project成果中论文有几篇</t>
+  </si>
+  <si>
+    <t>_project成果中有几篇论文</t>
+  </si>
+  <si>
+    <t>_project有几篇论文成果</t>
+  </si>
+  <si>
+    <t>有几篇论文成果出自_project</t>
+  </si>
+  <si>
+    <t>_project发表了几篇论文</t>
+  </si>
+  <si>
+    <t>_project发表了多少论文</t>
+  </si>
+  <si>
+    <t>_project成果中专利有几个</t>
+  </si>
+  <si>
+    <t>_project成果中有几个专利</t>
+  </si>
+  <si>
+    <t>_project有几个专利成果</t>
+  </si>
+  <si>
+    <t>有几个专利成果出自_project</t>
+  </si>
+  <si>
+    <t>_project发表了几篇专利</t>
+  </si>
+  <si>
+    <t>_project发表了多少专利</t>
+  </si>
+  <si>
+    <t>_project成果中发表在_journal的论文是哪篇</t>
+  </si>
+  <si>
+    <t>_project成果中哪篇论文发表在了_journal</t>
+  </si>
+  <si>
+    <t>_journal发表了_project成果中的哪篇论文</t>
+  </si>
+  <si>
+    <t>哪篇_project成果中的论文被_journal发表了</t>
+  </si>
+  <si>
+    <t>_project中的哪篇论文是发表在_journal上的</t>
+  </si>
+  <si>
+    <t>_project发表在_journal的论文是哪篇</t>
+  </si>
+  <si>
+    <t>_project发表在_journall的成果是什么</t>
+  </si>
+  <si>
+    <t>_project发表在_journal的论文是什么</t>
+  </si>
+  <si>
+    <t>什么是_project发表在_journal上的论文</t>
+  </si>
+  <si>
+    <t>什么论文是_project发表在_journal上的</t>
+  </si>
+  <si>
+    <t>_project在_journal上发表了什么论文</t>
+  </si>
+  <si>
+    <t>_project成果中的论文和专利各有多少</t>
+  </si>
+  <si>
+    <t>_project成果各包括有多少论文和专利</t>
+  </si>
+  <si>
+    <t>_project成果中论文和专利各发表了多少</t>
+  </si>
+  <si>
+    <t>论文和专利各有多少是_project成果</t>
+  </si>
+  <si>
+    <t>_project发表的论文和专利数量</t>
+  </si>
+  <si>
+    <t>_project发表了多少论文和专利</t>
+  </si>
+  <si>
+    <t>_organization的_organizationalunit有什么哪些子机构</t>
+  </si>
+  <si>
+    <t>_organization中的_organizationalunit有哪些子机构</t>
+  </si>
+  <si>
+    <t>_organization中的子_organization有哪些部门</t>
+  </si>
+  <si>
+    <t>_organization中的_organizationalunit有哪些分部</t>
+  </si>
+  <si>
+    <t>哪些部门构成了_organization中的_organizationalunit</t>
+  </si>
+  <si>
+    <t>_organization中的_organizationalunit有哪些机构</t>
+  </si>
+  <si>
+    <t>_organization中的_organizationalunit有哪些部门</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>制作_thing的负责人是谁</t>
+  </si>
+  <si>
+    <t>制作_thing的负责人是哪一位</t>
+  </si>
+  <si>
+    <t>负责制作_thing的人是谁</t>
+  </si>
+  <si>
+    <t>谁是负责制作_thing的人</t>
+  </si>
+  <si>
+    <t>_organization中_person的职位是什么</t>
+  </si>
+  <si>
+    <t>_organization中_person任职什么职位</t>
+  </si>
+  <si>
+    <t>_person在_organization中担任什么职位</t>
+  </si>
+  <si>
+    <t>_organization中的哪个职位由_person担任</t>
+  </si>
+  <si>
+    <t>_organization在什么日期成立的</t>
+  </si>
+  <si>
+    <t>_organization成立的日期是什么</t>
+  </si>
+  <si>
+    <t>成立_organization是在什么日期</t>
+  </si>
+  <si>
+    <t>在什么日期成立的_organization</t>
+  </si>
+  <si>
+    <t>_organization是什么时候成立的</t>
+  </si>
+  <si>
+    <t>_organization发生了哪些大事</t>
+  </si>
+  <si>
+    <t>_organization发生的大事有哪些</t>
+  </si>
+  <si>
+    <t>发生了_organization的哪些大事</t>
+  </si>
+  <si>
+    <t>_organization的哪些大事发生了</t>
+  </si>
+  <si>
+    <t>_organization的发展历程是怎样的</t>
+  </si>
+  <si>
+    <t>_organization经历了哪些发展历程</t>
+  </si>
+  <si>
+    <t>历经了哪些历程有了现在的_organization</t>
+  </si>
+  <si>
+    <t>_organization的发展历程有哪些</t>
+  </si>
+  <si>
+    <t>_organization有哪些项目</t>
+  </si>
+  <si>
+    <t>_organization参与了哪些项目</t>
+  </si>
+  <si>
+    <t>有哪些项目_organization参与了</t>
+  </si>
+  <si>
+    <t>_organization做了哪些项目</t>
+  </si>
+  <si>
+    <t>_organization的项目有哪些</t>
+  </si>
+  <si>
+    <t>_organization有多少个项目</t>
+  </si>
+  <si>
+    <t>_organization参与了多少个项目</t>
+  </si>
+  <si>
+    <t>有多少个项目_organization参与了</t>
+  </si>
+  <si>
+    <t>_organization做的项目数量是多少</t>
+  </si>
+  <si>
+    <t>_organization的项目有多少</t>
+  </si>
+  <si>
+    <t>_project发生了哪些大事</t>
+  </si>
+  <si>
+    <t>_project发生的大事有哪些</t>
+  </si>
+  <si>
+    <t>发生了_project的哪些大事</t>
+  </si>
+  <si>
+    <t>_project的哪些大事发生了</t>
+  </si>
+  <si>
+    <t>_project的历程是怎么样的</t>
+  </si>
+  <si>
+    <t>_project经历了哪些历程</t>
+  </si>
+  <si>
+    <t>完成_project历经了哪些过程</t>
+  </si>
+  <si>
+    <t>_project的经过有哪些</t>
+  </si>
+  <si>
+    <t>_organization中担任_post的人是谁</t>
+  </si>
+  <si>
+    <t>_organization中_post由谁任职</t>
+  </si>
+  <si>
+    <t>谁在_organization中担任_post</t>
+  </si>
+  <si>
+    <t>_organization中的_post由谁担任</t>
+  </si>
+  <si>
+    <t>_organization中_post谁在担任</t>
+  </si>
+  <si>
+    <t>_organization中有哪些子机构</t>
+  </si>
+  <si>
+    <t>_organization由哪些部门构成</t>
+  </si>
+  <si>
+    <t>_organization中的部门有哪些</t>
+  </si>
+  <si>
+    <t>哪些下属单位构成了_organization</t>
+  </si>
+  <si>
+    <t>_organization中有哪些机构</t>
+  </si>
+  <si>
+    <t>_organization有哪些机构</t>
+  </si>
+  <si>
+    <t>_organization有哪些组织</t>
+  </si>
+  <si>
+    <t>_organization有哪些单位</t>
+  </si>
+  <si>
+    <t>_project有多少成员</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="65" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2783,6 +3756,42 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B14D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2806,7 +3815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3011,11 +4020,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3330,7 +4391,7 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -4370,7 +5431,7 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6171,4 +7232,1601 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D11EAF-D1D6-4888-8DE1-2914F332DA2E}">
+  <dimension ref="A1:L58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+    </row>
+    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>539</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>540</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>541</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>542</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>543</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>544</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>546</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>547</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>548</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>549</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>550</v>
+      </c>
+      <c r="I3" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>553</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>554</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>555</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>557</v>
+      </c>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>558</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>560</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>561</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>562</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>564</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+    </row>
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>566</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>567</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>569</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>570</v>
+      </c>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>571</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>572</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>573</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>574</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>575</v>
+      </c>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+    </row>
+    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>578</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>579</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>580</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>581</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>582</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>583</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>584</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>585</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>586</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>587</v>
+      </c>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>588</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>590</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>591</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>592</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>593</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="I10" s="70"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>595</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>596</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>597</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>598</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>599</v>
+      </c>
+      <c r="G11" s="72"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="73"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>600</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>602</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>603</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>604</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>605</v>
+      </c>
+      <c r="H12" s="72"/>
+      <c r="I12" s="70" t="s">
+        <v>606</v>
+      </c>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="73"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>607</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>608</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>609</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>610</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>611</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>612</v>
+      </c>
+      <c r="H13" s="72"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="73"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>613</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>614</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>615</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>616</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>617</v>
+      </c>
+      <c r="G14" s="73"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>618</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>619</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>620</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>621</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>622</v>
+      </c>
+      <c r="G15" s="73"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>623</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>624</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>625</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>626</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>627</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>628</v>
+      </c>
+      <c r="H16" s="73"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>629</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>630</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>631</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>632</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>633</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>634</v>
+      </c>
+      <c r="H17" s="73"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>635</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>636</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>637</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>638</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>639</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>640</v>
+      </c>
+      <c r="H18" s="73"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>641</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>642</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>643</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>644</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="G19" s="73"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>646</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>647</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>648</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>649</v>
+      </c>
+      <c r="F20" s="73"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>650</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>651</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>652</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>653</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>654</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>655</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>656</v>
+      </c>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>657</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>658</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>659</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>660</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>661</v>
+      </c>
+      <c r="G22" s="73"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>662</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>663</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>664</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>665</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>666</v>
+      </c>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73" t="s">
+        <v>667</v>
+      </c>
+      <c r="J23" s="68"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+    </row>
+    <row r="24" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>668</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>669</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>670</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>671</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>672</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>673</v>
+      </c>
+      <c r="H24" s="73" t="s">
+        <v>674</v>
+      </c>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+    </row>
+    <row r="25" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>675</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>676</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>677</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>678</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>679</v>
+      </c>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73" t="s">
+        <v>680</v>
+      </c>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>681</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>682</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>683</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>684</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>685</v>
+      </c>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73" t="s">
+        <v>686</v>
+      </c>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>687</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>688</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>689</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>691</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>692</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73" t="s">
+        <v>696</v>
+      </c>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>699</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>700</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>701</v>
+      </c>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73" t="s">
+        <v>702</v>
+      </c>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>703</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>705</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>706</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>707</v>
+      </c>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>708</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>710</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>711</v>
+      </c>
+      <c r="F31" s="73"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>712</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>713</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>714</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>715</v>
+      </c>
+      <c r="F32" s="73"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>716</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>717</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>718</v>
+      </c>
+      <c r="E33" s="68" t="s">
+        <v>719</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>720</v>
+      </c>
+      <c r="G33" s="73"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>721</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>722</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>723</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>724</v>
+      </c>
+      <c r="F34" s="68" t="s">
+        <v>725</v>
+      </c>
+      <c r="G34" s="73"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="68" t="s">
+        <v>726</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>727</v>
+      </c>
+      <c r="D35" s="68" t="s">
+        <v>728</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>729</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>730</v>
+      </c>
+      <c r="G35" s="73"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>731</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>732</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>733</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="F36" s="73"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>735</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>737</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>738</v>
+      </c>
+      <c r="F37" s="73"/>
+      <c r="G37" s="72" t="s">
+        <v>739</v>
+      </c>
+      <c r="H37" s="70"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>740</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>741</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>742</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>743</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>744</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>745</v>
+      </c>
+      <c r="H38" s="74"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>746</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>747</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>748</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>749</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>750</v>
+      </c>
+      <c r="G39" s="72"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>751</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>752</v>
+      </c>
+      <c r="D40" s="68" t="s">
+        <v>753</v>
+      </c>
+      <c r="E40" s="68" t="s">
+        <v>754</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>755</v>
+      </c>
+      <c r="G40" s="72"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>756</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>757</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>758</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>759</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>760</v>
+      </c>
+      <c r="G41" s="70" t="s">
+        <v>761</v>
+      </c>
+      <c r="H41" s="70" t="s">
+        <v>762</v>
+      </c>
+      <c r="I41" s="72"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>763</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>764</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>765</v>
+      </c>
+      <c r="E42" s="68" t="s">
+        <v>766</v>
+      </c>
+      <c r="F42" s="72"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="68" t="s">
+        <v>767</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>768</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>769</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>770</v>
+      </c>
+      <c r="F43" s="72"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="68" t="s">
+        <v>771</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>772</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>773</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>774</v>
+      </c>
+      <c r="F44" s="70" t="s">
+        <v>775</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>776</v>
+      </c>
+      <c r="H44" s="72"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="68" t="s">
+        <v>777</v>
+      </c>
+      <c r="C45" s="68" t="s">
+        <v>778</v>
+      </c>
+      <c r="D45" s="68" t="s">
+        <v>779</v>
+      </c>
+      <c r="E45" s="68" t="s">
+        <v>780</v>
+      </c>
+      <c r="F45" s="70" t="s">
+        <v>781</v>
+      </c>
+      <c r="G45" s="70" t="s">
+        <v>782</v>
+      </c>
+      <c r="H45" s="72"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+    </row>
+    <row r="46" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="68" t="s">
+        <v>783</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>784</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>785</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>786</v>
+      </c>
+      <c r="F46" s="70" t="s">
+        <v>787</v>
+      </c>
+      <c r="G46" s="71" t="s">
+        <v>788</v>
+      </c>
+      <c r="H46" s="68" t="s">
+        <v>789</v>
+      </c>
+      <c r="I46" s="73" t="s">
+        <v>790</v>
+      </c>
+      <c r="J46" s="73" t="s">
+        <v>791</v>
+      </c>
+      <c r="K46" s="73" t="s">
+        <v>792</v>
+      </c>
+      <c r="L46" s="73" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="68" t="s">
+        <v>794</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>795</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>796</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>797</v>
+      </c>
+      <c r="F47" s="70" t="s">
+        <v>798</v>
+      </c>
+      <c r="G47" s="70" t="s">
+        <v>799</v>
+      </c>
+      <c r="H47" s="72"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="68" t="s">
+        <v>800</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>801</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>802</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>803</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>804</v>
+      </c>
+      <c r="G48" s="68" t="s">
+        <v>805</v>
+      </c>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73" t="s">
+        <v>806</v>
+      </c>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="69"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>807</v>
+      </c>
+      <c r="B49" s="68" t="s">
+        <v>808</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="68" t="s">
+        <v>809</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>810</v>
+      </c>
+      <c r="F49" s="68" t="s">
+        <v>811</v>
+      </c>
+      <c r="G49" s="70"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>812</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>813</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>814</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>815</v>
+      </c>
+      <c r="F50" s="70"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+    </row>
+    <row r="51" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A51" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>816</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>817</v>
+      </c>
+      <c r="D51" s="68" t="s">
+        <v>818</v>
+      </c>
+      <c r="E51" s="68" t="s">
+        <v>819</v>
+      </c>
+      <c r="F51" s="71" t="s">
+        <v>820</v>
+      </c>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>821</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>822</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>823</v>
+      </c>
+      <c r="E52" s="68" t="s">
+        <v>824</v>
+      </c>
+      <c r="F52" s="68" t="s">
+        <v>825</v>
+      </c>
+      <c r="G52" s="68" t="s">
+        <v>826</v>
+      </c>
+      <c r="H52" s="68" t="s">
+        <v>827</v>
+      </c>
+      <c r="I52" s="68" t="s">
+        <v>828</v>
+      </c>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="68" t="s">
+        <v>829</v>
+      </c>
+      <c r="C53" s="68" t="s">
+        <v>830</v>
+      </c>
+      <c r="D53" s="68" t="s">
+        <v>831</v>
+      </c>
+      <c r="E53" s="68" t="s">
+        <v>832</v>
+      </c>
+      <c r="F53" s="68" t="s">
+        <v>833</v>
+      </c>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>834</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>835</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>836</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>837</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>838</v>
+      </c>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="68" t="s">
+        <v>839</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>840</v>
+      </c>
+      <c r="D55" s="68" t="s">
+        <v>841</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>842</v>
+      </c>
+      <c r="F55" s="68" t="s">
+        <v>843</v>
+      </c>
+      <c r="G55" s="68" t="s">
+        <v>844</v>
+      </c>
+      <c r="H55" s="68" t="s">
+        <v>845</v>
+      </c>
+      <c r="I55" s="68" t="s">
+        <v>846</v>
+      </c>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="70" t="s">
+        <v>847</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>848</v>
+      </c>
+      <c r="D56" s="70" t="s">
+        <v>849</v>
+      </c>
+      <c r="E56" s="70" t="s">
+        <v>850</v>
+      </c>
+      <c r="F56" s="70" t="s">
+        <v>851</v>
+      </c>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="70" t="s">
+        <v>852</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>853</v>
+      </c>
+      <c r="D57" s="70" t="s">
+        <v>854</v>
+      </c>
+      <c r="E57" s="70" t="s">
+        <v>855</v>
+      </c>
+      <c r="F57" s="70" t="s">
+        <v>856</v>
+      </c>
+      <c r="G57" s="73" t="s">
+        <v>857</v>
+      </c>
+      <c r="H57" s="73" t="s">
+        <v>858</v>
+      </c>
+      <c r="I57" s="73" t="s">
+        <v>859</v>
+      </c>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="68" t="s">
+        <v>860</v>
+      </c>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:L58">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B48 B50:B58">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49 B50:C58 B2:C48 D2:L58">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KBQA/QTemplates-sparqlQ.xlsx
+++ b/KBQA/QTemplates-sparqlQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhejianglab.com\入职后\work\workspace\RoboCloudBrain\KBQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E01B187-1DEF-412D-A8A7-0B445FDE01D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938C3D3B-B657-46A4-908A-CEF822123FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-14570" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-14570" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="880">
   <si>
     <t>项目参与者年龄是多少</t>
   </si>
@@ -939,20 +939,6 @@
     <t>发表在</t>
   </si>
   <si>
-    <t>PREFIX foaf:&lt;http://xmlns.com/foaf/0.1/&gt;
-PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
-PREFIX bob: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/bob#&gt;
-SELECT DISTINCT ?journalname WHERE {
-    ?project foaf:name "_project" ;
-              a foaf:Project ; 
-             poap:hasResult ?result .
-    ?result foaf:name ?article ;
-            a bob:Article ;
-            bob:publishedIn ?journal .
-    ?journal foaf:name ?journalname .
-}</t>
-  </si>
-  <si>
     <t>项目成果中论文有几篇</t>
   </si>
   <si>
@@ -3294,6 +3280,118 @@
   </si>
   <si>
     <t>_project有多少成员</t>
+  </si>
+  <si>
+    <t>某人负责哪些项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFIX foaf:&lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
+PREFIX bob: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/bob#&gt;
+SELECT DISTINCT ?journalname WHERE {
+    ?project foaf:name "_project" ;
+              a foaf:Project ; 
+             poap:hasResult ?result .
+    ?result foaf:name ?article ;
+            a bob:Article ;
+            bob:publishedIn ?journal .
+    ?journal foaf:name ?journalname .
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX bob: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/bob#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
+SELECT DISTINCT ?projectname WHERE { 
+	?person a foaf:Person;
+        bob:hasRole ?role ;
+        foaf:name "_person".
+   ?role a org:Role ;
+           foaf:name "项目负责人" .
+   ?project a foaf:Project;
+            bob:orgRole ?role ;
+            foaf:name ?projectname .
+} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某期刊发表论文是哪个项目</t>
+  </si>
+  <si>
+    <t>在某期刊发表论文是哪个项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFIX foaf:&lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
+PREFIX bob: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/bob#&gt;
+SELECT DISTINCT ?projectname WHERE {
+    ?project foaf:name ?projectname ;
+              a foaf:Project ; 
+             poap:hasResult ?result .
+    ?result  a bob:Article ;
+            bob:publishedIn ?journal .
+    ?journal foaf:name "_journal" .
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪些项目由某人负责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某人是哪些项目的负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪些项目的负责人是某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人是某人的是哪些项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪个项目在某期刊发表了论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某个期刊发表论文的是哪个项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表论文在某期刊的是哪个项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪个项目发表论文在某期刊了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3723,13 +3821,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -3760,12 +3851,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3773,23 +3866,34 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B14D"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4011,14 +4115,14 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4026,11 +4130,11 @@
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4389,10 +4493,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4596,8 +4700,8 @@
       <c r="C11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="67" t="s">
-        <v>535</v>
+      <c r="D11" s="66" t="s">
+        <v>534</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>4</v>
@@ -5156,8 +5260,8 @@
       <c r="C42" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="50" t="s">
-        <v>161</v>
+      <c r="D42" s="66" t="s">
+        <v>864</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>4</v>
@@ -5166,36 +5270,36 @@
     </row>
     <row r="43" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="50" t="s">
         <v>164</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>165</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="51" t="s">
         <v>169</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>170</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>4</v>
@@ -5206,34 +5310,34 @@
     </row>
     <row r="45" spans="1:6" ht="308.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="65" t="s">
+        <v>532</v>
+      </c>
+      <c r="D45" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="66" t="s">
-        <v>533</v>
-      </c>
-      <c r="D45" s="53" t="s">
+      <c r="E45" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="350.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="54" t="s">
-        <v>177</v>
+      <c r="D46" s="53" t="s">
+        <v>176</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>4</v>
@@ -5242,122 +5346,122 @@
     </row>
     <row r="47" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="E47" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="308.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="56" t="s">
+      <c r="D48" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="67" t="s">
-        <v>536</v>
+      <c r="D49" s="66" t="s">
+        <v>535</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="D50" s="57" t="s">
-        <v>193</v>
-      </c>
       <c r="E50" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="6" customFormat="1" ht="405.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="D51" s="58" t="s">
-        <v>197</v>
-      </c>
       <c r="E51" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" s="59" t="s">
-        <v>200</v>
-      </c>
       <c r="E52" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="6" customFormat="1" ht="350.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="C53" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D53" s="67" t="s">
-        <v>534</v>
+        <v>191</v>
+      </c>
+      <c r="D53" s="66" t="s">
+        <v>533</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>4</v>
@@ -5365,56 +5469,90 @@
     </row>
     <row r="54" spans="1:6" s="6" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="E54" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="6" customFormat="1" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="61" t="s">
-        <v>210</v>
+      <c r="D55" s="60" t="s">
+        <v>209</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="61" t="s">
         <v>213</v>
-      </c>
-      <c r="D56" s="62" t="s">
-        <v>214</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="D57" s="66" t="s">
+        <v>865</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="D58" s="66" t="s">
+        <v>868</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -5429,9 +5567,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5454,19 +5594,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="62" t="s">
         <v>219</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>220</v>
       </c>
       <c r="H1" s="6"/>
     </row>
@@ -5475,25 +5615,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5501,19 +5641,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -5523,22 +5663,22 @@
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -5547,19 +5687,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -5569,16 +5709,16 @@
         <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -5589,19 +5729,19 @@
         <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -5611,19 +5751,19 @@
         <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -5633,22 +5773,22 @@
         <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -5657,24 +5797,24 @@
         <v>38</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="K10" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5682,28 +5822,28 @@
         <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="K11" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5711,26 +5851,26 @@
         <v>45</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="H12" s="6"/>
       <c r="K12" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5738,19 +5878,19 @@
         <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="6"/>
@@ -5760,19 +5900,19 @@
         <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="6"/>
@@ -5782,22 +5922,22 @@
         <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -5806,22 +5946,22 @@
         <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -5830,22 +5970,22 @@
         <v>65</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -5854,19 +5994,19 @@
         <v>68</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="6"/>
@@ -5876,16 +6016,16 @@
         <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -5896,22 +6036,22 @@
         <v>76</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -5920,19 +6060,19 @@
         <v>80</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="6"/>
@@ -5942,25 +6082,25 @@
         <v>83</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -5969,28 +6109,28 @@
         <v>87</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5998,28 +6138,28 @@
         <v>91</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6027,28 +6167,28 @@
         <v>95</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6056,22 +6196,22 @@
         <v>99</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>365</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -6081,28 +6221,28 @@
         <v>103</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="I27" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6110,28 +6250,28 @@
         <v>107</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="I28" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6139,28 +6279,28 @@
         <v>111</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6168,16 +6308,16 @@
         <v>115</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -6188,16 +6328,16 @@
         <v>120</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>395</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -6208,38 +6348,38 @@
         <v>124</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -6247,19 +6387,19 @@
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -6270,16 +6410,16 @@
         <v>134</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>414</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -6290,19 +6430,19 @@
         <v>137</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>418</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>419</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
@@ -6312,19 +6452,19 @@
         <v>141</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="6"/>
@@ -6334,19 +6474,19 @@
         <v>145</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>429</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
@@ -6356,19 +6496,19 @@
         <v>148</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="6"/>
@@ -6378,25 +6518,25 @@
         <v>151</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6404,16 +6544,16 @@
         <v>155</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>445</v>
       </c>
       <c r="F41" s="4"/>
       <c r="H41" s="6"/>
@@ -6423,344 +6563,378 @@
         <v>158</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>449</v>
       </c>
       <c r="F42" s="4"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>455</v>
       </c>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="63" t="s">
         <v>465</v>
       </c>
-      <c r="F45" s="64" t="s">
+      <c r="G45" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="I45" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="J45" s="7" t="s">
+      <c r="K45" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="M45" s="9" t="s">
         <v>471</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="9" t="s">
         <v>477</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>478</v>
       </c>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>491</v>
       </c>
       <c r="E48" s="4"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="E49" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>532</v>
+    </row>
+    <row r="57" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="74" t="s">
+        <v>860</v>
+      </c>
+      <c r="B57" s="74" t="s">
+        <v>872</v>
+      </c>
+      <c r="C57" s="74" t="s">
+        <v>873</v>
+      </c>
+      <c r="D57" s="74" t="s">
+        <v>874</v>
+      </c>
+      <c r="E57" s="74" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="74" t="s">
+        <v>866</v>
+      </c>
+      <c r="B58" s="74" t="s">
+        <v>876</v>
+      </c>
+      <c r="C58" s="74" t="s">
+        <v>877</v>
+      </c>
+      <c r="D58" s="74" t="s">
+        <v>878</v>
+      </c>
+      <c r="E58" s="74" t="s">
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -6785,10 +6959,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="64" t="s">
         <v>219</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6796,13 +6970,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6824,7 +6998,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6846,10 +7020,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6857,7 +7031,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -6865,7 +7039,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -6874,7 +7048,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -6884,7 +7058,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -6900,7 +7074,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -6909,10 +7083,10 @@
         <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -6921,10 +7095,10 @@
         <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -6933,7 +7107,7 @@
         <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6948,7 +7122,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -6958,10 +7132,10 @@
         <v>76</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -6970,10 +7144,10 @@
         <v>80</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -6982,7 +7156,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -6992,7 +7166,7 @@
         <v>107</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -7001,10 +7175,10 @@
         <v>111</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -7013,7 +7187,7 @@
         <v>115</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -7034,14 +7208,14 @@
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -7072,10 +7246,10 @@
         <v>145</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -7084,10 +7258,10 @@
         <v>148</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="D34" s="4"/>
     </row>
@@ -7096,7 +7270,7 @@
         <v>151</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -7106,124 +7280,124 @@
         <v>158</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -7238,1583 +7412,1583 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D11EAF-D1D6-4888-8DE1-2914F332DA2E}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-    </row>
-    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="C2" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>539</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>540</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>541</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>542</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>538</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>539</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>540</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>541</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="G2" s="71" t="s">
+      <c r="B3" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="C3" s="67" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>545</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>546</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>547</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>548</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>549</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>544</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>545</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>546</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>547</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>548</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>549</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>550</v>
-      </c>
-      <c r="I3" s="70" t="s">
+      <c r="B4" s="67" t="s">
         <v>551</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="C4" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>553</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>554</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>556</v>
+      </c>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>552</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>553</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>554</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>555</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>556</v>
-      </c>
-      <c r="G4" s="70" t="s">
+      <c r="B5" s="67" t="s">
         <v>557</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="C5" s="67" t="s">
+        <v>558</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>559</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>560</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>561</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>562</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>563</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+    </row>
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>558</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>559</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>560</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>561</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>562</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>563</v>
-      </c>
-      <c r="H5" s="70" t="s">
+      <c r="B6" s="67" t="s">
         <v>564</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-    </row>
-    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="C6" s="67" t="s">
+        <v>565</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>568</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>569</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>565</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>566</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>567</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>568</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>569</v>
-      </c>
-      <c r="G6" s="71" t="s">
+      <c r="B7" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="C7" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>572</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>573</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>574</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+    </row>
+    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>571</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>572</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>573</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>574</v>
-      </c>
-      <c r="F7" s="70" t="s">
+      <c r="B8" s="67" t="s">
         <v>575</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="C8" s="67" t="s">
+        <v>576</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>577</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>578</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>579</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>580</v>
+      </c>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+    </row>
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>576</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>577</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>578</v>
-      </c>
-      <c r="E8" s="68" t="s">
-        <v>579</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>580</v>
-      </c>
-      <c r="G8" s="71" t="s">
+      <c r="B9" s="67" t="s">
         <v>581</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-    </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="C9" s="67" t="s">
+        <v>582</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>583</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>584</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>585</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>586</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>582</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>583</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>584</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>585</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>586</v>
-      </c>
-      <c r="G9" s="71" t="s">
+      <c r="B10" s="67" t="s">
         <v>587</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="C10" s="67" t="s">
+        <v>588</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>590</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>591</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>592</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>593</v>
+      </c>
+      <c r="I10" s="69"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+    </row>
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>588</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>590</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>591</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>593</v>
-      </c>
-      <c r="H10" s="70" t="s">
+      <c r="B11" s="67" t="s">
         <v>594</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-    </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="C11" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>596</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>598</v>
+      </c>
+      <c r="G11" s="71"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="72"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="68" t="s">
-        <v>595</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>596</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>597</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>598</v>
-      </c>
-      <c r="F11" s="71" t="s">
+      <c r="B12" s="67" t="s">
         <v>599</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="73"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="C12" s="67" t="s">
+        <v>600</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>601</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>603</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>604</v>
+      </c>
+      <c r="H12" s="71"/>
+      <c r="I12" s="69" t="s">
+        <v>605</v>
+      </c>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="72"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="68" t="s">
-        <v>600</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>601</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>602</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>603</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>604</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>605</v>
-      </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="70" t="s">
+      <c r="B13" s="67" t="s">
         <v>606</v>
       </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="73"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="C13" s="67" t="s">
+        <v>607</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>608</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>609</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>610</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>611</v>
+      </c>
+      <c r="H13" s="71"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="72"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>607</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>608</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>609</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>610</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>611</v>
-      </c>
-      <c r="G13" s="70" t="s">
+      <c r="B14" s="67" t="s">
         <v>612</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="73"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="C14" s="67" t="s">
+        <v>613</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>614</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>615</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>616</v>
+      </c>
+      <c r="G14" s="72"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="68" t="s">
-        <v>613</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>614</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>615</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>616</v>
-      </c>
-      <c r="F14" s="70" t="s">
+      <c r="B15" s="67" t="s">
         <v>617</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="C15" s="67" t="s">
+        <v>618</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>621</v>
+      </c>
+      <c r="G15" s="72"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="68" t="s">
-        <v>618</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>619</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>620</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>621</v>
-      </c>
-      <c r="F15" s="70" t="s">
+      <c r="B16" s="67" t="s">
         <v>622</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="C16" s="67" t="s">
+        <v>623</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>624</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>625</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>626</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>627</v>
+      </c>
+      <c r="H16" s="72"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="68" t="s">
-        <v>623</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>624</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>625</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>626</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>627</v>
-      </c>
-      <c r="G16" s="70" t="s">
+      <c r="B17" s="67" t="s">
         <v>628</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="C17" s="67" t="s">
+        <v>629</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>630</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>632</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>633</v>
+      </c>
+      <c r="H17" s="72"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="68" t="s">
-        <v>629</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>630</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>631</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>632</v>
-      </c>
-      <c r="F17" s="70" t="s">
-        <v>633</v>
-      </c>
-      <c r="G17" s="70" t="s">
+      <c r="B18" s="67" t="s">
         <v>634</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="C18" s="67" t="s">
+        <v>635</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>636</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>637</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>638</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>639</v>
+      </c>
+      <c r="H18" s="72"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="68" t="s">
-        <v>635</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>636</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>637</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>638</v>
-      </c>
-      <c r="F18" s="70" t="s">
-        <v>639</v>
-      </c>
-      <c r="G18" s="70" t="s">
+      <c r="B19" s="67" t="s">
         <v>640</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="C19" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>642</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>643</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>644</v>
+      </c>
+      <c r="G19" s="72"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="68" t="s">
-        <v>641</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>642</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>643</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>644</v>
-      </c>
-      <c r="F19" s="70" t="s">
+      <c r="B20" s="67" t="s">
         <v>645</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="C20" s="67" t="s">
+        <v>646</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>647</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>648</v>
+      </c>
+      <c r="F20" s="72"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="68" t="s">
-        <v>646</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>647</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>648</v>
-      </c>
-      <c r="E20" s="68" t="s">
+      <c r="B21" s="67" t="s">
         <v>649</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="C21" s="67" t="s">
+        <v>650</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>651</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>652</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>653</v>
+      </c>
+      <c r="G21" s="69" t="s">
+        <v>654</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>655</v>
+      </c>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="68" t="s">
-        <v>650</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>651</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>652</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>653</v>
-      </c>
-      <c r="F21" s="70" t="s">
-        <v>654</v>
-      </c>
-      <c r="G21" s="70" t="s">
-        <v>655</v>
-      </c>
-      <c r="H21" s="73" t="s">
+      <c r="B22" s="67" t="s">
         <v>656</v>
       </c>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+      <c r="C22" s="67" t="s">
+        <v>657</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>658</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>660</v>
+      </c>
+      <c r="G22" s="72"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="68" t="s">
-        <v>657</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>658</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>659</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>660</v>
-      </c>
-      <c r="F22" s="70" t="s">
+      <c r="B23" s="67" t="s">
         <v>661</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="C23" s="67" t="s">
+        <v>662</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>663</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>665</v>
+      </c>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72" t="s">
+        <v>666</v>
+      </c>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+    </row>
+    <row r="24" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="68" t="s">
-        <v>662</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>663</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>664</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>665</v>
-      </c>
-      <c r="F23" s="70" t="s">
-        <v>666</v>
-      </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73" t="s">
+      <c r="B24" s="67" t="s">
         <v>667</v>
       </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-    </row>
-    <row r="24" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="C24" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>669</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>670</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>671</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>672</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>673</v>
+      </c>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+    </row>
+    <row r="25" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="68" t="s">
-        <v>668</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>669</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>670</v>
-      </c>
-      <c r="E24" s="68" t="s">
-        <v>671</v>
-      </c>
-      <c r="F24" s="71" t="s">
-        <v>672</v>
-      </c>
-      <c r="G24" s="70" t="s">
-        <v>673</v>
-      </c>
-      <c r="H24" s="73" t="s">
+      <c r="B25" s="67" t="s">
         <v>674</v>
       </c>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-    </row>
-    <row r="25" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="C25" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>676</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>677</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>678</v>
+      </c>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72" t="s">
+        <v>679</v>
+      </c>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="68" t="s">
-        <v>675</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>676</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>677</v>
-      </c>
-      <c r="E25" s="68" t="s">
-        <v>678</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>679</v>
-      </c>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73" t="s">
+      <c r="B26" s="67" t="s">
         <v>680</v>
       </c>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="C26" s="67" t="s">
+        <v>681</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="E26" s="67" t="s">
+        <v>683</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>684</v>
+      </c>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72" t="s">
+        <v>685</v>
+      </c>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="68" t="s">
-        <v>681</v>
-      </c>
-      <c r="C26" s="68" t="s">
-        <v>682</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>683</v>
-      </c>
-      <c r="E26" s="68" t="s">
-        <v>684</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>685</v>
-      </c>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73" t="s">
+      <c r="B27" s="67" t="s">
         <v>686</v>
       </c>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="C27" s="67" t="s">
+        <v>687</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>688</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>689</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="68" t="s">
-        <v>687</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>688</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>689</v>
-      </c>
-      <c r="E27" s="68" t="s">
+      <c r="B28" s="67" t="s">
         <v>690</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
+      <c r="C28" s="67" t="s">
+        <v>691</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>692</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>694</v>
+      </c>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72" t="s">
+        <v>695</v>
+      </c>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="68" t="s">
-        <v>691</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>692</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>693</v>
-      </c>
-      <c r="E28" s="68" t="s">
-        <v>694</v>
-      </c>
-      <c r="F28" s="70" t="s">
-        <v>695</v>
-      </c>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73" t="s">
+      <c r="B29" s="67" t="s">
         <v>696</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+      <c r="C29" s="67" t="s">
+        <v>697</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>698</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>699</v>
+      </c>
+      <c r="F29" s="69" t="s">
+        <v>700</v>
+      </c>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72" t="s">
+        <v>701</v>
+      </c>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>702</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>703</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>704</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>705</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>706</v>
+      </c>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>707</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>708</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>709</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>710</v>
+      </c>
+      <c r="F31" s="72"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>711</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>712</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>713</v>
+      </c>
+      <c r="E32" s="67" t="s">
+        <v>714</v>
+      </c>
+      <c r="F32" s="72"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>715</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>716</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>717</v>
+      </c>
+      <c r="E33" s="67" t="s">
+        <v>718</v>
+      </c>
+      <c r="F33" s="69" t="s">
+        <v>719</v>
+      </c>
+      <c r="G33" s="72"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>720</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>721</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>722</v>
+      </c>
+      <c r="E34" s="67" t="s">
+        <v>723</v>
+      </c>
+      <c r="F34" s="67" t="s">
+        <v>724</v>
+      </c>
+      <c r="G34" s="72"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>725</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>727</v>
+      </c>
+      <c r="E35" s="67" t="s">
+        <v>728</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>729</v>
+      </c>
+      <c r="G35" s="72"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>730</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>731</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>732</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>733</v>
+      </c>
+      <c r="F36" s="72"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>734</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>735</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>736</v>
+      </c>
+      <c r="E37" s="67" t="s">
+        <v>737</v>
+      </c>
+      <c r="F37" s="72"/>
+      <c r="G37" s="71" t="s">
+        <v>738</v>
+      </c>
+      <c r="H37" s="69"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>739</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>740</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>741</v>
+      </c>
+      <c r="E38" s="67" t="s">
+        <v>742</v>
+      </c>
+      <c r="F38" s="69" t="s">
+        <v>743</v>
+      </c>
+      <c r="G38" s="69" t="s">
+        <v>744</v>
+      </c>
+      <c r="H38" s="73"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>697</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>698</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>699</v>
-      </c>
-      <c r="E29" s="68" t="s">
-        <v>700</v>
-      </c>
-      <c r="F29" s="70" t="s">
-        <v>701</v>
-      </c>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73" t="s">
-        <v>702</v>
-      </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>703</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>704</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>705</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>706</v>
-      </c>
-      <c r="F30" s="70" t="s">
-        <v>707</v>
-      </c>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>708</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>709</v>
-      </c>
-      <c r="D31" s="68" t="s">
-        <v>710</v>
-      </c>
-      <c r="E31" s="68" t="s">
-        <v>711</v>
-      </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>712</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>713</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>714</v>
-      </c>
-      <c r="E32" s="68" t="s">
-        <v>715</v>
-      </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>716</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>717</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>718</v>
-      </c>
-      <c r="E33" s="68" t="s">
-        <v>719</v>
-      </c>
-      <c r="F33" s="70" t="s">
-        <v>720</v>
-      </c>
-      <c r="G33" s="73"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="68" t="s">
-        <v>721</v>
-      </c>
-      <c r="C34" s="68" t="s">
-        <v>722</v>
-      </c>
-      <c r="D34" s="68" t="s">
-        <v>723</v>
-      </c>
-      <c r="E34" s="68" t="s">
-        <v>724</v>
-      </c>
-      <c r="F34" s="68" t="s">
-        <v>725</v>
-      </c>
-      <c r="G34" s="73"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="68" t="s">
-        <v>726</v>
-      </c>
-      <c r="C35" s="68" t="s">
-        <v>727</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>728</v>
-      </c>
-      <c r="E35" s="68" t="s">
-        <v>729</v>
-      </c>
-      <c r="F35" s="68" t="s">
-        <v>730</v>
-      </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="68" t="s">
-        <v>731</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>732</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>733</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="68" t="s">
-        <v>735</v>
-      </c>
-      <c r="C37" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="D37" s="68" t="s">
-        <v>737</v>
-      </c>
-      <c r="E37" s="68" t="s">
-        <v>738</v>
-      </c>
-      <c r="F37" s="73"/>
-      <c r="G37" s="72" t="s">
-        <v>739</v>
-      </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>740</v>
-      </c>
-      <c r="C38" s="68" t="s">
-        <v>741</v>
-      </c>
-      <c r="D38" s="68" t="s">
-        <v>742</v>
-      </c>
-      <c r="E38" s="68" t="s">
-        <v>743</v>
-      </c>
-      <c r="F38" s="70" t="s">
-        <v>744</v>
-      </c>
-      <c r="G38" s="70" t="s">
+      <c r="B39" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="68" t="s">
+      <c r="C39" s="67" t="s">
+        <v>746</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>747</v>
+      </c>
+      <c r="E39" s="67" t="s">
+        <v>748</v>
+      </c>
+      <c r="F39" s="69" t="s">
+        <v>749</v>
+      </c>
+      <c r="G39" s="71"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="68" t="s">
-        <v>746</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>747</v>
-      </c>
-      <c r="D39" s="68" t="s">
-        <v>748</v>
-      </c>
-      <c r="E39" s="68" t="s">
-        <v>749</v>
-      </c>
-      <c r="F39" s="70" t="s">
+      <c r="B40" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="G39" s="72"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
+      <c r="C40" s="67" t="s">
+        <v>751</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>752</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>753</v>
+      </c>
+      <c r="F40" s="69" t="s">
+        <v>754</v>
+      </c>
+      <c r="G40" s="71"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>755</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>756</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E41" s="67" t="s">
+        <v>758</v>
+      </c>
+      <c r="F41" s="69" t="s">
+        <v>759</v>
+      </c>
+      <c r="G41" s="69" t="s">
+        <v>760</v>
+      </c>
+      <c r="H41" s="69" t="s">
+        <v>761</v>
+      </c>
+      <c r="I41" s="71"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="68" t="s">
-        <v>751</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>752</v>
-      </c>
-      <c r="D40" s="68" t="s">
-        <v>753</v>
-      </c>
-      <c r="E40" s="68" t="s">
-        <v>754</v>
-      </c>
-      <c r="F40" s="70" t="s">
-        <v>755</v>
-      </c>
-      <c r="G40" s="72"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="68" t="s">
-        <v>756</v>
-      </c>
-      <c r="C41" s="68" t="s">
-        <v>757</v>
-      </c>
-      <c r="D41" s="68" t="s">
-        <v>758</v>
-      </c>
-      <c r="E41" s="68" t="s">
-        <v>759</v>
-      </c>
-      <c r="F41" s="70" t="s">
-        <v>760</v>
-      </c>
-      <c r="G41" s="70" t="s">
-        <v>761</v>
-      </c>
-      <c r="H41" s="70" t="s">
+      <c r="B42" s="67" t="s">
         <v>762</v>
       </c>
-      <c r="I41" s="72"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
+      <c r="C42" s="67" t="s">
+        <v>763</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>764</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>765</v>
+      </c>
+      <c r="F42" s="71"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="68" t="s">
-        <v>763</v>
-      </c>
-      <c r="C42" s="68" t="s">
-        <v>764</v>
-      </c>
-      <c r="D42" s="68" t="s">
-        <v>765</v>
-      </c>
-      <c r="E42" s="68" t="s">
+      <c r="B43" s="67" t="s">
         <v>766</v>
       </c>
-      <c r="F42" s="72"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="68" t="s">
+      <c r="C43" s="67" t="s">
+        <v>767</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>768</v>
+      </c>
+      <c r="E43" s="67" t="s">
+        <v>769</v>
+      </c>
+      <c r="F43" s="71"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="68" t="s">
-        <v>767</v>
-      </c>
-      <c r="C43" s="68" t="s">
-        <v>768</v>
-      </c>
-      <c r="D43" s="68" t="s">
-        <v>769</v>
-      </c>
-      <c r="E43" s="68" t="s">
+      <c r="B44" s="67" t="s">
         <v>770</v>
       </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="68" t="s">
+      <c r="C44" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="D44" s="67" t="s">
+        <v>772</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>773</v>
+      </c>
+      <c r="F44" s="69" t="s">
+        <v>774</v>
+      </c>
+      <c r="G44" s="69" t="s">
+        <v>775</v>
+      </c>
+      <c r="H44" s="71"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="68" t="s">
-        <v>771</v>
-      </c>
-      <c r="C44" s="68" t="s">
-        <v>772</v>
-      </c>
-      <c r="D44" s="68" t="s">
-        <v>773</v>
-      </c>
-      <c r="E44" s="68" t="s">
-        <v>774</v>
-      </c>
-      <c r="F44" s="70" t="s">
-        <v>775</v>
-      </c>
-      <c r="G44" s="70" t="s">
+      <c r="B45" s="67" t="s">
         <v>776</v>
       </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="68" t="s">
+      <c r="C45" s="67" t="s">
+        <v>777</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>778</v>
+      </c>
+      <c r="E45" s="67" t="s">
+        <v>779</v>
+      </c>
+      <c r="F45" s="69" t="s">
+        <v>780</v>
+      </c>
+      <c r="G45" s="69" t="s">
+        <v>781</v>
+      </c>
+      <c r="H45" s="71"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+    </row>
+    <row r="46" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="E46" s="67" t="s">
+        <v>785</v>
+      </c>
+      <c r="F46" s="69" t="s">
+        <v>786</v>
+      </c>
+      <c r="G46" s="70" t="s">
+        <v>787</v>
+      </c>
+      <c r="H46" s="67" t="s">
+        <v>788</v>
+      </c>
+      <c r="I46" s="72" t="s">
+        <v>789</v>
+      </c>
+      <c r="J46" s="72" t="s">
+        <v>790</v>
+      </c>
+      <c r="K46" s="72" t="s">
+        <v>791</v>
+      </c>
+      <c r="L46" s="72" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="68" t="s">
-        <v>777</v>
-      </c>
-      <c r="C45" s="68" t="s">
-        <v>778</v>
-      </c>
-      <c r="D45" s="68" t="s">
-        <v>779</v>
-      </c>
-      <c r="E45" s="68" t="s">
-        <v>780</v>
-      </c>
-      <c r="F45" s="70" t="s">
-        <v>781</v>
-      </c>
-      <c r="G45" s="70" t="s">
-        <v>782</v>
-      </c>
-      <c r="H45" s="72"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-    </row>
-    <row r="46" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="68" t="s">
-        <v>783</v>
-      </c>
-      <c r="C46" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="D46" s="68" t="s">
-        <v>785</v>
-      </c>
-      <c r="E46" s="68" t="s">
-        <v>786</v>
-      </c>
-      <c r="F46" s="70" t="s">
-        <v>787</v>
-      </c>
-      <c r="G46" s="71" t="s">
-        <v>788</v>
-      </c>
-      <c r="H46" s="68" t="s">
-        <v>789</v>
-      </c>
-      <c r="I46" s="73" t="s">
-        <v>790</v>
-      </c>
-      <c r="J46" s="73" t="s">
-        <v>791</v>
-      </c>
-      <c r="K46" s="73" t="s">
-        <v>792</v>
-      </c>
-      <c r="L46" s="73" t="s">
+      <c r="B47" s="67" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="68" t="s">
+      <c r="C47" s="67" t="s">
         <v>794</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="D47" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="E47" s="67" t="s">
         <v>796</v>
       </c>
-      <c r="E47" s="68" t="s">
+      <c r="F47" s="69" t="s">
         <v>797</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="G47" s="69" t="s">
         <v>798</v>
       </c>
-      <c r="G47" s="70" t="s">
+      <c r="H47" s="71"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="67" t="s">
         <v>799</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="68" t="s">
+      <c r="C48" s="67" t="s">
         <v>800</v>
       </c>
-      <c r="C48" s="68" t="s">
+      <c r="D48" s="67" t="s">
         <v>801</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="E48" s="67" t="s">
         <v>802</v>
       </c>
-      <c r="E48" s="68" t="s">
+      <c r="F48" s="67" t="s">
         <v>803</v>
       </c>
-      <c r="F48" s="68" t="s">
+      <c r="G48" s="67" t="s">
         <v>804</v>
       </c>
-      <c r="G48" s="68" t="s">
+      <c r="H48" s="72"/>
+      <c r="I48" s="72" t="s">
         <v>805</v>
       </c>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73" t="s">
-        <v>806</v>
-      </c>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="69"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="68"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>806</v>
+      </c>
+      <c r="B49" s="67" t="s">
         <v>807</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="C49" s="68"/>
+      <c r="D49" s="67" t="s">
         <v>808</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="68" t="s">
+      <c r="E49" s="67" t="s">
         <v>809</v>
       </c>
-      <c r="E49" s="68" t="s">
+      <c r="F49" s="67" t="s">
         <v>810</v>
       </c>
-      <c r="F49" s="68" t="s">
+      <c r="G49" s="69"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="67" t="s">
         <v>811</v>
       </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="68" t="s">
+      <c r="C50" s="67" t="s">
         <v>812</v>
       </c>
-      <c r="C50" s="68" t="s">
+      <c r="D50" s="67" t="s">
         <v>813</v>
       </c>
-      <c r="D50" s="68" t="s">
+      <c r="E50" s="67" t="s">
         <v>814</v>
       </c>
-      <c r="E50" s="68" t="s">
+      <c r="F50" s="69"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+    </row>
+    <row r="51" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A51" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="67" t="s">
         <v>815</v>
       </c>
-      <c r="F50" s="70"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
-    </row>
-    <row r="51" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A51" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51" s="68" t="s">
+      <c r="C51" s="67" t="s">
         <v>816</v>
       </c>
-      <c r="C51" s="68" t="s">
+      <c r="D51" s="67" t="s">
         <v>817</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="E51" s="67" t="s">
         <v>818</v>
       </c>
-      <c r="E51" s="68" t="s">
+      <c r="F51" s="70" t="s">
         <v>819</v>
       </c>
-      <c r="F51" s="71" t="s">
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="67" t="s">
         <v>820</v>
       </c>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="B52" s="68" t="s">
+      <c r="C52" s="67" t="s">
         <v>821</v>
       </c>
-      <c r="C52" s="68" t="s">
+      <c r="D52" s="67" t="s">
         <v>822</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="E52" s="67" t="s">
         <v>823</v>
       </c>
-      <c r="E52" s="68" t="s">
+      <c r="F52" s="67" t="s">
         <v>824</v>
       </c>
-      <c r="F52" s="68" t="s">
+      <c r="G52" s="67" t="s">
         <v>825</v>
       </c>
-      <c r="G52" s="68" t="s">
+      <c r="H52" s="67" t="s">
         <v>826</v>
       </c>
-      <c r="H52" s="68" t="s">
+      <c r="I52" s="67" t="s">
         <v>827</v>
       </c>
-      <c r="I52" s="68" t="s">
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" s="67" t="s">
         <v>828</v>
       </c>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="B53" s="68" t="s">
+      <c r="C53" s="67" t="s">
         <v>829</v>
       </c>
-      <c r="C53" s="68" t="s">
+      <c r="D53" s="67" t="s">
         <v>830</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="E53" s="67" t="s">
         <v>831</v>
       </c>
-      <c r="E53" s="68" t="s">
+      <c r="F53" s="67" t="s">
         <v>832</v>
       </c>
-      <c r="F53" s="68" t="s">
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="67" t="s">
         <v>833</v>
       </c>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="68" t="s">
+      <c r="C54" s="67" t="s">
         <v>834</v>
       </c>
-      <c r="C54" s="68" t="s">
+      <c r="D54" s="67" t="s">
         <v>835</v>
       </c>
-      <c r="D54" s="68" t="s">
+      <c r="E54" s="67" t="s">
         <v>836</v>
       </c>
-      <c r="E54" s="68" t="s">
+      <c r="F54" s="67" t="s">
         <v>837</v>
       </c>
-      <c r="F54" s="68" t="s">
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="67" t="s">
         <v>838</v>
       </c>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="68" t="s">
+      <c r="C55" s="67" t="s">
+        <v>839</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>840</v>
+      </c>
+      <c r="E55" s="67" t="s">
+        <v>841</v>
+      </c>
+      <c r="F55" s="67" t="s">
+        <v>842</v>
+      </c>
+      <c r="G55" s="67" t="s">
+        <v>843</v>
+      </c>
+      <c r="H55" s="67" t="s">
+        <v>844</v>
+      </c>
+      <c r="I55" s="67" t="s">
+        <v>845</v>
+      </c>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>846</v>
+      </c>
+      <c r="C56" s="69" t="s">
+        <v>847</v>
+      </c>
+      <c r="D56" s="69" t="s">
+        <v>848</v>
+      </c>
+      <c r="E56" s="69" t="s">
+        <v>849</v>
+      </c>
+      <c r="F56" s="69" t="s">
+        <v>850</v>
+      </c>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="69" t="s">
+        <v>851</v>
+      </c>
+      <c r="C57" s="69" t="s">
+        <v>852</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>853</v>
+      </c>
+      <c r="E57" s="69" t="s">
+        <v>854</v>
+      </c>
+      <c r="F57" s="69" t="s">
+        <v>855</v>
+      </c>
+      <c r="G57" s="72" t="s">
+        <v>856</v>
+      </c>
+      <c r="H57" s="72" t="s">
+        <v>857</v>
+      </c>
+      <c r="I57" s="72" t="s">
+        <v>858</v>
+      </c>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="68" t="s">
-        <v>839</v>
-      </c>
-      <c r="C55" s="68" t="s">
-        <v>840</v>
-      </c>
-      <c r="D55" s="68" t="s">
-        <v>841</v>
-      </c>
-      <c r="E55" s="68" t="s">
-        <v>842</v>
-      </c>
-      <c r="F55" s="68" t="s">
-        <v>843</v>
-      </c>
-      <c r="G55" s="68" t="s">
-        <v>844</v>
-      </c>
-      <c r="H55" s="68" t="s">
-        <v>845</v>
-      </c>
-      <c r="I55" s="68" t="s">
-        <v>846</v>
-      </c>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="B56" s="70" t="s">
-        <v>847</v>
-      </c>
-      <c r="C56" s="70" t="s">
-        <v>848</v>
-      </c>
-      <c r="D56" s="70" t="s">
-        <v>849</v>
-      </c>
-      <c r="E56" s="70" t="s">
-        <v>850</v>
-      </c>
-      <c r="F56" s="70" t="s">
-        <v>851</v>
-      </c>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="B57" s="70" t="s">
-        <v>852</v>
-      </c>
-      <c r="C57" s="70" t="s">
-        <v>853</v>
-      </c>
-      <c r="D57" s="70" t="s">
-        <v>854</v>
-      </c>
-      <c r="E57" s="70" t="s">
-        <v>855</v>
-      </c>
-      <c r="F57" s="70" t="s">
-        <v>856</v>
-      </c>
-      <c r="G57" s="73" t="s">
-        <v>857</v>
-      </c>
-      <c r="H57" s="73" t="s">
-        <v>858</v>
-      </c>
-      <c r="I57" s="73" t="s">
+      <c r="B58" s="67" t="s">
         <v>859</v>
       </c>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="68" t="s">
-        <v>860</v>
-      </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/KBQA/QTemplates-sparqlQ.xlsx
+++ b/KBQA/QTemplates-sparqlQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhejianglab.com\入职后\work\workspace\RoboCloudBrain\KBQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938C3D3B-B657-46A4-908A-CEF822123FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33948A10-AB42-45E9-AC36-6F731463764F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-14570" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="897">
   <si>
     <t>项目参与者年龄是多少</t>
   </si>
@@ -123,20 +123,6 @@
   </si>
   <si>
     <t>女性成员</t>
-  </si>
-  <si>
-    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
-PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
-PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
-SELECT ?personname WHERE {
-    ?project foaf:name "_project" ;
-              a foaf:Project;
-             org:hasMember ?person.
-    ?person foaf:name ?personname;
-            poap:hasGender ?gender.
-    BIND(strafter(str(?gender),"#") AS ?gendername) .
-    FILTER(?gendername="女") .
-}</t>
   </si>
   <si>
     <t>项目参与者的地址都在哪里</t>
@@ -293,20 +279,6 @@
   </si>
   <si>
     <t>男性成员</t>
-  </si>
-  <si>
-    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
-PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
-PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
-SELECT ?personname WHERE {
-    ?project foaf:name "_project" ;
-              a foaf:Project;
-             org:hasMember ?person.
-    ?person foaf:name ?personname;
-            poap:hasGender ?gender.
-    BIND(strafter(str(?gender),"#") as ?gendername) .
-    FILTER(?gendername="男") .
-}</t>
   </si>
   <si>
     <t>项目参与的硕士研究生有哪些人</t>
@@ -1002,24 +974,6 @@
     <t>projectname&amp;journalname-articlenames</t>
   </si>
   <si>
-    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
-PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
-PREFIX bob: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/bob#&gt;
-SELECT DISTINCT ?articlename WHERE {
-?project foaf:name "_project" ; 
-a foaf:Project ;
-poap:hasResult ?result .
-?result foaf:name ?articlename ;
-a bob:Article ;
-bob:publishedIn ?journal .
-BIND("_journal" as ?journalname) .
-BIND(UCASE(SUBSTR(?journalname, 1, 1)) as ?firstl) . 
-BIND(LCASE(SUBSTR(?journalname, 2)) as ?rest) .
-BIND(concat(?firstl, ?rest) as ?fjn) .
-?journal foaf:name ?fjn .
-}</t>
-  </si>
-  <si>
     <t>project, journal</t>
   </si>
   <si>
@@ -3286,14 +3240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>personname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>person</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3354,10 +3300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>journalname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3391,6 +3333,159 @@
   </si>
   <si>
     <t>哪个项目发表论文在某期刊了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
+PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
+SELECT ?personname WHERE {
+    ?project foaf:name "_project" ;
+              a foaf:Project;
+             org:hasMember ?person.
+    ?person foaf:name ?personname;
+            poap:hasGender ?gender.
+    BIND(strafter(str(?gender),"#") as ?gendername) .
+    FILTER(?gendername="male") .
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
+PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
+SELECT ?personname WHERE {
+    ?project foaf:name "_project" ;
+              a foaf:Project;
+             org:hasMember ?person.
+    ?person foaf:name ?personname;
+            poap:hasGender ?gender.
+    BIND(strafter(str(?gender),"#") AS ?gendername) .
+    FILTER(?gendername="female") .
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personname-projectname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalname-projectname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalname-robotname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
+PREFIX bob: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/bob#&gt;
+SELECT DISTINCT ?articlename WHERE {
+?project foaf:name "_project" ; 
+a foaf:Project ;
+poap:hasResult ?result .
+?result foaf:name ?articlename ;
+a bob:Article ;
+bob:publishedIn ?journal .
+BIND("_journal" as ?journalname) .
+BIND(UCASE(SUBSTR(?journalname, 1, 1)) as ?firstl) . 
+BIND(LCASE(SUBSTR(?journalname, 2)) as ?rest) .
+BIND(concat(?firstl, ?rest) as ?fjn) .
+?journal foaf:name ?fjn .
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFIX foaf:&lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
+PREFIX bob: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/bob#&gt;
+SELECT DISTINCT ?madethingname WHERE {
+    ?project a foaf:Project ; 
+             foaf:made ?madething ;
+             poap:hasResult ?result .
+    ?result foaf:name ?article ;
+            a bob:Article ;
+            bob:publishedIn ?journal .
+    ?journal foaf:name "_journal" .
+    ?madething foaf:name ?madethingname .
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rolename-robotname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表在某期刊的是什么机器人</t>
+  </si>
+  <si>
+    <t>发表在某期刊的是什么机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某人负责什么机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX bob: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/bob#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX org: &lt;http://www.w3.org/ns/org#&gt;
+SELECT DISTINCT ?projectmadethingname WHERE { 
+	?person a foaf:Person;
+        bob:hasRole ?role ;
+        foaf:name "_person".
+   ?role a org:Role ;
+           foaf:name "项目负责人" .
+   ?project a foaf:Project;
+            bob:orgRole ?role ;
+            foaf:made ?projectmadething .
+    ?projectmadething foaf:name ?projectmadethingname .
+} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有某媒体社会效益的是什么机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生某事件的是什么机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么机器人发表在某期刊了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某期刊发表的是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么机器人由某人负责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某人是哪些机器人的负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪些机器人的负责人是某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人是某人的是什么机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某期刊发表的是什么机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪个机器人发表在某期刊了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3398,7 +3493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3451,27 +3546,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B14D"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3919,7 +3993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4106,19 +4180,22 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4130,19 +4207,7 @@
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4493,10 +4558,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A60" activeCellId="1" sqref="A59 A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4590,8 +4655,8 @@
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>20</v>
+      <c r="D5" s="63" t="s">
+        <v>875</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -4600,16 +4665,16 @@
     </row>
     <row r="6" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -4618,16 +4683,16 @@
     </row>
     <row r="7" spans="1:6" ht="182.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
@@ -4636,16 +4701,16 @@
     </row>
     <row r="8" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>4</v>
@@ -4654,36 +4719,36 @@
     </row>
     <row r="9" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>4</v>
@@ -4692,16 +4757,16 @@
     </row>
     <row r="11" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>534</v>
+      <c r="D11" s="63" t="s">
+        <v>531</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>4</v>
@@ -4710,16 +4775,16 @@
     </row>
     <row r="12" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>4</v>
@@ -4728,16 +4793,16 @@
     </row>
     <row r="13" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>52</v>
+      <c r="D13" s="63" t="s">
+        <v>874</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>4</v>
@@ -4746,16 +4811,16 @@
     </row>
     <row r="14" spans="1:6" ht="266.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="D14" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>4</v>
@@ -4764,16 +4829,16 @@
     </row>
     <row r="15" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>4</v>
@@ -4782,36 +4847,36 @@
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="D16" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>64</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>4</v>
@@ -4820,16 +4885,16 @@
     </row>
     <row r="18" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="D18" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>71</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>4</v>
@@ -4838,16 +4903,16 @@
     </row>
     <row r="19" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>75</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>4</v>
@@ -4856,16 +4921,16 @@
     </row>
     <row r="20" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>4</v>
@@ -4874,16 +4939,16 @@
     </row>
     <row r="21" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>80</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>82</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>4</v>
@@ -4892,16 +4957,16 @@
     </row>
     <row r="22" spans="1:6" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="D22" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>86</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>4</v>
@@ -4910,16 +4975,16 @@
     </row>
     <row r="23" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="29" t="s">
         <v>88</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>90</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>4</v>
@@ -4928,16 +4993,16 @@
     </row>
     <row r="24" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="D24" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>94</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>4</v>
@@ -4946,16 +5011,16 @@
     </row>
     <row r="25" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>98</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>4</v>
@@ -4964,16 +5029,16 @@
     </row>
     <row r="26" spans="1:6" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="D26" s="32" t="s">
         <v>100</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>102</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>4</v>
@@ -4982,16 +5047,16 @@
     </row>
     <row r="27" spans="1:6" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>106</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>4</v>
@@ -5000,16 +5065,16 @@
     </row>
     <row r="28" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="D28" s="34" t="s">
         <v>108</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>4</v>
@@ -5018,178 +5083,178 @@
     </row>
     <row r="29" spans="1:6" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="D30" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>123</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>126</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>129</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="D34" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>133</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>136</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="44" t="s">
         <v>145</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>147</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>4</v>
@@ -5198,16 +5263,16 @@
     </row>
     <row r="39" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>148</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>150</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>4</v>
@@ -5216,34 +5281,34 @@
     </row>
     <row r="40" spans="1:6" ht="294" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="47" t="s">
         <v>155</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>4</v>
@@ -5252,16 +5317,16 @@
     </row>
     <row r="42" spans="1:6" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" s="66" t="s">
-        <v>864</v>
+      <c r="D42" s="63" t="s">
+        <v>859</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>4</v>
@@ -5270,74 +5335,74 @@
     </row>
     <row r="43" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="D43" s="48" t="s">
         <v>162</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>164</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="D44" s="49" t="s">
         <v>167</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>169</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="308.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>529</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>879</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>532</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="350.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>176</v>
+        <v>72</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>173</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>4</v>
@@ -5346,122 +5411,122 @@
     </row>
     <row r="47" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="308.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="66" t="s">
-        <v>535</v>
+        <v>43</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>532</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="56" t="s">
-        <v>192</v>
-      </c>
       <c r="E50" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="6" customFormat="1" ht="405.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>196</v>
-      </c>
       <c r="E51" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>199</v>
+        <v>192</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>196</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="6" customFormat="1" ht="350.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D53" s="66" t="s">
-        <v>533</v>
+        <v>188</v>
+      </c>
+      <c r="D53" s="63" t="s">
+        <v>530</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>4</v>
@@ -5469,90 +5534,134 @@
     </row>
     <row r="54" spans="1:6" s="6" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D54" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="6" customFormat="1" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="60" t="s">
-        <v>209</v>
+        <v>61</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>206</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="58" t="s">
         <v>210</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>213</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="D57" s="63" t="s">
         <v>860</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="D57" s="66" t="s">
-        <v>865</v>
-      </c>
       <c r="E57" s="6" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="D58" s="66" t="s">
-        <v>868</v>
+        <v>865</v>
+      </c>
+      <c r="D58" s="63" t="s">
+        <v>863</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>869</v>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="D59" s="63" t="s">
+        <v>880</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="D60" s="63" t="s">
+        <v>886</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -5567,10 +5676,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5594,19 +5703,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="59" t="s">
         <v>216</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>219</v>
       </c>
       <c r="H1" s="6"/>
     </row>
@@ -5615,25 +5724,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5641,19 +5750,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -5663,22 +5772,22 @@
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -5687,38 +5796,38 @@
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -5726,306 +5835,306 @@
     </row>
     <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="K10" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="K11" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="G12" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="H12" s="6"/>
       <c r="K12" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="G15" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="G16" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="G17" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -6033,291 +6142,291 @@
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="G20" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="F21" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="G22" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="H22" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="H23" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="I23" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="G24" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="I24" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="G25" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="I25" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="F26" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="G26" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>364</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="G27" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="I27" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="G28" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="I28" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="G29" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -6325,19 +6434,19 @@
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>394</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -6345,41 +6454,41 @@
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="F32" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>399</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="E33" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>404</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -6387,19 +6496,19 @@
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="E34" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -6407,19 +6516,19 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>413</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -6427,514 +6536,548 @@
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="F36" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>418</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="F37" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="F38" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>428</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="F39" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>433</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="F40" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="G40" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="H40" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>441</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>444</v>
       </c>
       <c r="F41" s="4"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>445</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>448</v>
       </c>
       <c r="F42" s="4"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="F43" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="G43" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>454</v>
       </c>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="F44" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="G44" s="9" t="s">
         <v>457</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>460</v>
       </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="F45" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="H45" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="F45" s="63" t="s">
+      <c r="I45" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="K45" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="L45" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="J45" s="7" t="s">
+      <c r="M45" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="F46" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="G46" s="9" t="s">
         <v>474</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>477</v>
       </c>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="F47" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="G47" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="H47" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="E48" s="4"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>506</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="F56" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="G56" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="H56" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="57" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="74" t="s">
-        <v>860</v>
-      </c>
-      <c r="B57" s="74" t="s">
+      <c r="A57" s="71" t="s">
+        <v>857</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>866</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>867</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>868</v>
+      </c>
+      <c r="E57" s="71" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="71" t="s">
+        <v>861</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>870</v>
+      </c>
+      <c r="C58" s="71" t="s">
+        <v>871</v>
+      </c>
+      <c r="D58" s="71" t="s">
         <v>872</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="E58" s="71" t="s">
         <v>873</v>
       </c>
-      <c r="D57" s="74" t="s">
-        <v>874</v>
-      </c>
-      <c r="E57" s="74" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="74" t="s">
-        <v>866</v>
-      </c>
-      <c r="B58" s="74" t="s">
-        <v>876</v>
-      </c>
-      <c r="C58" s="74" t="s">
-        <v>877</v>
-      </c>
-      <c r="D58" s="74" t="s">
-        <v>878</v>
-      </c>
-      <c r="E58" s="74" t="s">
-        <v>879</v>
+    </row>
+    <row r="59" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -6959,10 +7102,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6970,13 +7113,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6998,406 +7141,406 @@
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -7419,1576 +7562,1576 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+    </row>
+    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-    </row>
-    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="E2" s="64" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>538</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>539</v>
+      </c>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>537</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>538</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>539</v>
-      </c>
-      <c r="E2" s="67" t="s">
+      <c r="B3" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="C3" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="D3" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="E3" s="64" t="s">
+        <v>543</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>544</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>545</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>546</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>547</v>
+      </c>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>543</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>544</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>545</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>546</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>547</v>
-      </c>
-      <c r="G3" s="69" t="s">
+      <c r="B4" s="64" t="s">
         <v>548</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="C4" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="D4" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="E4" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>552</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>553</v>
+      </c>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>551</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>552</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>553</v>
-      </c>
-      <c r="E4" s="67" t="s">
+      <c r="B5" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="C5" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="D5" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="E5" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>558</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>559</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>560</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+    </row>
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>557</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>558</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>559</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>560</v>
-      </c>
-      <c r="F5" s="69" t="s">
+      <c r="B6" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="C6" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="D6" s="64" t="s">
         <v>563</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-    </row>
-    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="E6" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>565</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>564</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>565</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>566</v>
-      </c>
-      <c r="E6" s="67" t="s">
+      <c r="B7" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="C7" s="64" t="s">
         <v>568</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="D7" s="64" t="s">
         <v>569</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="E7" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+    </row>
+    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>570</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>571</v>
-      </c>
-      <c r="D7" s="67" t="s">
+      <c r="B8" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="C8" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="D8" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="E8" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>576</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>577</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+    </row>
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>575</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>576</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>577</v>
-      </c>
-      <c r="E8" s="67" t="s">
+      <c r="B9" s="64" t="s">
         <v>578</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="C9" s="64" t="s">
         <v>579</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="D9" s="64" t="s">
         <v>580</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-    </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="E9" s="64" t="s">
+        <v>581</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>582</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>583</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>581</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>582</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>583</v>
-      </c>
-      <c r="E9" s="67" t="s">
+      <c r="B10" s="64" t="s">
         <v>584</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="C10" s="64" t="s">
         <v>585</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="D10" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="E10" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>588</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>590</v>
+      </c>
+      <c r="I10" s="66"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+    </row>
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>587</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>588</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>589</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>590</v>
-      </c>
-      <c r="F10" s="69" t="s">
+      <c r="B11" s="64" t="s">
         <v>591</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="C11" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="D11" s="64" t="s">
         <v>593</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-    </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="E11" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="G11" s="68"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="69"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>595</v>
-      </c>
-      <c r="D11" s="67" t="s">
+      <c r="B12" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="C12" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="D12" s="64" t="s">
         <v>598</v>
       </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="72"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="E12" s="64" t="s">
+        <v>599</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>600</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>601</v>
+      </c>
+      <c r="H12" s="68"/>
+      <c r="I12" s="66" t="s">
+        <v>602</v>
+      </c>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="69"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>599</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>600</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>601</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="F12" s="69" t="s">
+      <c r="B13" s="64" t="s">
         <v>603</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="C13" s="64" t="s">
         <v>604</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="69" t="s">
+      <c r="D13" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="72"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+      <c r="E13" s="64" t="s">
+        <v>606</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>607</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>608</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="69"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="67" t="s">
-        <v>606</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>607</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>608</v>
-      </c>
-      <c r="E13" s="67" t="s">
+      <c r="B14" s="64" t="s">
         <v>609</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="C14" s="64" t="s">
         <v>610</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="D14" s="64" t="s">
         <v>611</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="72"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+      <c r="E14" s="64" t="s">
+        <v>612</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>613</v>
+      </c>
+      <c r="G14" s="69"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="67" t="s">
-        <v>612</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>613</v>
-      </c>
-      <c r="D14" s="67" t="s">
+      <c r="B15" s="64" t="s">
         <v>614</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="C15" s="64" t="s">
         <v>615</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="D15" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="E15" s="64" t="s">
+        <v>617</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>618</v>
+      </c>
+      <c r="G15" s="69"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="67" t="s">
-        <v>617</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>618</v>
-      </c>
-      <c r="D15" s="67" t="s">
+      <c r="B16" s="64" t="s">
         <v>619</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="C16" s="64" t="s">
         <v>620</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="D16" s="64" t="s">
         <v>621</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="E16" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>623</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>624</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="67" t="s">
-        <v>622</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>623</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>624</v>
-      </c>
-      <c r="E16" s="67" t="s">
+      <c r="B17" s="64" t="s">
         <v>625</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="C17" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="G16" s="69" t="s">
+      <c r="D17" s="64" t="s">
         <v>627</v>
       </c>
-      <c r="H16" s="72"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="E17" s="64" t="s">
+        <v>628</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>629</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>630</v>
+      </c>
+      <c r="H17" s="69"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="67" t="s">
-        <v>628</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>629</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="E17" s="67" t="s">
+      <c r="B18" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="C18" s="64" t="s">
         <v>632</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="D18" s="64" t="s">
         <v>633</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="E18" s="64" t="s">
+        <v>634</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>636</v>
+      </c>
+      <c r="H18" s="69"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>635</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>636</v>
-      </c>
-      <c r="E18" s="67" t="s">
+      <c r="B19" s="64" t="s">
         <v>637</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="C19" s="64" t="s">
         <v>638</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="D19" s="64" t="s">
         <v>639</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="E19" s="64" t="s">
+        <v>640</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>641</v>
+      </c>
+      <c r="G19" s="69"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="67" t="s">
-        <v>640</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>641</v>
-      </c>
-      <c r="D19" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>642</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="C20" s="64" t="s">
         <v>643</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="D20" s="64" t="s">
         <v>644</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="E20" s="64" t="s">
+        <v>645</v>
+      </c>
+      <c r="F20" s="69"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="67" t="s">
-        <v>645</v>
-      </c>
-      <c r="C20" s="67" t="s">
+      <c r="B21" s="64" t="s">
         <v>646</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="C21" s="64" t="s">
         <v>647</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="D21" s="64" t="s">
         <v>648</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="E21" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>650</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>651</v>
+      </c>
+      <c r="H21" s="69" t="s">
+        <v>652</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="67" t="s">
-        <v>649</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>650</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>651</v>
-      </c>
-      <c r="E21" s="67" t="s">
-        <v>652</v>
-      </c>
-      <c r="F21" s="69" t="s">
+      <c r="B22" s="64" t="s">
         <v>653</v>
       </c>
-      <c r="G21" s="69" t="s">
+      <c r="C22" s="64" t="s">
         <v>654</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="D22" s="64" t="s">
         <v>655</v>
       </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="E22" s="64" t="s">
+        <v>656</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>657</v>
+      </c>
+      <c r="G22" s="69"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="67" t="s">
-        <v>656</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>657</v>
-      </c>
-      <c r="D22" s="67" t="s">
+      <c r="B23" s="64" t="s">
         <v>658</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="C23" s="64" t="s">
         <v>659</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="D23" s="64" t="s">
         <v>660</v>
       </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="E23" s="64" t="s">
+        <v>661</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>662</v>
+      </c>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69" t="s">
+        <v>663</v>
+      </c>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+    </row>
+    <row r="24" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="67" t="s">
-        <v>661</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>662</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>663</v>
-      </c>
-      <c r="E23" s="67" t="s">
+      <c r="B24" s="64" t="s">
         <v>664</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="C24" s="64" t="s">
         <v>665</v>
       </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72" t="s">
+      <c r="D24" s="64" t="s">
         <v>666</v>
       </c>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-    </row>
-    <row r="24" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="E24" s="64" t="s">
+        <v>667</v>
+      </c>
+      <c r="F24" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>669</v>
+      </c>
+      <c r="H24" s="69" t="s">
+        <v>670</v>
+      </c>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+    </row>
+    <row r="25" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="67" t="s">
-        <v>667</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>668</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>669</v>
-      </c>
-      <c r="E24" s="67" t="s">
-        <v>670</v>
-      </c>
-      <c r="F24" s="70" t="s">
+      <c r="B25" s="64" t="s">
         <v>671</v>
       </c>
-      <c r="G24" s="69" t="s">
+      <c r="C25" s="64" t="s">
         <v>672</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="D25" s="64" t="s">
         <v>673</v>
       </c>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-    </row>
-    <row r="25" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+      <c r="E25" s="64" t="s">
+        <v>674</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69" t="s">
+        <v>676</v>
+      </c>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="67" t="s">
-        <v>674</v>
-      </c>
-      <c r="C25" s="67" t="s">
-        <v>675</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>676</v>
-      </c>
-      <c r="E25" s="67" t="s">
+      <c r="B26" s="64" t="s">
         <v>677</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="C26" s="64" t="s">
         <v>678</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72" t="s">
+      <c r="D26" s="64" t="s">
         <v>679</v>
       </c>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+      <c r="E26" s="64" t="s">
+        <v>680</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>681</v>
+      </c>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69" t="s">
+        <v>682</v>
+      </c>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="67" t="s">
-        <v>680</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>681</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>682</v>
-      </c>
-      <c r="E26" s="67" t="s">
+      <c r="B27" s="64" t="s">
         <v>683</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="C27" s="64" t="s">
         <v>684</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72" t="s">
+      <c r="D27" s="64" t="s">
         <v>685</v>
       </c>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+      <c r="E27" s="64" t="s">
+        <v>686</v>
+      </c>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="67" t="s">
-        <v>686</v>
-      </c>
-      <c r="C27" s="67" t="s">
+      <c r="B28" s="64" t="s">
         <v>687</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="C28" s="64" t="s">
         <v>688</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="D28" s="64" t="s">
         <v>689</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="E28" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>691</v>
+      </c>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69" t="s">
+        <v>692</v>
+      </c>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="C28" s="67" t="s">
-        <v>691</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>692</v>
-      </c>
-      <c r="E28" s="67" t="s">
+      <c r="B29" s="64" t="s">
         <v>693</v>
       </c>
-      <c r="F28" s="69" t="s">
+      <c r="C29" s="64" t="s">
         <v>694</v>
       </c>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72" t="s">
+      <c r="D29" s="64" t="s">
         <v>695</v>
       </c>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+      <c r="E29" s="64" t="s">
+        <v>696</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>697</v>
+      </c>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69" t="s">
+        <v>698</v>
+      </c>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>699</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>700</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>701</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>702</v>
+      </c>
+      <c r="F30" s="66" t="s">
+        <v>703</v>
+      </c>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>704</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>705</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>706</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>707</v>
+      </c>
+      <c r="F31" s="69"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>708</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>709</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>710</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>711</v>
+      </c>
+      <c r="F32" s="69"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>713</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>714</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>715</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>716</v>
+      </c>
+      <c r="G33" s="69"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>718</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>719</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>720</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>721</v>
+      </c>
+      <c r="G34" s="69"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>722</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>723</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>724</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>725</v>
+      </c>
+      <c r="F35" s="64" t="s">
+        <v>726</v>
+      </c>
+      <c r="G35" s="69"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>727</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>728</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>729</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>730</v>
+      </c>
+      <c r="F36" s="69"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>731</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>732</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>733</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>734</v>
+      </c>
+      <c r="F37" s="69"/>
+      <c r="G37" s="68" t="s">
+        <v>735</v>
+      </c>
+      <c r="H37" s="66"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>736</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>737</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>738</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>740</v>
+      </c>
+      <c r="G38" s="66" t="s">
+        <v>741</v>
+      </c>
+      <c r="H38" s="70"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="67" t="s">
-        <v>696</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>697</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>698</v>
-      </c>
-      <c r="E29" s="67" t="s">
-        <v>699</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>700</v>
-      </c>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72" t="s">
-        <v>701</v>
-      </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="67" t="s">
-        <v>702</v>
-      </c>
-      <c r="C30" s="67" t="s">
-        <v>703</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>704</v>
-      </c>
-      <c r="E30" s="67" t="s">
-        <v>705</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>706</v>
-      </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>707</v>
-      </c>
-      <c r="C31" s="67" t="s">
-        <v>708</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>709</v>
-      </c>
-      <c r="E31" s="67" t="s">
-        <v>710</v>
-      </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="67" t="s">
-        <v>711</v>
-      </c>
-      <c r="C32" s="67" t="s">
-        <v>712</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>713</v>
-      </c>
-      <c r="E32" s="67" t="s">
-        <v>714</v>
-      </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="C33" s="67" t="s">
-        <v>716</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>717</v>
-      </c>
-      <c r="E33" s="67" t="s">
-        <v>718</v>
-      </c>
-      <c r="F33" s="69" t="s">
-        <v>719</v>
-      </c>
-      <c r="G33" s="72"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>720</v>
-      </c>
-      <c r="C34" s="67" t="s">
-        <v>721</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>722</v>
-      </c>
-      <c r="E34" s="67" t="s">
-        <v>723</v>
-      </c>
-      <c r="F34" s="67" t="s">
-        <v>724</v>
-      </c>
-      <c r="G34" s="72"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>725</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>726</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>727</v>
-      </c>
-      <c r="E35" s="67" t="s">
-        <v>728</v>
-      </c>
-      <c r="F35" s="67" t="s">
-        <v>729</v>
-      </c>
-      <c r="G35" s="72"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>730</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>731</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>732</v>
-      </c>
-      <c r="E36" s="67" t="s">
-        <v>733</v>
-      </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>734</v>
-      </c>
-      <c r="C37" s="67" t="s">
-        <v>735</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>736</v>
-      </c>
-      <c r="E37" s="67" t="s">
-        <v>737</v>
-      </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="71" t="s">
-        <v>738</v>
-      </c>
-      <c r="H37" s="69"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>739</v>
-      </c>
-      <c r="C38" s="67" t="s">
-        <v>740</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>741</v>
-      </c>
-      <c r="E38" s="67" t="s">
+      <c r="B39" s="64" t="s">
         <v>742</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="C39" s="64" t="s">
         <v>743</v>
       </c>
-      <c r="G38" s="69" t="s">
+      <c r="D39" s="64" t="s">
         <v>744</v>
       </c>
-      <c r="H38" s="73"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+      <c r="E39" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>746</v>
+      </c>
+      <c r="G39" s="68"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="67" t="s">
-        <v>745</v>
-      </c>
-      <c r="C39" s="67" t="s">
-        <v>746</v>
-      </c>
-      <c r="D39" s="67" t="s">
+      <c r="B40" s="64" t="s">
         <v>747</v>
       </c>
-      <c r="E39" s="67" t="s">
+      <c r="C40" s="64" t="s">
         <v>748</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="D40" s="64" t="s">
         <v>749</v>
       </c>
-      <c r="G39" s="71"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+      <c r="E40" s="64" t="s">
+        <v>750</v>
+      </c>
+      <c r="F40" s="66" t="s">
+        <v>751</v>
+      </c>
+      <c r="G40" s="68"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>752</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>753</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>754</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>755</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>756</v>
+      </c>
+      <c r="G41" s="66" t="s">
+        <v>757</v>
+      </c>
+      <c r="H41" s="66" t="s">
+        <v>758</v>
+      </c>
+      <c r="I41" s="68"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="67" t="s">
-        <v>750</v>
-      </c>
-      <c r="C40" s="67" t="s">
-        <v>751</v>
-      </c>
-      <c r="D40" s="67" t="s">
-        <v>752</v>
-      </c>
-      <c r="E40" s="67" t="s">
-        <v>753</v>
-      </c>
-      <c r="F40" s="69" t="s">
-        <v>754</v>
-      </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="67" t="s">
-        <v>755</v>
-      </c>
-      <c r="C41" s="67" t="s">
-        <v>756</v>
-      </c>
-      <c r="D41" s="67" t="s">
-        <v>757</v>
-      </c>
-      <c r="E41" s="67" t="s">
-        <v>758</v>
-      </c>
-      <c r="F41" s="69" t="s">
+      <c r="B42" s="64" t="s">
         <v>759</v>
       </c>
-      <c r="G41" s="69" t="s">
+      <c r="C42" s="64" t="s">
         <v>760</v>
       </c>
-      <c r="H41" s="69" t="s">
+      <c r="D42" s="64" t="s">
         <v>761</v>
       </c>
-      <c r="I41" s="71"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="E42" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="F42" s="68"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="67" t="s">
-        <v>762</v>
-      </c>
-      <c r="C42" s="67" t="s">
+      <c r="B43" s="64" t="s">
         <v>763</v>
       </c>
-      <c r="D42" s="67" t="s">
+      <c r="C43" s="64" t="s">
         <v>764</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="D43" s="64" t="s">
         <v>765</v>
       </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+      <c r="E43" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="F43" s="68"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="67" t="s">
-        <v>766</v>
-      </c>
-      <c r="C43" s="67" t="s">
+      <c r="B44" s="64" t="s">
         <v>767</v>
       </c>
-      <c r="D43" s="67" t="s">
+      <c r="C44" s="64" t="s">
         <v>768</v>
       </c>
-      <c r="E43" s="67" t="s">
+      <c r="D44" s="64" t="s">
         <v>769</v>
       </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
+      <c r="E44" s="64" t="s">
+        <v>770</v>
+      </c>
+      <c r="F44" s="66" t="s">
+        <v>771</v>
+      </c>
+      <c r="G44" s="66" t="s">
+        <v>772</v>
+      </c>
+      <c r="H44" s="68"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="67" t="s">
-        <v>770</v>
-      </c>
-      <c r="C44" s="67" t="s">
-        <v>771</v>
-      </c>
-      <c r="D44" s="67" t="s">
-        <v>772</v>
-      </c>
-      <c r="E44" s="67" t="s">
+      <c r="B45" s="64" t="s">
         <v>773</v>
       </c>
-      <c r="F44" s="69" t="s">
+      <c r="C45" s="64" t="s">
         <v>774</v>
       </c>
-      <c r="G44" s="69" t="s">
+      <c r="D45" s="64" t="s">
         <v>775</v>
       </c>
-      <c r="H44" s="71"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
+      <c r="E45" s="64" t="s">
+        <v>776</v>
+      </c>
+      <c r="F45" s="66" t="s">
+        <v>777</v>
+      </c>
+      <c r="G45" s="66" t="s">
+        <v>778</v>
+      </c>
+      <c r="H45" s="68"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+    </row>
+    <row r="46" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>779</v>
+      </c>
+      <c r="C46" s="64" t="s">
+        <v>780</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>781</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>782</v>
+      </c>
+      <c r="F46" s="66" t="s">
+        <v>783</v>
+      </c>
+      <c r="G46" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="H46" s="64" t="s">
+        <v>785</v>
+      </c>
+      <c r="I46" s="69" t="s">
+        <v>786</v>
+      </c>
+      <c r="J46" s="69" t="s">
+        <v>787</v>
+      </c>
+      <c r="K46" s="69" t="s">
+        <v>788</v>
+      </c>
+      <c r="L46" s="69" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="67" t="s">
-        <v>776</v>
-      </c>
-      <c r="C45" s="67" t="s">
-        <v>777</v>
-      </c>
-      <c r="D45" s="67" t="s">
-        <v>778</v>
-      </c>
-      <c r="E45" s="67" t="s">
-        <v>779</v>
-      </c>
-      <c r="F45" s="69" t="s">
-        <v>780</v>
-      </c>
-      <c r="G45" s="69" t="s">
-        <v>781</v>
-      </c>
-      <c r="H45" s="71"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-    </row>
-    <row r="46" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="C46" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="D46" s="67" t="s">
-        <v>784</v>
-      </c>
-      <c r="E46" s="67" t="s">
-        <v>785</v>
-      </c>
-      <c r="F46" s="69" t="s">
-        <v>786</v>
-      </c>
-      <c r="G46" s="70" t="s">
-        <v>787</v>
-      </c>
-      <c r="H46" s="67" t="s">
-        <v>788</v>
-      </c>
-      <c r="I46" s="72" t="s">
-        <v>789</v>
-      </c>
-      <c r="J46" s="72" t="s">
+      <c r="B47" s="64" t="s">
         <v>790</v>
       </c>
-      <c r="K46" s="72" t="s">
+      <c r="C47" s="64" t="s">
         <v>791</v>
       </c>
-      <c r="L46" s="72" t="s">
+      <c r="D47" s="64" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="67" t="s">
+      <c r="E47" s="64" t="s">
         <v>793</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="F47" s="66" t="s">
         <v>794</v>
       </c>
-      <c r="D47" s="67" t="s">
+      <c r="G47" s="66" t="s">
         <v>795</v>
       </c>
-      <c r="E47" s="67" t="s">
+      <c r="H47" s="68"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="64" t="s">
         <v>796</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="C48" s="64" t="s">
         <v>797</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="D48" s="64" t="s">
         <v>798</v>
       </c>
-      <c r="H47" s="71"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="67" t="s">
+      <c r="E48" s="64" t="s">
         <v>799</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="F48" s="64" t="s">
         <v>800</v>
       </c>
-      <c r="D48" s="67" t="s">
+      <c r="G48" s="64" t="s">
         <v>801</v>
       </c>
-      <c r="E48" s="67" t="s">
+      <c r="H48" s="69"/>
+      <c r="I48" s="69" t="s">
         <v>802</v>
       </c>
-      <c r="F48" s="67" t="s">
-        <v>803</v>
-      </c>
-      <c r="G48" s="67" t="s">
-        <v>804</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72" t="s">
-        <v>805</v>
-      </c>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="68"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="65"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>803</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>804</v>
+      </c>
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
+        <v>805</v>
+      </c>
+      <c r="E49" s="64" t="s">
         <v>806</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="F49" s="64" t="s">
         <v>807</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="67" t="s">
+      <c r="G49" s="66"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="64" t="s">
         <v>808</v>
       </c>
-      <c r="E49" s="67" t="s">
+      <c r="C50" s="64" t="s">
         <v>809</v>
       </c>
-      <c r="F49" s="67" t="s">
+      <c r="D50" s="64" t="s">
         <v>810</v>
       </c>
-      <c r="G49" s="69"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
+      <c r="E50" s="64" t="s">
+        <v>811</v>
+      </c>
+      <c r="F50" s="66"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+    </row>
+    <row r="51" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="B50" s="67" t="s">
-        <v>811</v>
-      </c>
-      <c r="C50" s="67" t="s">
+      <c r="B51" s="64" t="s">
         <v>812</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="C51" s="64" t="s">
         <v>813</v>
       </c>
-      <c r="E50" s="67" t="s">
+      <c r="D51" s="64" t="s">
         <v>814</v>
       </c>
-      <c r="F50" s="69"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-    </row>
-    <row r="51" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A51" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" s="67" t="s">
+      <c r="E51" s="64" t="s">
         <v>815</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="F51" s="67" t="s">
         <v>816</v>
       </c>
-      <c r="D51" s="67" t="s">
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="64" t="s">
         <v>817</v>
       </c>
-      <c r="E51" s="67" t="s">
+      <c r="C52" s="64" t="s">
         <v>818</v>
       </c>
-      <c r="F51" s="70" t="s">
+      <c r="D52" s="64" t="s">
         <v>819</v>
       </c>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="67" t="s">
+      <c r="E52" s="64" t="s">
         <v>820</v>
       </c>
-      <c r="C52" s="67" t="s">
+      <c r="F52" s="64" t="s">
         <v>821</v>
       </c>
-      <c r="D52" s="67" t="s">
+      <c r="G52" s="64" t="s">
         <v>822</v>
       </c>
-      <c r="E52" s="67" t="s">
+      <c r="H52" s="64" t="s">
         <v>823</v>
       </c>
-      <c r="F52" s="67" t="s">
+      <c r="I52" s="64" t="s">
         <v>824</v>
       </c>
-      <c r="G52" s="67" t="s">
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="64" t="s">
         <v>825</v>
       </c>
-      <c r="H52" s="67" t="s">
+      <c r="C53" s="64" t="s">
         <v>826</v>
       </c>
-      <c r="I52" s="67" t="s">
+      <c r="D53" s="64" t="s">
         <v>827</v>
       </c>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="B53" s="67" t="s">
+      <c r="E53" s="64" t="s">
         <v>828</v>
       </c>
-      <c r="C53" s="67" t="s">
+      <c r="F53" s="64" t="s">
         <v>829</v>
       </c>
-      <c r="D53" s="67" t="s">
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="64" t="s">
         <v>830</v>
       </c>
-      <c r="E53" s="67" t="s">
+      <c r="C54" s="64" t="s">
         <v>831</v>
       </c>
-      <c r="F53" s="67" t="s">
+      <c r="D54" s="64" t="s">
         <v>832</v>
       </c>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="67" t="s">
+      <c r="E54" s="64" t="s">
         <v>833</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="F54" s="64" t="s">
         <v>834</v>
       </c>
-      <c r="D54" s="67" t="s">
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="64" t="s">
         <v>835</v>
       </c>
-      <c r="E54" s="67" t="s">
+      <c r="C55" s="64" t="s">
         <v>836</v>
       </c>
-      <c r="F54" s="67" t="s">
+      <c r="D55" s="64" t="s">
         <v>837</v>
       </c>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="67" t="s">
+      <c r="E55" s="64" t="s">
+        <v>838</v>
+      </c>
+      <c r="F55" s="64" t="s">
+        <v>839</v>
+      </c>
+      <c r="G55" s="64" t="s">
+        <v>840</v>
+      </c>
+      <c r="H55" s="64" t="s">
+        <v>841</v>
+      </c>
+      <c r="I55" s="64" t="s">
+        <v>842</v>
+      </c>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>843</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>844</v>
+      </c>
+      <c r="D56" s="66" t="s">
+        <v>845</v>
+      </c>
+      <c r="E56" s="66" t="s">
+        <v>846</v>
+      </c>
+      <c r="F56" s="66" t="s">
+        <v>847</v>
+      </c>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>848</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>849</v>
+      </c>
+      <c r="D57" s="66" t="s">
+        <v>850</v>
+      </c>
+      <c r="E57" s="66" t="s">
+        <v>851</v>
+      </c>
+      <c r="F57" s="66" t="s">
+        <v>852</v>
+      </c>
+      <c r="G57" s="69" t="s">
+        <v>853</v>
+      </c>
+      <c r="H57" s="69" t="s">
+        <v>854</v>
+      </c>
+      <c r="I57" s="69" t="s">
+        <v>855</v>
+      </c>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="67" t="s">
-        <v>838</v>
-      </c>
-      <c r="C55" s="67" t="s">
-        <v>839</v>
-      </c>
-      <c r="D55" s="67" t="s">
-        <v>840</v>
-      </c>
-      <c r="E55" s="67" t="s">
-        <v>841</v>
-      </c>
-      <c r="F55" s="67" t="s">
-        <v>842</v>
-      </c>
-      <c r="G55" s="67" t="s">
-        <v>843</v>
-      </c>
-      <c r="H55" s="67" t="s">
-        <v>844</v>
-      </c>
-      <c r="I55" s="67" t="s">
-        <v>845</v>
-      </c>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" s="69" t="s">
-        <v>846</v>
-      </c>
-      <c r="C56" s="69" t="s">
-        <v>847</v>
-      </c>
-      <c r="D56" s="69" t="s">
-        <v>848</v>
-      </c>
-      <c r="E56" s="69" t="s">
-        <v>849</v>
-      </c>
-      <c r="F56" s="69" t="s">
-        <v>850</v>
-      </c>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="B57" s="69" t="s">
-        <v>851</v>
-      </c>
-      <c r="C57" s="69" t="s">
-        <v>852</v>
-      </c>
-      <c r="D57" s="69" t="s">
-        <v>853</v>
-      </c>
-      <c r="E57" s="69" t="s">
-        <v>854</v>
-      </c>
-      <c r="F57" s="69" t="s">
-        <v>855</v>
-      </c>
-      <c r="G57" s="72" t="s">
+      <c r="B58" s="64" t="s">
         <v>856</v>
       </c>
-      <c r="H57" s="72" t="s">
-        <v>857</v>
-      </c>
-      <c r="I57" s="72" t="s">
-        <v>858</v>
-      </c>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="67" t="s">
-        <v>859</v>
-      </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/KBQA/QTemplates-sparqlQ.xlsx
+++ b/KBQA/QTemplates-sparqlQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhejianglab.com\入职后\work\workspace\RoboCloudBrain\KBQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33948A10-AB42-45E9-AC36-6F731463764F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2EC076-15D1-4581-ABA0-6C8F3B993750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3993,7 +3993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4006,16 +4006,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4560,1107 +4554,1107 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A60" activeCellId="1" sqref="A59 A60"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53" style="6" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="87.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="53" style="5" customWidth="1"/>
+    <col min="2" max="2" width="35.4609375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="87.765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.84375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="217.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="203.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="210.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="211" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="266.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="266.14999999999998" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="61" t="s">
         <v>875</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="182.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="182.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="61" t="s">
         <v>531</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="61" t="s">
         <v>874</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="266.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="266.14999999999998" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" ht="294" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="294" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="61" t="s">
         <v>859</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="308.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:6" ht="308.14999999999998" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="60" t="s">
         <v>529</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="61" t="s">
         <v>879</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" ht="350.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="350.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" ht="308.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="308.14999999999998" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" ht="279.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="63" t="s">
+      <c r="D49" s="61" t="s">
         <v>532</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" ht="405.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" s="5" customFormat="1" ht="406" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:6" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" ht="350.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:6" s="5" customFormat="1" ht="350.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="61" t="s">
         <v>530</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:6" s="5" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D54" s="56" t="s">
+      <c r="D54" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:6" s="5" customFormat="1" ht="154" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="D55" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="224.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:6" ht="224" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="61" t="s">
         <v>860</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:6" ht="224" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="D58" s="63" t="s">
+      <c r="D58" s="61" t="s">
         <v>863</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:6" ht="266" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="D59" s="61" t="s">
         <v>880</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:6" ht="252" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="D60" s="63" t="s">
+      <c r="D60" s="61" t="s">
         <v>886</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
         <v>888</v>
       </c>
     </row>
@@ -5678,1405 +5672,1405 @@
   </sheetPr>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="35.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29" style="6" customWidth="1"/>
-    <col min="8" max="8" width="32.25" customWidth="1"/>
-    <col min="9" max="9" width="26.5" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="22.5" customWidth="1"/>
-    <col min="13" max="13" width="33.875" customWidth="1"/>
+    <col min="1" max="2" width="35.84375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29" style="5" customWidth="1"/>
+    <col min="8" max="8" width="32.23046875" customWidth="1"/>
+    <col min="9" max="9" width="26.4609375" customWidth="1"/>
+    <col min="10" max="10" width="18.61328125" customWidth="1"/>
+    <col min="11" max="11" width="20.15234375" customWidth="1"/>
+    <col min="12" max="12" width="22.4609375" customWidth="1"/>
+    <col min="13" max="13" width="33.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="K10" s="8" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="K10" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="K12" s="8" t="s">
+      <c r="H12" s="5"/>
+      <c r="K12" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="G36" s="3"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>420</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="G39" s="3"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="7" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="F41" s="3"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="F42" s="3"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="M45" s="7" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="E48" s="3"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="71" t="s">
+    <row r="57" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="69" t="s">
         <v>857</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="69" t="s">
         <v>866</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="69" t="s">
         <v>867</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="69" t="s">
         <v>868</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="69" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="71" t="s">
+    <row r="58" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="69" t="s">
         <v>870</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="69" t="s">
         <v>871</v>
       </c>
-      <c r="D58" s="71" t="s">
+      <c r="D58" s="69" t="s">
         <v>872</v>
       </c>
-      <c r="E58" s="71" t="s">
+      <c r="E58" s="69" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>894</v>
       </c>
     </row>
@@ -7095,455 +7089,455 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="59" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7559,1579 +7553,1579 @@
       <selection sqref="A1:L58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-    </row>
-    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>534</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="62" t="s">
         <v>535</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="62" t="s">
         <v>536</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="62" t="s">
         <v>537</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="64" t="s">
         <v>538</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="65" t="s">
         <v>539</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="62" t="s">
         <v>541</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="62" t="s">
         <v>542</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="62" t="s">
         <v>543</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="62" t="s">
         <v>549</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="62" t="s">
         <v>550</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="62" t="s">
         <v>551</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>554</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>555</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>556</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="62" t="s">
         <v>557</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="64" t="s">
         <v>560</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-    </row>
-    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="I5" s="64"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+    </row>
+    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="62" t="s">
         <v>561</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="62" t="s">
         <v>562</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="62" t="s">
         <v>563</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="62" t="s">
         <v>564</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="65" t="s">
         <v>566</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="62" t="s">
         <v>567</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="62" t="s">
         <v>568</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="62" t="s">
         <v>569</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="62" t="s">
         <v>570</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="64" t="s">
         <v>571</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+    </row>
+    <row r="8" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A8" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="62" t="s">
         <v>572</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="62" t="s">
         <v>573</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="62" t="s">
         <v>574</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="62" t="s">
         <v>575</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="64" t="s">
         <v>576</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="65" t="s">
         <v>577</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-    </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+    </row>
+    <row r="9" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A9" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="62" t="s">
         <v>578</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="62" t="s">
         <v>579</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="62" t="s">
         <v>580</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="62" t="s">
         <v>581</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="65" t="s">
         <v>583</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="62" t="s">
         <v>585</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="62" t="s">
         <v>587</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="64" t="s">
         <v>588</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="64" t="s">
         <v>590</v>
       </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-    </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="I10" s="64"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+    </row>
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A11" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="62" t="s">
         <v>591</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="62" t="s">
         <v>592</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="62" t="s">
         <v>593</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="62" t="s">
         <v>594</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="65" t="s">
         <v>595</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="69"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="G11" s="66"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="67"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="62" t="s">
         <v>596</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="62" t="s">
         <v>597</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="62" t="s">
         <v>598</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="62" t="s">
         <v>599</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="64" t="s">
         <v>600</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="64" t="s">
         <v>601</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="66" t="s">
+      <c r="H12" s="66"/>
+      <c r="I12" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="69"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="67"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="62" t="s">
         <v>603</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="62" t="s">
         <v>604</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="62" t="s">
         <v>605</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="62" t="s">
         <v>606</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="64" t="s">
         <v>607</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="64" t="s">
         <v>608</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="69"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="H13" s="66"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="67"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="62" t="s">
         <v>609</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="62" t="s">
         <v>610</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="62" t="s">
         <v>611</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="62" t="s">
         <v>612</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="62" t="s">
         <v>614</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="62" t="s">
         <v>615</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="62" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="62" t="s">
         <v>617</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="64" t="s">
         <v>618</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="G15" s="67"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="62" t="s">
         <v>619</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="62" t="s">
         <v>620</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="62" t="s">
         <v>621</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="62" t="s">
         <v>622</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="64" t="s">
         <v>623</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="64" t="s">
         <v>624</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="H16" s="67"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="62" t="s">
         <v>625</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="62" t="s">
         <v>626</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="62" t="s">
         <v>627</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="62" t="s">
         <v>628</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="64" t="s">
         <v>629</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="H17" s="69"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+      <c r="H17" s="67"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="62" t="s">
         <v>631</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="62" t="s">
         <v>632</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="62" t="s">
         <v>633</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="62" t="s">
         <v>634</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="64" t="s">
         <v>635</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="64" t="s">
         <v>636</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="62" t="s">
         <v>637</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="62" t="s">
         <v>638</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="62" t="s">
         <v>639</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="62" t="s">
         <v>640</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="64" t="s">
         <v>641</v>
       </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="G19" s="67"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="62" t="s">
         <v>642</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="62" t="s">
         <v>643</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="62" t="s">
         <v>644</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="62" t="s">
         <v>645</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="F20" s="67"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="62" t="s">
         <v>646</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="62" t="s">
         <v>647</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="62" t="s">
         <v>648</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="62" t="s">
         <v>649</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="64" t="s">
         <v>650</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="64" t="s">
         <v>651</v>
       </c>
-      <c r="H21" s="69" t="s">
+      <c r="H21" s="67" t="s">
         <v>652</v>
       </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="62" t="s">
         <v>653</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="62" t="s">
         <v>654</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="62" t="s">
         <v>655</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="62" t="s">
         <v>656</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="64" t="s">
         <v>657</v>
       </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+      <c r="G22" s="67"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="62" t="s">
         <v>658</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="62" t="s">
         <v>659</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="62" t="s">
         <v>660</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="62" t="s">
         <v>661</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="64" t="s">
         <v>662</v>
       </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69" t="s">
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67" t="s">
         <v>663</v>
       </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-    </row>
-    <row r="24" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+    </row>
+    <row r="24" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A24" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="62" t="s">
         <v>664</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="62" t="s">
         <v>665</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="62" t="s">
         <v>666</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="62" t="s">
         <v>667</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="65" t="s">
         <v>668</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="64" t="s">
         <v>669</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="67" t="s">
         <v>670</v>
       </c>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-    </row>
-    <row r="25" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+    </row>
+    <row r="25" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+      <c r="A25" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="62" t="s">
         <v>671</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="62" t="s">
         <v>672</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="62" t="s">
         <v>673</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="62" t="s">
         <v>674</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="65" t="s">
         <v>675</v>
       </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69" t="s">
+      <c r="G25" s="67"/>
+      <c r="H25" s="67" t="s">
         <v>676</v>
       </c>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="62" t="s">
         <v>677</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="62" t="s">
         <v>679</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="62" t="s">
         <v>680</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="64" t="s">
         <v>681</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69" t="s">
+      <c r="G26" s="67"/>
+      <c r="H26" s="67" t="s">
         <v>682</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="62" t="s">
         <v>683</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="62" t="s">
         <v>684</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="62" t="s">
         <v>685</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="62" t="s">
         <v>686</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="62" t="s">
         <v>687</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="62" t="s">
         <v>689</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="62" t="s">
         <v>690</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="64" t="s">
         <v>691</v>
       </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69" t="s">
+      <c r="G28" s="67"/>
+      <c r="H28" s="67" t="s">
         <v>692</v>
       </c>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="62" t="s">
         <v>693</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="62" t="s">
         <v>694</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="62" t="s">
         <v>695</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="62" t="s">
         <v>696</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="64" t="s">
         <v>697</v>
       </c>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69" t="s">
+      <c r="G29" s="67"/>
+      <c r="H29" s="67" t="s">
         <v>698</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="62" t="s">
         <v>699</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="62" t="s">
         <v>700</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="62" t="s">
         <v>701</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="62" t="s">
         <v>702</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="64" t="s">
         <v>703</v>
       </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="62" t="s">
         <v>704</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="62" t="s">
         <v>705</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="62" t="s">
         <v>706</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="62" t="s">
         <v>707</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="F31" s="67"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="62" t="s">
         <v>708</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="62" t="s">
         <v>709</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="62" t="s">
         <v>710</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="62" t="s">
         <v>711</v>
       </c>
-      <c r="F32" s="69"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
+      <c r="F32" s="67"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="62" t="s">
         <v>712</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="62" t="s">
         <v>713</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="62" t="s">
         <v>714</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="62" t="s">
         <v>715</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="64" t="s">
         <v>716</v>
       </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+      <c r="G33" s="67"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="62" t="s">
         <v>717</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="62" t="s">
         <v>718</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="62" t="s">
         <v>719</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="62" t="s">
         <v>720</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="62" t="s">
         <v>721</v>
       </c>
-      <c r="G34" s="69"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
+      <c r="G34" s="67"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="62" t="s">
         <v>722</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="62" t="s">
         <v>723</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="62" t="s">
         <v>724</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="62" t="s">
         <v>725</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="62" t="s">
         <v>726</v>
       </c>
-      <c r="G35" s="69"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+      <c r="G35" s="67"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="62" t="s">
         <v>727</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="62" t="s">
         <v>728</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="62" t="s">
         <v>729</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="62" t="s">
         <v>730</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
+      <c r="F36" s="67"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="62" t="s">
         <v>731</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="62" t="s">
         <v>732</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="62" t="s">
         <v>733</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="62" t="s">
         <v>734</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="68" t="s">
+      <c r="F37" s="67"/>
+      <c r="G37" s="66" t="s">
         <v>735</v>
       </c>
-      <c r="H37" s="66"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
+      <c r="H37" s="64"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="62" t="s">
         <v>736</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="62" t="s">
         <v>737</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="62" t="s">
         <v>738</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="62" t="s">
         <v>739</v>
       </c>
-      <c r="F38" s="66" t="s">
+      <c r="F38" s="64" t="s">
         <v>740</v>
       </c>
-      <c r="G38" s="66" t="s">
+      <c r="G38" s="64" t="s">
         <v>741</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+      <c r="H38" s="68"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="62" t="s">
         <v>742</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="62" t="s">
         <v>743</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="62" t="s">
         <v>744</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="62" t="s">
         <v>745</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="64" t="s">
         <v>746</v>
       </c>
-      <c r="G39" s="68"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
+      <c r="G39" s="66"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="62" t="s">
         <v>747</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="62" t="s">
         <v>748</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="62" t="s">
         <v>749</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="62" t="s">
         <v>750</v>
       </c>
-      <c r="F40" s="66" t="s">
+      <c r="F40" s="64" t="s">
         <v>751</v>
       </c>
-      <c r="G40" s="68"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
+      <c r="G40" s="66"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="62" t="s">
         <v>752</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="62" t="s">
         <v>753</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="62" t="s">
         <v>754</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="62" t="s">
         <v>755</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="64" t="s">
         <v>756</v>
       </c>
-      <c r="G41" s="66" t="s">
+      <c r="G41" s="64" t="s">
         <v>757</v>
       </c>
-      <c r="H41" s="66" t="s">
+      <c r="H41" s="64" t="s">
         <v>758</v>
       </c>
-      <c r="I41" s="68"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
+      <c r="I41" s="66"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="62" t="s">
         <v>759</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="62" t="s">
         <v>760</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="62" t="s">
         <v>761</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="62" t="s">
         <v>762</v>
       </c>
-      <c r="F42" s="68"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
+      <c r="F42" s="66"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="62" t="s">
         <v>763</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="62" t="s">
         <v>764</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="62" t="s">
         <v>765</v>
       </c>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="62" t="s">
         <v>766</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
+      <c r="F43" s="66"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="62" t="s">
         <v>767</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="62" t="s">
         <v>768</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="62" t="s">
         <v>769</v>
       </c>
-      <c r="E44" s="64" t="s">
+      <c r="E44" s="62" t="s">
         <v>770</v>
       </c>
-      <c r="F44" s="66" t="s">
+      <c r="F44" s="64" t="s">
         <v>771</v>
       </c>
-      <c r="G44" s="66" t="s">
+      <c r="G44" s="64" t="s">
         <v>772</v>
       </c>
-      <c r="H44" s="68"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+      <c r="H44" s="66"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="62" t="s">
         <v>773</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="62" t="s">
         <v>774</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="62" t="s">
         <v>775</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="62" t="s">
         <v>776</v>
       </c>
-      <c r="F45" s="66" t="s">
+      <c r="F45" s="64" t="s">
         <v>777</v>
       </c>
-      <c r="G45" s="66" t="s">
+      <c r="G45" s="64" t="s">
         <v>778</v>
       </c>
-      <c r="H45" s="68"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-    </row>
-    <row r="46" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
+      <c r="H45" s="66"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+    </row>
+    <row r="46" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+      <c r="A46" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="62" t="s">
         <v>779</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="62" t="s">
         <v>780</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="D46" s="62" t="s">
         <v>781</v>
       </c>
-      <c r="E46" s="64" t="s">
+      <c r="E46" s="62" t="s">
         <v>782</v>
       </c>
-      <c r="F46" s="66" t="s">
+      <c r="F46" s="64" t="s">
         <v>783</v>
       </c>
-      <c r="G46" s="67" t="s">
+      <c r="G46" s="65" t="s">
         <v>784</v>
       </c>
-      <c r="H46" s="64" t="s">
+      <c r="H46" s="62" t="s">
         <v>785</v>
       </c>
-      <c r="I46" s="69" t="s">
+      <c r="I46" s="67" t="s">
         <v>786</v>
       </c>
-      <c r="J46" s="69" t="s">
+      <c r="J46" s="67" t="s">
         <v>787</v>
       </c>
-      <c r="K46" s="69" t="s">
+      <c r="K46" s="67" t="s">
         <v>788</v>
       </c>
-      <c r="L46" s="69" t="s">
+      <c r="L46" s="67" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="62" t="s">
         <v>790</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="62" t="s">
         <v>791</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="62" t="s">
         <v>792</v>
       </c>
-      <c r="E47" s="64" t="s">
+      <c r="E47" s="62" t="s">
         <v>793</v>
       </c>
-      <c r="F47" s="66" t="s">
+      <c r="F47" s="64" t="s">
         <v>794</v>
       </c>
-      <c r="G47" s="66" t="s">
+      <c r="G47" s="64" t="s">
         <v>795</v>
       </c>
-      <c r="H47" s="68"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="64" t="s">
+      <c r="H47" s="66"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="62" t="s">
         <v>796</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="62" t="s">
         <v>797</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="D48" s="62" t="s">
         <v>798</v>
       </c>
-      <c r="E48" s="64" t="s">
+      <c r="E48" s="62" t="s">
         <v>799</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="F48" s="62" t="s">
         <v>800</v>
       </c>
-      <c r="G48" s="64" t="s">
+      <c r="G48" s="62" t="s">
         <v>801</v>
       </c>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69" t="s">
+      <c r="H48" s="67"/>
+      <c r="I48" s="67" t="s">
         <v>802</v>
       </c>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="65"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="63"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>803</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="62" t="s">
         <v>804</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="63"/>
+      <c r="D49" s="62" t="s">
         <v>805</v>
       </c>
-      <c r="E49" s="64" t="s">
+      <c r="E49" s="62" t="s">
         <v>806</v>
       </c>
-      <c r="F49" s="64" t="s">
+      <c r="F49" s="62" t="s">
         <v>807</v>
       </c>
-      <c r="G49" s="66"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="64" t="s">
+      <c r="G49" s="64"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="62" t="s">
         <v>808</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="62" t="s">
         <v>809</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D50" s="62" t="s">
         <v>810</v>
       </c>
-      <c r="E50" s="64" t="s">
+      <c r="E50" s="62" t="s">
         <v>811</v>
       </c>
-      <c r="F50" s="66"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-    </row>
-    <row r="51" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
+      <c r="F50" s="64"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+    </row>
+    <row r="51" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A51" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="62" t="s">
         <v>812</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="62" t="s">
         <v>813</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="D51" s="62" t="s">
         <v>814</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="62" t="s">
         <v>815</v>
       </c>
-      <c r="F51" s="67" t="s">
+      <c r="F51" s="65" t="s">
         <v>816</v>
       </c>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="64" t="s">
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="62" t="s">
         <v>817</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="62" t="s">
         <v>818</v>
       </c>
-      <c r="D52" s="64" t="s">
+      <c r="D52" s="62" t="s">
         <v>819</v>
       </c>
-      <c r="E52" s="64" t="s">
+      <c r="E52" s="62" t="s">
         <v>820</v>
       </c>
-      <c r="F52" s="64" t="s">
+      <c r="F52" s="62" t="s">
         <v>821</v>
       </c>
-      <c r="G52" s="64" t="s">
+      <c r="G52" s="62" t="s">
         <v>822</v>
       </c>
-      <c r="H52" s="64" t="s">
+      <c r="H52" s="62" t="s">
         <v>823</v>
       </c>
-      <c r="I52" s="64" t="s">
+      <c r="I52" s="62" t="s">
         <v>824</v>
       </c>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="62" t="s">
         <v>825</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="62" t="s">
         <v>826</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="62" t="s">
         <v>827</v>
       </c>
-      <c r="E53" s="64" t="s">
+      <c r="E53" s="62" t="s">
         <v>828</v>
       </c>
-      <c r="F53" s="64" t="s">
+      <c r="F53" s="62" t="s">
         <v>829</v>
       </c>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="64" t="s">
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="62" t="s">
         <v>830</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="62" t="s">
         <v>831</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="D54" s="62" t="s">
         <v>832</v>
       </c>
-      <c r="E54" s="64" t="s">
+      <c r="E54" s="62" t="s">
         <v>833</v>
       </c>
-      <c r="F54" s="64" t="s">
+      <c r="F54" s="62" t="s">
         <v>834</v>
       </c>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="64" t="s">
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="62" t="s">
         <v>835</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="62" t="s">
         <v>836</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="62" t="s">
         <v>837</v>
       </c>
-      <c r="E55" s="64" t="s">
+      <c r="E55" s="62" t="s">
         <v>838</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F55" s="62" t="s">
         <v>839</v>
       </c>
-      <c r="G55" s="64" t="s">
+      <c r="G55" s="62" t="s">
         <v>840</v>
       </c>
-      <c r="H55" s="64" t="s">
+      <c r="H55" s="62" t="s">
         <v>841</v>
       </c>
-      <c r="I55" s="64" t="s">
+      <c r="I55" s="62" t="s">
         <v>842</v>
       </c>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="64" t="s">
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="64" t="s">
         <v>843</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="64" t="s">
         <v>844</v>
       </c>
-      <c r="D56" s="66" t="s">
+      <c r="D56" s="64" t="s">
         <v>845</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="64" t="s">
         <v>846</v>
       </c>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="64" t="s">
         <v>847</v>
       </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="s">
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="64" t="s">
         <v>848</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="64" t="s">
         <v>849</v>
       </c>
-      <c r="D57" s="66" t="s">
+      <c r="D57" s="64" t="s">
         <v>850</v>
       </c>
-      <c r="E57" s="66" t="s">
+      <c r="E57" s="64" t="s">
         <v>851</v>
       </c>
-      <c r="F57" s="66" t="s">
+      <c r="F57" s="64" t="s">
         <v>852</v>
       </c>
-      <c r="G57" s="69" t="s">
+      <c r="G57" s="67" t="s">
         <v>853</v>
       </c>
-      <c r="H57" s="69" t="s">
+      <c r="H57" s="67" t="s">
         <v>854</v>
       </c>
-      <c r="I57" s="69" t="s">
+      <c r="I57" s="67" t="s">
         <v>855</v>
       </c>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="64" t="s">
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="64" t="s">
+      <c r="B58" s="62" t="s">
         <v>856</v>
       </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/KBQA/QTemplates-sparqlQ.xlsx
+++ b/KBQA/QTemplates-sparqlQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhejianglab.com\入职后\work\workspace\RoboCloudBrain\KBQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2EC076-15D1-4581-ABA0-6C8F3B993750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4F7447-1D90-4C31-8C0C-A07CC3FA96BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="905">
   <si>
     <t>项目参与者年龄是多少</t>
   </si>
@@ -476,16 +476,6 @@
     <t>projectname-resultnames</t>
   </si>
   <si>
-    <t>PREFIX foaf:&lt;http://xmlns.com/foaf/0.1/&gt;
-PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
-SELECT ?resultstr WHERE {
-    ?project foaf:name "_project" ;
-              a foaf:Project ;
-             poap:hasResult ?result .
-    ?result foaf:name ?resultstr .
-}</t>
-  </si>
-  <si>
     <t>项目制作的深海机器人的续航时间</t>
   </si>
   <si>
@@ -1004,9 +994,6 @@
     GROUP BY ?typestrb
     }
 }</t>
-  </si>
-  <si>
-    <t>组织机构的子机构有什么哪些子机构</t>
   </si>
   <si>
     <t>organizationname&amp;suborganizationname-subsuborganizationnames</t>
@@ -1398,9 +1385,6 @@
     <t>这个项目有多少男男女女</t>
   </si>
   <si>
-    <t>项目中的人学历学位有哪些</t>
-  </si>
-  <si>
     <t>参与项目的人都是哪些学历学位</t>
   </si>
   <si>
@@ -3488,12 +3472,63 @@
     <t>哪个机器人发表在某期刊了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>组织机构中担任某职位的人是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构中有哪些子机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构的子机构有哪些子机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focusOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目参与者中男女各有几个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目成果中发表在某期刊的论文是哪篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREFIX foaf:&lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
+SELECT ?resultstr WHERE {
+    ?project foaf:name "_project" ;
+              a foaf:Project ;
+             poap:hasResult ?result .
+    ?result foaf:name ?resultstr .
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目成果有哪些论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目成果论文发表在哪些期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目资助金额是多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3546,13 +3581,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B14D"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3993,7 +4021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4171,14 +4199,14 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4186,11 +4214,11 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4199,9 +4227,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4554,8 +4579,8 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4649,8 +4674,8 @@
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>875</v>
+      <c r="D5" s="60" t="s">
+        <v>872</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>4</v>
@@ -4759,8 +4784,8 @@
       <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="61" t="s">
-        <v>531</v>
+      <c r="D11" s="60" t="s">
+        <v>528</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>4</v>
@@ -4795,8 +4820,8 @@
       <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="61" t="s">
-        <v>874</v>
+      <c r="D13" s="60" t="s">
+        <v>871</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>4</v>
@@ -4941,8 +4966,8 @@
       <c r="C21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>80</v>
+      <c r="D21" s="60" t="s">
+        <v>901</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>4</v>
@@ -4951,16 +4976,16 @@
     </row>
     <row r="22" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="25" t="s">
         <v>83</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>84</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>4</v>
@@ -4969,16 +4994,16 @@
     </row>
     <row r="23" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>88</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>4</v>
@@ -4987,16 +5012,16 @@
     </row>
     <row r="24" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>92</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>4</v>
@@ -5005,16 +5030,16 @@
     </row>
     <row r="25" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="28" t="s">
         <v>95</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>96</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>4</v>
@@ -5023,16 +5048,16 @@
     </row>
     <row r="26" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>100</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>4</v>
@@ -5041,16 +5066,16 @@
     </row>
     <row r="27" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="30" t="s">
         <v>103</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>104</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>4</v>
@@ -5059,16 +5084,16 @@
     </row>
     <row r="28" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="31" t="s">
         <v>107</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>4</v>
@@ -5077,178 +5102,178 @@
     </row>
     <row r="29" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="E30" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>121</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>124</v>
+      <c r="D32" s="35" t="s">
+        <v>123</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>127</v>
+      <c r="D33" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>131</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>134</v>
+      <c r="D35" s="38" t="s">
+        <v>133</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="40" t="s">
+      <c r="E36" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="42" t="s">
-        <v>145</v>
+      <c r="D38" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>4</v>
@@ -5257,16 +5282,16 @@
     </row>
     <row r="39" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>148</v>
+      <c r="D39" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>4</v>
@@ -5275,34 +5300,34 @@
     </row>
     <row r="40" spans="1:6" ht="294" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="45" t="s">
-        <v>155</v>
+      <c r="D41" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>4</v>
@@ -5311,16 +5336,16 @@
     </row>
     <row r="42" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="61" t="s">
-        <v>859</v>
+      <c r="D42" s="60" t="s">
+        <v>856</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>4</v>
@@ -5329,36 +5354,36 @@
     </row>
     <row r="43" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="45" t="s">
         <v>161</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>162</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="46" t="s">
         <v>166</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>167</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>4</v>
@@ -5369,34 +5394,34 @@
     </row>
     <row r="45" spans="1:6" ht="308.14999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="59" t="s">
+        <v>526</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>876</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>529</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>879</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="350.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="48" t="s">
-        <v>173</v>
+      <c r="D46" s="47" t="s">
+        <v>172</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>4</v>
@@ -5405,122 +5430,122 @@
     </row>
     <row r="47" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="D47" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="D47" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="308.14999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="61" t="s">
-        <v>532</v>
+      <c r="D49" s="60" t="s">
+        <v>529</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="D50" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50" s="51" t="s">
-        <v>189</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" s="5" customFormat="1" ht="406" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="D51" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>193</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" s="53" t="s">
-        <v>196</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="5" customFormat="1" ht="350.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>530</v>
+        <v>186</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>527</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>4</v>
@@ -5528,134 +5553,134 @@
     </row>
     <row r="54" spans="1:6" s="5" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="D54" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="5" customFormat="1" ht="154" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="55" t="s">
-        <v>206</v>
+      <c r="D55" s="54" t="s">
+        <v>204</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="224.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="D56" s="55" t="s">
         <v>208</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="56" t="s">
-        <v>210</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="224" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="D57" s="60" t="s">
         <v>857</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="D57" s="61" t="s">
-        <v>860</v>
-      </c>
       <c r="E57" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="224" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>863</v>
+      <c r="D58" s="60" t="s">
+        <v>860</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="266" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="D59" s="61" t="s">
-        <v>880</v>
+        <v>862</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>877</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="252" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="D60" s="61" t="s">
-        <v>886</v>
+        <v>879</v>
+      </c>
+      <c r="D60" s="60" t="s">
+        <v>883</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -5672,8 +5697,8 @@
   </sheetPr>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5697,19 +5722,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="56" t="s">
         <v>214</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>216</v>
       </c>
       <c r="H1" s="5"/>
     </row>
@@ -5718,25 +5743,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5744,19 +5769,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -5766,22 +5791,22 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -5790,19 +5815,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -5812,16 +5837,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -5829,22 +5854,22 @@
     </row>
     <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>904</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -5854,44 +5879,44 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>899</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -5900,24 +5925,24 @@
         <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="K10" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5925,55 +5950,55 @@
         <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="K11" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>898</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H12" s="5"/>
       <c r="K12" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5981,19 +6006,19 @@
         <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="5"/>
@@ -6003,19 +6028,19 @@
         <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="5"/>
@@ -6025,22 +6050,22 @@
         <v>55</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="H15" s="5"/>
     </row>
@@ -6049,22 +6074,22 @@
         <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6073,22 +6098,22 @@
         <v>63</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -6097,19 +6122,19 @@
         <v>66</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="5"/>
@@ -6119,16 +6144,16 @@
         <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -6139,22 +6164,22 @@
         <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -6163,264 +6188,264 @@
         <v>78</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="H22" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="H23" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="I23" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="G24" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="I24" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="G25" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="I25" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="G27" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="I27" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="F28" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="G28" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="I28" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="G29" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="H29" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6428,19 +6453,19 @@
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -6448,41 +6473,41 @@
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -6490,19 +6515,19 @@
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -6510,19 +6535,19 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -6530,548 +6555,548 @@
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="F36" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="F37" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>143</v>
+        <v>902</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="F38" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="F39" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="F40" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="G40" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="H40" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="F41" s="3"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>156</v>
+        <v>903</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="F42" s="3"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="F43" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="G43" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="F44" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="G44" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="F45" s="57" t="s">
         <v>459</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="H45" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="I45" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="K45" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="L45" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J45" s="6" t="s">
+      <c r="M45" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="F46" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="G46" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="F47" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="G47" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="H47" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="E48" s="3"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>199</v>
+        <v>894</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>204</v>
+        <v>895</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="F56" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="G56" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="H56" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>528</v>
-      </c>
     </row>
     <row r="57" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="69" t="s">
-        <v>857</v>
-      </c>
-      <c r="B57" s="69" t="s">
+      <c r="A57" s="68" t="s">
+        <v>854</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>863</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>864</v>
+      </c>
+      <c r="D57" s="68" t="s">
+        <v>865</v>
+      </c>
+      <c r="E57" s="68" t="s">
         <v>866</v>
       </c>
-      <c r="C57" s="69" t="s">
+    </row>
+    <row r="58" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="68" t="s">
+        <v>858</v>
+      </c>
+      <c r="B58" s="68" t="s">
         <v>867</v>
       </c>
-      <c r="D57" s="69" t="s">
+      <c r="C58" s="68" t="s">
         <v>868</v>
       </c>
-      <c r="E57" s="69" t="s">
+      <c r="D58" s="68" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="B58" s="69" t="s">
+      <c r="E58" s="68" t="s">
         <v>870</v>
-      </c>
-      <c r="C58" s="69" t="s">
-        <v>871</v>
-      </c>
-      <c r="D58" s="69" t="s">
-        <v>872</v>
-      </c>
-      <c r="E58" s="69" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>891</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -7096,10 +7121,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7107,13 +7132,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7135,7 +7160,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7157,10 +7182,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7168,7 +7193,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -7176,7 +7201,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -7185,7 +7210,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7195,7 +7220,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -7211,7 +7236,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -7220,10 +7245,10 @@
         <v>55</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -7232,10 +7257,10 @@
         <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -7244,7 +7269,7 @@
         <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7259,7 +7284,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -7269,10 +7294,10 @@
         <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -7281,260 +7306,260 @@
         <v>78</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -7556,1576 +7581,1576 @@
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+    </row>
+    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>532</v>
+      </c>
+      <c r="D2" s="61" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-    </row>
-    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="E2" s="61" t="s">
+        <v>534</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>534</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>535</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>536</v>
-      </c>
-      <c r="E2" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>537</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="C3" s="61" t="s">
         <v>538</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="D3" s="61" t="s">
         <v>539</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="E3" s="61" t="s">
+        <v>540</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>541</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>542</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>544</v>
+      </c>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>541</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>542</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>543</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>544</v>
-      </c>
-      <c r="G3" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>545</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="C4" s="61" t="s">
         <v>546</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="D4" s="61" t="s">
         <v>547</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="E4" s="61" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>549</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>550</v>
+      </c>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>548</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>549</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>550</v>
-      </c>
-      <c r="E4" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>552</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="D5" s="61" t="s">
         <v>553</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="62" t="s">
+      <c r="E5" s="61" t="s">
+        <v>554</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>555</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>556</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>557</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+    </row>
+    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>554</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>555</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>556</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>557</v>
-      </c>
-      <c r="F5" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>558</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="C6" s="61" t="s">
         <v>559</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="D6" s="61" t="s">
         <v>560</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-    </row>
-    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
+      <c r="E6" s="61" t="s">
+        <v>561</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>562</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>561</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>562</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>563</v>
-      </c>
-      <c r="E6" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>564</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="C7" s="61" t="s">
         <v>565</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="D7" s="61" t="s">
         <v>566</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="62" t="s">
+      <c r="E7" s="61" t="s">
+        <v>567</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>568</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+    </row>
+    <row r="8" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A8" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="62" t="s">
-        <v>567</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>568</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>569</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="C8" s="61" t="s">
         <v>570</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="D8" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-    </row>
-    <row r="8" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A8" s="62" t="s">
+      <c r="E8" s="61" t="s">
+        <v>572</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>573</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+    </row>
+    <row r="9" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A9" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>572</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>573</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>574</v>
-      </c>
-      <c r="E8" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>575</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="C9" s="61" t="s">
         <v>576</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="D9" s="61" t="s">
         <v>577</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-    </row>
-    <row r="9" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A9" s="62" t="s">
+      <c r="E9" s="61" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>579</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>580</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>578</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>579</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>580</v>
-      </c>
-      <c r="E9" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>581</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="C10" s="61" t="s">
         <v>582</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="D10" s="61" t="s">
         <v>583</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="62" t="s">
+      <c r="E10" s="61" t="s">
+        <v>584</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>585</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>586</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>587</v>
+      </c>
+      <c r="I10" s="63"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+    </row>
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A11" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>584</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>585</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>586</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>587</v>
-      </c>
-      <c r="F10" s="64" t="s">
+      <c r="B11" s="61" t="s">
         <v>588</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="C11" s="61" t="s">
         <v>589</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="D11" s="61" t="s">
         <v>590</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-    </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A11" s="62" t="s">
+      <c r="E11" s="61" t="s">
+        <v>591</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>592</v>
+      </c>
+      <c r="G11" s="65"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="66"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>591</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>592</v>
-      </c>
-      <c r="D11" s="62" t="s">
+      <c r="B12" s="61" t="s">
         <v>593</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="C12" s="61" t="s">
         <v>594</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="D12" s="61" t="s">
         <v>595</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="67"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="62" t="s">
+      <c r="E12" s="61" t="s">
+        <v>596</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>597</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>598</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="63" t="s">
+        <v>599</v>
+      </c>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="66"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>596</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>597</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>598</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>599</v>
-      </c>
-      <c r="F12" s="64" t="s">
+      <c r="B13" s="61" t="s">
         <v>600</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="C13" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="64" t="s">
+      <c r="D13" s="61" t="s">
         <v>602</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="67"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="62" t="s">
+      <c r="E13" s="61" t="s">
+        <v>603</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>604</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>605</v>
+      </c>
+      <c r="H13" s="65"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="66"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>603</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>604</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>605</v>
-      </c>
-      <c r="E13" s="62" t="s">
+      <c r="B14" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="C14" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="D14" s="61" t="s">
         <v>608</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="67"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="62" t="s">
+      <c r="E14" s="61" t="s">
+        <v>609</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>610</v>
+      </c>
+      <c r="G14" s="66"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>609</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>610</v>
-      </c>
-      <c r="D14" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>611</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>612</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="D15" s="61" t="s">
         <v>613</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
+      <c r="E15" s="61" t="s">
+        <v>614</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>615</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>614</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>615</v>
-      </c>
-      <c r="D15" s="62" t="s">
+      <c r="B16" s="61" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="C16" s="61" t="s">
         <v>617</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="D16" s="61" t="s">
         <v>618</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="62" t="s">
+      <c r="E16" s="61" t="s">
+        <v>619</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>620</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>621</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>619</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>620</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>621</v>
-      </c>
-      <c r="E16" s="62" t="s">
+      <c r="B17" s="61" t="s">
         <v>622</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="C17" s="61" t="s">
         <v>623</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="D17" s="61" t="s">
         <v>624</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="62" t="s">
+      <c r="E17" s="61" t="s">
+        <v>625</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>626</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>627</v>
+      </c>
+      <c r="H17" s="66"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>625</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>626</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>627</v>
-      </c>
-      <c r="E17" s="62" t="s">
+      <c r="B18" s="61" t="s">
         <v>628</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="C18" s="61" t="s">
         <v>629</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="D18" s="61" t="s">
         <v>630</v>
       </c>
-      <c r="H17" s="67"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="62" t="s">
+      <c r="E18" s="61" t="s">
+        <v>631</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>633</v>
+      </c>
+      <c r="H18" s="66"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="62" t="s">
-        <v>631</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>632</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>633</v>
-      </c>
-      <c r="E18" s="62" t="s">
+      <c r="B19" s="61" t="s">
         <v>634</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="C19" s="61" t="s">
         <v>635</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="D19" s="61" t="s">
         <v>636</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="62" t="s">
+      <c r="E19" s="61" t="s">
+        <v>637</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>638</v>
+      </c>
+      <c r="G19" s="66"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="62" t="s">
-        <v>637</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>638</v>
-      </c>
-      <c r="D19" s="62" t="s">
+      <c r="B20" s="61" t="s">
         <v>639</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="C20" s="61" t="s">
         <v>640</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="D20" s="61" t="s">
         <v>641</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="62" t="s">
+      <c r="E20" s="61" t="s">
+        <v>642</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>642</v>
-      </c>
-      <c r="C20" s="62" t="s">
+      <c r="B21" s="61" t="s">
         <v>643</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="C21" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="D21" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="62" t="s">
+      <c r="E21" s="61" t="s">
+        <v>646</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>647</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>648</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>649</v>
+      </c>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="62" t="s">
-        <v>646</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>647</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>648</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>649</v>
-      </c>
-      <c r="F21" s="64" t="s">
+      <c r="B22" s="61" t="s">
         <v>650</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="C22" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="D22" s="61" t="s">
         <v>652</v>
       </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="62" t="s">
+      <c r="E22" s="61" t="s">
+        <v>653</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>654</v>
+      </c>
+      <c r="G22" s="66"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="62" t="s">
-        <v>653</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>654</v>
-      </c>
-      <c r="D22" s="62" t="s">
+      <c r="B23" s="61" t="s">
         <v>655</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="C23" s="61" t="s">
         <v>656</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="D23" s="61" t="s">
         <v>657</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="62" t="s">
+      <c r="E23" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>659</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66" t="s">
+        <v>660</v>
+      </c>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+    </row>
+    <row r="24" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A24" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>658</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>659</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>660</v>
-      </c>
-      <c r="E23" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>661</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="C24" s="61" t="s">
         <v>662</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67" t="s">
+      <c r="D24" s="61" t="s">
         <v>663</v>
       </c>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-    </row>
-    <row r="24" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A24" s="62" t="s">
+      <c r="E24" s="61" t="s">
+        <v>664</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>665</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>666</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>667</v>
+      </c>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+    </row>
+    <row r="25" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+      <c r="A25" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>664</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>665</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>666</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>667</v>
-      </c>
-      <c r="F24" s="65" t="s">
+      <c r="B25" s="61" t="s">
         <v>668</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="C25" s="61" t="s">
         <v>669</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="D25" s="61" t="s">
         <v>670</v>
       </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-    </row>
-    <row r="25" spans="1:12" ht="56" x14ac:dyDescent="0.35">
-      <c r="A25" s="62" t="s">
+      <c r="E25" s="61" t="s">
+        <v>671</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>672</v>
+      </c>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66" t="s">
+        <v>673</v>
+      </c>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="62" t="s">
-        <v>671</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>672</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>673</v>
-      </c>
-      <c r="E25" s="62" t="s">
+      <c r="B26" s="61" t="s">
         <v>674</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="C26" s="61" t="s">
         <v>675</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67" t="s">
+      <c r="D26" s="61" t="s">
         <v>676</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="62" t="s">
+      <c r="E26" s="61" t="s">
+        <v>677</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>678</v>
+      </c>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66" t="s">
+        <v>679</v>
+      </c>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>677</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>678</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="E26" s="62" t="s">
+      <c r="B27" s="61" t="s">
         <v>680</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="C27" s="61" t="s">
         <v>681</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67" t="s">
+      <c r="D27" s="61" t="s">
         <v>682</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="62" t="s">
+      <c r="E27" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="62" t="s">
-        <v>683</v>
-      </c>
-      <c r="C27" s="62" t="s">
+      <c r="B28" s="61" t="s">
         <v>684</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="C28" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="E27" s="62" t="s">
+      <c r="D28" s="61" t="s">
         <v>686</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="62" t="s">
+      <c r="E28" s="61" t="s">
+        <v>687</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66" t="s">
+        <v>689</v>
+      </c>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="62" t="s">
-        <v>687</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>688</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>689</v>
-      </c>
-      <c r="E28" s="62" t="s">
+      <c r="B29" s="61" t="s">
         <v>690</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="C29" s="61" t="s">
         <v>691</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67" t="s">
+      <c r="D29" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="62" t="s">
+      <c r="E29" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>694</v>
+      </c>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66" t="s">
+        <v>695</v>
+      </c>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>696</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>697</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>698</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>699</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>700</v>
+      </c>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>701</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>702</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>703</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>704</v>
+      </c>
+      <c r="F31" s="66"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>705</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>706</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>707</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>708</v>
+      </c>
+      <c r="F32" s="66"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>709</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>710</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>711</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>712</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>713</v>
+      </c>
+      <c r="G33" s="66"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>714</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>715</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>716</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>717</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>718</v>
+      </c>
+      <c r="G34" s="66"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>720</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>721</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>722</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>723</v>
+      </c>
+      <c r="G35" s="66"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>724</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>725</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>726</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="F36" s="66"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>728</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>729</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>730</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>731</v>
+      </c>
+      <c r="F37" s="66"/>
+      <c r="G37" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="H37" s="63"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>733</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>734</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>735</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>736</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>737</v>
+      </c>
+      <c r="G38" s="63" t="s">
+        <v>738</v>
+      </c>
+      <c r="H38" s="67"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="62" t="s">
-        <v>693</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>694</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>695</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>696</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>697</v>
-      </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67" t="s">
-        <v>698</v>
-      </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>699</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>700</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>701</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>702</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>703</v>
-      </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>704</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>705</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>706</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>707</v>
-      </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>708</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>709</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>710</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>711</v>
-      </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>712</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>713</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>714</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>715</v>
-      </c>
-      <c r="F33" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="G33" s="67"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>717</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>718</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>719</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>720</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>721</v>
-      </c>
-      <c r="G34" s="67"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>722</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>723</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>724</v>
-      </c>
-      <c r="E35" s="62" t="s">
-        <v>725</v>
-      </c>
-      <c r="F35" s="62" t="s">
-        <v>726</v>
-      </c>
-      <c r="G35" s="67"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>727</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>728</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>729</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>730</v>
-      </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>731</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>732</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>733</v>
-      </c>
-      <c r="E37" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="66" t="s">
-        <v>735</v>
-      </c>
-      <c r="H37" s="64"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>736</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>737</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>738</v>
-      </c>
-      <c r="E38" s="62" t="s">
+      <c r="B39" s="61" t="s">
         <v>739</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="C39" s="61" t="s">
         <v>740</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="D39" s="61" t="s">
         <v>741</v>
       </c>
-      <c r="H38" s="68"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="62" t="s">
+      <c r="E39" s="61" t="s">
+        <v>742</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>743</v>
+      </c>
+      <c r="G39" s="65"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="62" t="s">
-        <v>742</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>743</v>
-      </c>
-      <c r="D39" s="62" t="s">
+      <c r="B40" s="61" t="s">
         <v>744</v>
       </c>
-      <c r="E39" s="62" t="s">
+      <c r="C40" s="61" t="s">
         <v>745</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="D40" s="61" t="s">
         <v>746</v>
       </c>
-      <c r="G39" s="66"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="62" t="s">
+      <c r="E40" s="61" t="s">
+        <v>747</v>
+      </c>
+      <c r="F40" s="63" t="s">
+        <v>748</v>
+      </c>
+      <c r="G40" s="65"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>749</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>750</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>751</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>752</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>753</v>
+      </c>
+      <c r="G41" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="H41" s="63" t="s">
+        <v>755</v>
+      </c>
+      <c r="I41" s="65"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="62" t="s">
-        <v>747</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>748</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>749</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>750</v>
-      </c>
-      <c r="F40" s="64" t="s">
-        <v>751</v>
-      </c>
-      <c r="G40" s="66"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>752</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>753</v>
-      </c>
-      <c r="D41" s="62" t="s">
-        <v>754</v>
-      </c>
-      <c r="E41" s="62" t="s">
-        <v>755</v>
-      </c>
-      <c r="F41" s="64" t="s">
+      <c r="B42" s="61" t="s">
         <v>756</v>
       </c>
-      <c r="G41" s="64" t="s">
+      <c r="C42" s="61" t="s">
         <v>757</v>
       </c>
-      <c r="H41" s="64" t="s">
+      <c r="D42" s="61" t="s">
         <v>758</v>
       </c>
-      <c r="I41" s="66"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="62" t="s">
+      <c r="E42" s="61" t="s">
+        <v>759</v>
+      </c>
+      <c r="F42" s="65"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="62" t="s">
-        <v>759</v>
-      </c>
-      <c r="C42" s="62" t="s">
+      <c r="B43" s="61" t="s">
         <v>760</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="C43" s="61" t="s">
         <v>761</v>
       </c>
-      <c r="E42" s="62" t="s">
+      <c r="D43" s="61" t="s">
         <v>762</v>
       </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="62" t="s">
+      <c r="E43" s="61" t="s">
+        <v>763</v>
+      </c>
+      <c r="F43" s="65"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="62" t="s">
-        <v>763</v>
-      </c>
-      <c r="C43" s="62" t="s">
+      <c r="B44" s="61" t="s">
         <v>764</v>
       </c>
-      <c r="D43" s="62" t="s">
+      <c r="C44" s="61" t="s">
         <v>765</v>
       </c>
-      <c r="E43" s="62" t="s">
+      <c r="D44" s="61" t="s">
         <v>766</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="62" t="s">
+      <c r="E44" s="61" t="s">
+        <v>767</v>
+      </c>
+      <c r="F44" s="63" t="s">
+        <v>768</v>
+      </c>
+      <c r="G44" s="63" t="s">
+        <v>769</v>
+      </c>
+      <c r="H44" s="65"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="62" t="s">
-        <v>767</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>768</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>769</v>
-      </c>
-      <c r="E44" s="62" t="s">
+      <c r="B45" s="61" t="s">
         <v>770</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="C45" s="61" t="s">
         <v>771</v>
       </c>
-      <c r="G44" s="64" t="s">
+      <c r="D45" s="61" t="s">
         <v>772</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="62" t="s">
+      <c r="E45" s="61" t="s">
+        <v>773</v>
+      </c>
+      <c r="F45" s="63" t="s">
+        <v>774</v>
+      </c>
+      <c r="G45" s="63" t="s">
+        <v>775</v>
+      </c>
+      <c r="H45" s="65"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+    </row>
+    <row r="46" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+      <c r="A46" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>776</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>777</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>778</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>779</v>
+      </c>
+      <c r="F46" s="63" t="s">
+        <v>780</v>
+      </c>
+      <c r="G46" s="64" t="s">
+        <v>781</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>782</v>
+      </c>
+      <c r="I46" s="66" t="s">
+        <v>783</v>
+      </c>
+      <c r="J46" s="66" t="s">
+        <v>784</v>
+      </c>
+      <c r="K46" s="66" t="s">
+        <v>785</v>
+      </c>
+      <c r="L46" s="66" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="62" t="s">
-        <v>773</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>774</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>775</v>
-      </c>
-      <c r="E45" s="62" t="s">
-        <v>776</v>
-      </c>
-      <c r="F45" s="64" t="s">
-        <v>777</v>
-      </c>
-      <c r="G45" s="64" t="s">
-        <v>778</v>
-      </c>
-      <c r="H45" s="66"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-    </row>
-    <row r="46" spans="1:12" ht="56" x14ac:dyDescent="0.35">
-      <c r="A46" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>779</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>780</v>
-      </c>
-      <c r="D46" s="62" t="s">
-        <v>781</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>782</v>
-      </c>
-      <c r="F46" s="64" t="s">
-        <v>783</v>
-      </c>
-      <c r="G46" s="65" t="s">
-        <v>784</v>
-      </c>
-      <c r="H46" s="62" t="s">
-        <v>785</v>
-      </c>
-      <c r="I46" s="67" t="s">
-        <v>786</v>
-      </c>
-      <c r="J46" s="67" t="s">
+      <c r="B47" s="61" t="s">
         <v>787</v>
       </c>
-      <c r="K46" s="67" t="s">
+      <c r="C47" s="61" t="s">
         <v>788</v>
       </c>
-      <c r="L46" s="67" t="s">
+      <c r="D47" s="61" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="62" t="s">
+      <c r="E47" s="61" t="s">
         <v>790</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="F47" s="63" t="s">
         <v>791</v>
       </c>
-      <c r="D47" s="62" t="s">
+      <c r="G47" s="63" t="s">
         <v>792</v>
       </c>
-      <c r="E47" s="62" t="s">
+      <c r="H47" s="65"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="61" t="s">
         <v>793</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="C48" s="61" t="s">
         <v>794</v>
       </c>
-      <c r="G47" s="64" t="s">
+      <c r="D48" s="61" t="s">
         <v>795</v>
       </c>
-      <c r="H47" s="66"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="B48" s="62" t="s">
+      <c r="E48" s="61" t="s">
         <v>796</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="F48" s="61" t="s">
         <v>797</v>
       </c>
-      <c r="D48" s="62" t="s">
+      <c r="G48" s="61" t="s">
         <v>798</v>
       </c>
-      <c r="E48" s="62" t="s">
+      <c r="H48" s="66"/>
+      <c r="I48" s="66" t="s">
         <v>799</v>
       </c>
-      <c r="F48" s="62" t="s">
-        <v>800</v>
-      </c>
-      <c r="G48" s="62" t="s">
-        <v>801</v>
-      </c>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="63"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="62"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>800</v>
+      </c>
+      <c r="B49" s="61" t="s">
+        <v>801</v>
+      </c>
+      <c r="C49" s="62"/>
+      <c r="D49" s="61" t="s">
+        <v>802</v>
+      </c>
+      <c r="E49" s="61" t="s">
         <v>803</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="F49" s="61" t="s">
         <v>804</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="62" t="s">
+      <c r="G49" s="63"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="61" t="s">
         <v>805</v>
       </c>
-      <c r="E49" s="62" t="s">
+      <c r="C50" s="61" t="s">
         <v>806</v>
       </c>
-      <c r="F49" s="62" t="s">
+      <c r="D50" s="61" t="s">
         <v>807</v>
       </c>
-      <c r="G49" s="64"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" s="62" t="s">
+      <c r="E50" s="61" t="s">
         <v>808</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="F50" s="63"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+    </row>
+    <row r="51" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A51" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="61" t="s">
         <v>809</v>
       </c>
-      <c r="D50" s="62" t="s">
+      <c r="C51" s="61" t="s">
         <v>810</v>
       </c>
-      <c r="E50" s="62" t="s">
+      <c r="D51" s="61" t="s">
         <v>811</v>
       </c>
-      <c r="F50" s="64"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-    </row>
-    <row r="51" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A51" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="62" t="s">
+      <c r="E51" s="61" t="s">
         <v>812</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="F51" s="64" t="s">
         <v>813</v>
       </c>
-      <c r="D51" s="62" t="s">
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="61" t="s">
         <v>814</v>
       </c>
-      <c r="E51" s="62" t="s">
+      <c r="C52" s="61" t="s">
         <v>815</v>
       </c>
-      <c r="F51" s="65" t="s">
+      <c r="D52" s="61" t="s">
         <v>816</v>
       </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" s="62" t="s">
+      <c r="E52" s="61" t="s">
         <v>817</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="F52" s="61" t="s">
         <v>818</v>
       </c>
-      <c r="D52" s="62" t="s">
+      <c r="G52" s="61" t="s">
         <v>819</v>
       </c>
-      <c r="E52" s="62" t="s">
+      <c r="H52" s="61" t="s">
         <v>820</v>
       </c>
-      <c r="F52" s="62" t="s">
+      <c r="I52" s="61" t="s">
         <v>821</v>
       </c>
-      <c r="G52" s="62" t="s">
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="61" t="s">
         <v>822</v>
       </c>
-      <c r="H52" s="62" t="s">
+      <c r="C53" s="61" t="s">
         <v>823</v>
       </c>
-      <c r="I52" s="62" t="s">
+      <c r="D53" s="61" t="s">
         <v>824</v>
       </c>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="63"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B53" s="62" t="s">
+      <c r="E53" s="61" t="s">
         <v>825</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="F53" s="61" t="s">
         <v>826</v>
       </c>
-      <c r="D53" s="62" t="s">
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="61" t="s">
         <v>827</v>
       </c>
-      <c r="E53" s="62" t="s">
+      <c r="C54" s="61" t="s">
         <v>828</v>
       </c>
-      <c r="F53" s="62" t="s">
+      <c r="D54" s="61" t="s">
         <v>829</v>
       </c>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B54" s="62" t="s">
+      <c r="E54" s="61" t="s">
         <v>830</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="F54" s="61" t="s">
         <v>831</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="61" t="s">
         <v>832</v>
       </c>
-      <c r="E54" s="62" t="s">
+      <c r="C55" s="61" t="s">
         <v>833</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="D55" s="61" t="s">
         <v>834</v>
       </c>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="62" t="s">
+      <c r="E55" s="61" t="s">
+        <v>835</v>
+      </c>
+      <c r="F55" s="61" t="s">
+        <v>836</v>
+      </c>
+      <c r="G55" s="61" t="s">
+        <v>837</v>
+      </c>
+      <c r="H55" s="61" t="s">
+        <v>838</v>
+      </c>
+      <c r="I55" s="61" t="s">
+        <v>839</v>
+      </c>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="63" t="s">
+        <v>840</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>841</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>842</v>
+      </c>
+      <c r="E56" s="63" t="s">
+        <v>843</v>
+      </c>
+      <c r="F56" s="63" t="s">
+        <v>844</v>
+      </c>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="63" t="s">
+        <v>845</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>846</v>
+      </c>
+      <c r="D57" s="63" t="s">
+        <v>847</v>
+      </c>
+      <c r="E57" s="63" t="s">
+        <v>848</v>
+      </c>
+      <c r="F57" s="63" t="s">
+        <v>849</v>
+      </c>
+      <c r="G57" s="66" t="s">
+        <v>850</v>
+      </c>
+      <c r="H57" s="66" t="s">
+        <v>851</v>
+      </c>
+      <c r="I57" s="66" t="s">
+        <v>852</v>
+      </c>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="62" t="s">
-        <v>835</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>836</v>
-      </c>
-      <c r="D55" s="62" t="s">
-        <v>837</v>
-      </c>
-      <c r="E55" s="62" t="s">
-        <v>838</v>
-      </c>
-      <c r="F55" s="62" t="s">
-        <v>839</v>
-      </c>
-      <c r="G55" s="62" t="s">
-        <v>840</v>
-      </c>
-      <c r="H55" s="62" t="s">
-        <v>841</v>
-      </c>
-      <c r="I55" s="62" t="s">
-        <v>842</v>
-      </c>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>843</v>
-      </c>
-      <c r="C56" s="64" t="s">
-        <v>844</v>
-      </c>
-      <c r="D56" s="64" t="s">
-        <v>845</v>
-      </c>
-      <c r="E56" s="64" t="s">
-        <v>846</v>
-      </c>
-      <c r="F56" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B57" s="64" t="s">
-        <v>848</v>
-      </c>
-      <c r="C57" s="64" t="s">
-        <v>849</v>
-      </c>
-      <c r="D57" s="64" t="s">
-        <v>850</v>
-      </c>
-      <c r="E57" s="64" t="s">
-        <v>851</v>
-      </c>
-      <c r="F57" s="64" t="s">
-        <v>852</v>
-      </c>
-      <c r="G57" s="67" t="s">
+      <c r="B58" s="61" t="s">
         <v>853</v>
       </c>
-      <c r="H57" s="67" t="s">
-        <v>854</v>
-      </c>
-      <c r="I57" s="67" t="s">
-        <v>855</v>
-      </c>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>856</v>
-      </c>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="63"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/KBQA/QTemplates-sparqlQ.xlsx
+++ b/KBQA/QTemplates-sparqlQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhejianglab.com\入职后\work\workspace\RoboCloudBrain\KBQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25479CB5-5D7A-4B40-8742-30B7CD4C973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6B7CF4-7B7A-4124-9916-05D504731111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1202">
   <si>
     <t>项目参与者年龄是多少</t>
   </si>
@@ -5061,14 +5061,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>project, key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result, key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
 PREFIX bob: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/bob#&gt;
 PREFIX poap: &lt;http://purl.org/zhejianglab/irobot-center/ontologies/poap#&gt;
@@ -5080,7 +5072,7 @@
            bob:hasKeyValuePair ?akvpair .
     ?akvpair bob:propertyKey ?key ;
              bob:propertyValue ?value
-    FILTER (CONTAINS(?key, "_key")) .
+    FILTER (CONTAINS(?key, "发布时间")) .
 } </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5094,7 +5086,7 @@
            bob:hasKeyValuePair ?akvpair .
     ?akvpair bob:propertyKey ?key ;
              bob:propertyValue ?value
-    FILTER (CONTAINS(?key, "_key")) .
+    FILTER (CONTAINS(?key, "发布时间")) .
 } </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6115,7 +6107,7 @@
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7712,10 +7704,10 @@
         <v>1189</v>
       </c>
       <c r="D90" s="50" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>1200</v>
+        <v>948</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="224" x14ac:dyDescent="0.35">
@@ -7729,10 +7721,10 @@
         <v>1189</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>1201</v>
+        <v>946</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
